--- a/inst/extdata/je-f-21.03.02.xlsx
+++ b/inst/extdata/je-f-21.03.02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\SKS\DIAM\30_Input\TK_Exchange\PORTRAETS_Regional\Regionalporträts\Regionalporträts_2019\04_Regional_indikatoren_Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\SKS\DIAM\30_Input\TK_Exchange\PORTRAETS_Regional\Regionalporträts\Regionalporträts_2020\04_Regional_indikatoren_Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="135">
   <si>
     <t>2004/09</t>
   </si>
@@ -120,18 +120,24 @@
     <t>*</t>
   </si>
   <si>
-    <t>2010-2017</t>
-  </si>
-  <si>
-    <t>2016p</t>
-  </si>
-  <si>
-    <t>2015-2016p</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
+    <t>2010-2018</t>
+  </si>
+  <si>
+    <t>2017p</t>
+  </si>
+  <si>
+    <t>2016-2017p</t>
+  </si>
+  <si>
+    <t>2016-18</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
     <t>Population</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Evangéliques réformés</t>
   </si>
   <si>
+    <t>Sans appartenance religieuse</t>
+  </si>
+  <si>
     <t>Surface en km² 4)</t>
   </si>
   <si>
@@ -300,18 +309,21 @@
     <t>Sécurité sociale</t>
   </si>
   <si>
-    <t xml:space="preserve">Taux d'aide sociale </t>
-  </si>
-  <si>
     <t>Santé</t>
   </si>
   <si>
+    <t>Médecins dans le secteur ambulatoire pour 100 000 habitants</t>
+  </si>
+  <si>
     <t>Hôpitaux</t>
   </si>
   <si>
     <t>Lits pour 1000 habitants</t>
   </si>
   <si>
+    <t>Taux d'hospitalisation en soins aigus (pour 1000 habitants)</t>
+  </si>
+  <si>
     <t>Durée moyenne d'hospitalisation en soins aigus en jours</t>
   </si>
   <si>
@@ -330,12 +342,6 @@
     <t>Taux de diplômes des hautes écoles</t>
   </si>
   <si>
-    <t>Partis politiques en % (élections au Conseil national)</t>
-  </si>
-  <si>
-    <t>PLR</t>
-  </si>
-  <si>
     <t>PDC</t>
   </si>
   <si>
@@ -378,34 +384,16 @@
     <t>1) Selon la typologie de l’OFS "L'espace à caractère urbain, 2012"</t>
   </si>
   <si>
-    <t>2) Ces indications sont des estimations, elle proviennent du relevé structurel, qui est une enquête par échantillonage. Les intervalles de confiance ne sont pas indiqués dans ce tableau.</t>
-  </si>
-  <si>
-    <t>3) Plusieurs langues pouvaient être indiquées dans le relevé, le total peut par conséquent dépasser 100%.</t>
+    <t>Office fédéral de la statistique</t>
+  </si>
+  <si>
+    <t>© OFS</t>
   </si>
   <si>
     <t>Renseignements: renseignements statistiques, 058 463 60 11, info@bfs.admin.ch</t>
   </si>
   <si>
-    <t>Office fédéral de la statistique</t>
-  </si>
-  <si>
-    <t>© OFS</t>
-  </si>
-  <si>
-    <t>Années</t>
-  </si>
-  <si>
-    <t>Suisse</t>
-  </si>
-  <si>
-    <t>Médecins dans le secteur ambulatoire pour 100 000 habitants</t>
-  </si>
-  <si>
-    <t>Choix d'indicateurs en comparaison régionale, 2019</t>
-  </si>
-  <si>
-    <t>Taux d'hospitalisation en soins aigus (pour 1000 habitants)</t>
+    <t>3) Plusieurs langues pouvaient être indiquées dans le relevé, le total peut donc dépasser 100%.</t>
   </si>
   <si>
     <r>
@@ -430,30 +418,50 @@
     </r>
   </si>
   <si>
-    <t>Etat de la banque de données: 28.01.2019</t>
-  </si>
-  <si>
-    <t>Sans appartenance religieuse</t>
-  </si>
-  <si>
-    <t>Principal moyen de transport des pendulaires actifs occupés en % 2), 5)</t>
-  </si>
-  <si>
-    <t>5) Changement de la base de calcul</t>
+    <t>Principal moyen de transport des pendulaires actifs occupés en % 2)</t>
+  </si>
+  <si>
+    <t>Choix d'indicateurs en comparaison régionale, 2020</t>
+  </si>
+  <si>
+    <t>2) Ces indications proviennent du relevé structurel, qui est une enquête par échantillonnage. Les chiffres concernant les langues et les religions sont des données cumulées sur la période 2016-2018.</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Parts d'électeurs des partis sélectionnés en % (élections au Conseil national)</t>
+  </si>
+  <si>
+    <t>Taux d'aide sociale 5)</t>
+  </si>
+  <si>
+    <t>PLR 6)</t>
+  </si>
+  <si>
+    <t>6) Suisse et canton Bâle-Ville: PLR y compris PL-BS</t>
+  </si>
+  <si>
+    <t>5) Données partiellement révisées (17.07.2020)</t>
+  </si>
+  <si>
+    <t>Version révisée 17.07.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;\−#,##0.0;\–"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="\(#,##0.0\)"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="\(0.0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +491,8 @@
       <family val="1"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="8"/>
-      <color indexed="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -503,12 +511,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -545,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -645,24 +647,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -738,29 +732,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -769,22 +751,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -792,23 +758,25 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Komma 3" xfId="5"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -1120,19 +1088,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="19" customWidth="1"/>
     <col min="3" max="29" width="6.7109375" style="19" customWidth="1"/>
     <col min="30" max="16384" width="11.42578125" style="19"/>
   </cols>
@@ -1209,10 +1177,10 @@
     <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="38" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>3</v>
@@ -1329,311 +1297,311 @@
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
+      <c r="A7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C8" s="18">
-        <v>8484.1299999999992</v>
+        <v>8544.527</v>
       </c>
       <c r="D8" s="18">
-        <v>1504.346</v>
+        <v>1520.9680000000001</v>
       </c>
       <c r="E8" s="18">
-        <v>1031.126</v>
+        <v>1034.9770000000001</v>
       </c>
       <c r="F8" s="18">
-        <v>406.50599999999997</v>
+        <v>409.55700000000002</v>
       </c>
       <c r="G8" s="18">
-        <v>36.298999999999999</v>
+        <v>36.433</v>
       </c>
       <c r="H8" s="18">
-        <v>157.30099999999999</v>
+        <v>159.16499999999999</v>
       </c>
       <c r="I8" s="18">
-        <v>37.575000000000003</v>
+        <v>37.841000000000001</v>
       </c>
       <c r="J8" s="18">
-        <v>42.969000000000001</v>
+        <v>43.222999999999999</v>
       </c>
       <c r="K8" s="18">
-        <v>40.348999999999997</v>
+        <v>40.402999999999999</v>
       </c>
       <c r="L8" s="18">
-        <v>125.42100000000001</v>
+        <v>126.837</v>
       </c>
       <c r="M8" s="18">
-        <v>315.07400000000001</v>
+        <v>318.714</v>
       </c>
       <c r="N8" s="18">
-        <v>271.43200000000002</v>
+        <v>273.19400000000002</v>
       </c>
       <c r="O8" s="18">
-        <v>193.90799999999999</v>
+        <v>194.76599999999999</v>
       </c>
       <c r="P8" s="18">
-        <v>287.02300000000002</v>
+        <v>288.13200000000001</v>
       </c>
       <c r="Q8" s="18">
-        <v>81.350999999999999</v>
+        <v>81.991</v>
       </c>
       <c r="R8" s="18">
-        <v>55.177999999999997</v>
+        <v>55.234000000000002</v>
       </c>
       <c r="S8" s="18">
-        <v>16.105</v>
+        <v>16.145</v>
       </c>
       <c r="T8" s="18">
-        <v>504.68599999999998</v>
+        <v>507.697</v>
       </c>
       <c r="U8" s="18">
-        <v>197.88800000000001</v>
+        <v>198.37899999999999</v>
       </c>
       <c r="V8" s="18">
-        <v>670.98800000000006</v>
+        <v>678.20699999999999</v>
       </c>
       <c r="W8" s="18">
-        <v>273.80099999999999</v>
+        <v>276.47199999999998</v>
       </c>
       <c r="X8" s="18">
-        <v>353.709</v>
+        <v>353.34300000000002</v>
       </c>
       <c r="Y8" s="18">
-        <v>793.12900000000002</v>
+        <v>799.14499999999998</v>
       </c>
       <c r="Z8" s="18">
-        <v>341.46300000000002</v>
+        <v>343.95499999999998</v>
       </c>
       <c r="AA8" s="18">
-        <v>177.964</v>
+        <v>176.85</v>
       </c>
       <c r="AB8" s="18">
-        <v>495.24900000000002</v>
+        <v>499.48</v>
       </c>
       <c r="AC8" s="18">
-        <v>73.290000000000006</v>
+        <v>73.418999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18">
-        <v>7.8015952459999998</v>
+        <v>8.6</v>
       </c>
       <c r="D9" s="18">
-        <v>9.5609248776999998</v>
+        <v>10.7714985711</v>
       </c>
       <c r="E9" s="18">
-        <v>5.2382011875999996</v>
+        <v>5.6312397810999997</v>
       </c>
       <c r="F9" s="18">
-        <v>7.6523397156000001</v>
+        <v>8.4603161992999993</v>
       </c>
       <c r="G9" s="18">
-        <v>2.4758624584</v>
+        <v>2.8541584325999998</v>
       </c>
       <c r="H9" s="18">
-        <v>7.2043890138000002</v>
+        <v>8.4747495399999995</v>
       </c>
       <c r="I9" s="18">
-        <v>5.5922439229999998</v>
+        <v>6.3397498945999997</v>
       </c>
       <c r="J9" s="18">
-        <v>4.7411271451000001</v>
+        <v>5.3602769110999997</v>
       </c>
       <c r="K9" s="18">
-        <v>4.5094280977999999</v>
+        <v>4.6492954828000004</v>
       </c>
       <c r="L9" s="18">
-        <v>10.888996949699999</v>
+        <v>12.1409309933</v>
       </c>
       <c r="M9" s="18">
-        <v>13.1353391288</v>
+        <v>14.442373776</v>
       </c>
       <c r="N9" s="18">
-        <v>6.3255041444</v>
+        <v>7.0157158301999996</v>
       </c>
       <c r="O9" s="18">
-        <v>4.8434712083999996</v>
+        <v>5.3073803731</v>
       </c>
       <c r="P9" s="18">
-        <v>4.5986938966000004</v>
+        <v>5.0028425242000001</v>
       </c>
       <c r="Q9" s="18">
-        <v>6.5417256010999996</v>
+        <v>7.3799046571</v>
       </c>
       <c r="R9" s="18">
-        <v>4.0760510779999999</v>
+        <v>4.1816775751000002</v>
       </c>
       <c r="S9" s="18">
-        <v>2.6580826109000002</v>
+        <v>2.9130545639999998</v>
       </c>
       <c r="T9" s="18">
-        <v>5.3828822714999998</v>
+        <v>6.0116055935999997</v>
       </c>
       <c r="U9" s="18">
-        <v>2.7343851397000001</v>
+        <v>2.9892898489999999</v>
       </c>
       <c r="V9" s="18">
-        <v>9.7343106567</v>
+        <v>10.9149159561</v>
       </c>
       <c r="W9" s="18">
-        <v>10.2063241616</v>
+        <v>11.2814155303</v>
       </c>
       <c r="X9" s="18">
-        <v>5.9792720963999999</v>
+        <v>5.8696101607999998</v>
       </c>
       <c r="Y9" s="18">
-        <v>11.194466136100001</v>
+        <v>12.0378924996</v>
       </c>
       <c r="Z9" s="18">
-        <v>9.2038607668000001</v>
+        <v>10.000831510399999</v>
       </c>
       <c r="AA9" s="18">
-        <v>3.4163349508</v>
+        <v>2.7689804457</v>
       </c>
       <c r="AB9" s="18">
-        <v>8.2002993129000004</v>
+        <v>9.1246736506000001</v>
       </c>
       <c r="AC9" s="18">
-        <v>4.6521590130000003</v>
+        <v>4.8363605208999996</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C10" s="18">
-        <v>212.1424433164</v>
+        <v>213.7</v>
       </c>
       <c r="D10" s="18">
-        <v>905.77418655619999</v>
+        <v>915.78788918789996</v>
       </c>
       <c r="E10" s="18">
-        <v>176.5442308252</v>
+        <v>177.20540017639999</v>
       </c>
       <c r="F10" s="18">
-        <v>284.44298279370003</v>
+        <v>286.57584281459998</v>
       </c>
       <c r="G10" s="18">
-        <v>34.330489719500001</v>
+        <v>34.457874626399999</v>
       </c>
       <c r="H10" s="18">
-        <v>184.7752287651</v>
+        <v>186.95820706180001</v>
       </c>
       <c r="I10" s="18">
-        <v>78.180267154899994</v>
+        <v>78.733718946400003</v>
       </c>
       <c r="J10" s="18">
-        <v>178.04342421480001</v>
+        <v>179.0884607417</v>
       </c>
       <c r="K10" s="18">
-        <v>59.275745555999997</v>
+        <v>59.3550756574</v>
       </c>
       <c r="L10" s="18">
-        <v>605.43058505500005</v>
+        <v>612.29543808829999</v>
       </c>
       <c r="M10" s="18">
-        <v>197.75180759189999</v>
+        <v>200.36462622670001</v>
       </c>
       <c r="N10" s="18">
-        <v>343.38920867860003</v>
+        <v>345.6183186792</v>
       </c>
       <c r="O10" s="18">
-        <v>5247.8484438429996</v>
+        <v>5271.0690121786001</v>
       </c>
       <c r="P10" s="18">
-        <v>554.45167770969999</v>
+        <v>556.59396913089995</v>
       </c>
       <c r="Q10" s="18">
-        <v>272.84343976389999</v>
+        <v>274.99916149590001</v>
       </c>
       <c r="R10" s="18">
-        <v>227.21956844010001</v>
+        <v>227.4501729534</v>
       </c>
       <c r="S10" s="18">
-        <v>93.373144712400006</v>
+        <v>93.605055658599994</v>
       </c>
       <c r="T10" s="18">
-        <v>258.66741837939998</v>
+        <v>260.22398769860001</v>
       </c>
       <c r="U10" s="18">
-        <v>27.8504065224</v>
+        <v>27.919508992499999</v>
       </c>
       <c r="V10" s="18">
-        <v>480.97084734100002</v>
+        <v>486.13504408289998</v>
       </c>
       <c r="W10" s="18">
-        <v>317.22607778849999</v>
+        <v>320.31698952639999</v>
       </c>
       <c r="X10" s="18">
-        <v>129.0423672853</v>
+        <v>129.06281047280001</v>
       </c>
       <c r="Y10" s="18">
-        <v>281.14274978819998</v>
+        <v>283.28027961319998</v>
       </c>
       <c r="Z10" s="18">
-        <v>65.491024935300004</v>
+        <v>65.9674607452</v>
       </c>
       <c r="AA10" s="18">
-        <v>248.3033820739</v>
+        <v>246.74219382199999</v>
       </c>
       <c r="AB10" s="18">
-        <v>2014.6814742495001</v>
+        <v>2032.0585842148</v>
       </c>
       <c r="AC10" s="18">
-        <v>87.405039892199994</v>
+        <v>87.558884211299997</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1669,85 +1637,85 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="18">
-        <v>20.043233660999999</v>
+        <v>20</v>
       </c>
       <c r="D12" s="18">
-        <v>19.733093317600002</v>
+        <v>19.735983925999999</v>
       </c>
       <c r="E12" s="18">
-        <v>19.053345565899999</v>
+        <v>19.042065669100001</v>
       </c>
       <c r="F12" s="18">
-        <v>20.385430965299999</v>
+        <v>20.354431739700001</v>
       </c>
       <c r="G12" s="18">
-        <v>20.273285765400001</v>
+        <v>20.146570416900001</v>
       </c>
       <c r="H12" s="18">
-        <v>19.545330290300001</v>
+        <v>19.467847830899998</v>
       </c>
       <c r="I12" s="18">
-        <v>20.284763805699999</v>
+        <v>20.187098649599999</v>
       </c>
       <c r="J12" s="18">
-        <v>18.310875282200001</v>
+        <v>18.2402887352</v>
       </c>
       <c r="K12" s="18">
-        <v>19.2346774393</v>
+        <v>19.122342400299999</v>
       </c>
       <c r="L12" s="18">
-        <v>20.227075210700001</v>
+        <v>20.285090312800001</v>
       </c>
       <c r="M12" s="18">
-        <v>22.4677377378</v>
+        <v>22.341660548299998</v>
       </c>
       <c r="N12" s="18">
-        <v>19.078811636099999</v>
+        <v>19.054225202600001</v>
       </c>
       <c r="O12" s="18">
-        <v>17.078717742399999</v>
+        <v>17.243769446400002</v>
       </c>
       <c r="P12" s="18">
-        <v>19.200203468000002</v>
+        <v>19.2023100523</v>
       </c>
       <c r="Q12" s="18">
-        <v>18.809848680399998</v>
+        <v>18.795965410800001</v>
       </c>
       <c r="R12" s="18">
-        <v>20.2073290079</v>
+        <v>20.1470108991</v>
       </c>
       <c r="S12" s="18">
-        <v>21.601986960600001</v>
+        <v>21.207804273800001</v>
       </c>
       <c r="T12" s="18">
-        <v>20.6367919855</v>
+        <v>20.5335071903</v>
       </c>
       <c r="U12" s="18">
-        <v>18.1415750323</v>
+        <v>17.989303303300002</v>
       </c>
       <c r="V12" s="18">
-        <v>20.260421945000001</v>
+        <v>20.236446984499999</v>
       </c>
       <c r="W12" s="18">
-        <v>20.352372708600001</v>
+        <v>20.3185132672</v>
       </c>
       <c r="X12" s="18">
-        <v>18.311380258900002</v>
+        <v>18.140447100999999</v>
       </c>
       <c r="Y12" s="18">
-        <v>21.994656606900001</v>
+        <v>21.982243522800001</v>
       </c>
       <c r="Z12" s="18">
-        <v>19.8630598337</v>
+        <v>19.7714817345</v>
       </c>
       <c r="AA12" s="18">
-        <v>21.3183565215</v>
+        <v>21.1258128357</v>
       </c>
       <c r="AB12" s="18">
-        <v>21.121496459399999</v>
+        <v>21.124169135900001</v>
       </c>
       <c r="AC12" s="18">
-        <v>21.212989493799999</v>
+        <v>20.9686865798</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1756,358 +1724,358 @@
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="18">
-        <v>61.683060019099997</v>
+        <v>61.5</v>
       </c>
       <c r="D13" s="18">
-        <v>63.2913571745</v>
+        <v>63.253073043000001</v>
       </c>
       <c r="E13" s="18">
-        <v>60.387188374700003</v>
+        <v>60.137761515500003</v>
       </c>
       <c r="F13" s="18">
-        <v>62.2121198703</v>
+        <v>62.0489944013</v>
       </c>
       <c r="G13" s="18">
-        <v>59.660045731300002</v>
+        <v>59.426893201200002</v>
       </c>
       <c r="H13" s="18">
-        <v>63.007228180399999</v>
+        <v>62.7945842365</v>
       </c>
       <c r="I13" s="18">
-        <v>61.421157684599997</v>
+        <v>61.044898390599997</v>
       </c>
       <c r="J13" s="18">
-        <v>61.951639554099998</v>
+        <v>61.430257039099999</v>
       </c>
       <c r="K13" s="18">
-        <v>61.044883392400003</v>
+        <v>60.802415662199998</v>
       </c>
       <c r="L13" s="18">
-        <v>63.057223272000002</v>
+        <v>62.755347414399999</v>
       </c>
       <c r="M13" s="18">
-        <v>62.018446460200003</v>
+        <v>61.930759238699999</v>
       </c>
       <c r="N13" s="18">
-        <v>61.587800996200002</v>
+        <v>61.386414050100001</v>
       </c>
       <c r="O13" s="18">
-        <v>62.943251438799997</v>
+        <v>62.878531160500003</v>
       </c>
       <c r="P13" s="18">
-        <v>59.119652432000002</v>
+        <v>58.860869323800003</v>
       </c>
       <c r="Q13" s="18">
-        <v>60.199628769199997</v>
+        <v>60.046834408700001</v>
       </c>
       <c r="R13" s="18">
-        <v>60.600239225800003</v>
+        <v>60.144114132600002</v>
       </c>
       <c r="S13" s="18">
-        <v>59.689537410699998</v>
+        <v>59.64694952</v>
       </c>
       <c r="T13" s="18">
-        <v>61.386683997600002</v>
+        <v>61.217419051100002</v>
       </c>
       <c r="U13" s="18">
-        <v>60.962766817599999</v>
+        <v>60.684850715000003</v>
       </c>
       <c r="V13" s="18">
-        <v>62.388448079500002</v>
+        <v>62.112894735700003</v>
       </c>
       <c r="W13" s="18">
-        <v>62.392394476299998</v>
+        <v>62.084406377500002</v>
       </c>
       <c r="X13" s="18">
-        <v>59.382430189799997</v>
+        <v>59.248379053800001</v>
       </c>
       <c r="Y13" s="18">
-        <v>61.642557515900002</v>
+        <v>61.575183477300001</v>
       </c>
       <c r="Z13" s="18">
-        <v>60.808638124799998</v>
+        <v>60.618394848199998</v>
       </c>
       <c r="AA13" s="18">
-        <v>59.881211930500001</v>
+        <v>59.831495617800002</v>
       </c>
       <c r="AB13" s="18">
-        <v>62.465345714999998</v>
+        <v>62.467366060700002</v>
       </c>
       <c r="AC13" s="18">
-        <v>58.203029062600002</v>
+        <v>58.148435691000003</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="18">
-        <v>18.2737063199</v>
+        <v>18.5</v>
       </c>
       <c r="D14" s="18">
-        <v>16.975549507899999</v>
+        <v>17.010943031</v>
       </c>
       <c r="E14" s="18">
-        <v>20.559466059399998</v>
+        <v>20.820172815399999</v>
       </c>
       <c r="F14" s="18">
-        <v>17.402449164299998</v>
+        <v>17.596573859100001</v>
       </c>
       <c r="G14" s="18">
-        <v>20.066668503300001</v>
+        <v>20.4265363819</v>
       </c>
       <c r="H14" s="18">
-        <v>17.447441529300001</v>
+        <v>17.737567932600001</v>
       </c>
       <c r="I14" s="18">
-        <v>18.294078509599998</v>
+        <v>18.7680029598</v>
       </c>
       <c r="J14" s="18">
-        <v>19.737485163700001</v>
+        <v>20.329454225799999</v>
       </c>
       <c r="K14" s="18">
-        <v>19.7204391683</v>
+        <v>20.0752419375</v>
       </c>
       <c r="L14" s="18">
-        <v>16.715701517300001</v>
+        <v>16.9595622728</v>
       </c>
       <c r="M14" s="18">
-        <v>15.513815802</v>
+        <v>15.727580213</v>
       </c>
       <c r="N14" s="18">
-        <v>19.333387367699999</v>
+        <v>19.559360747300001</v>
       </c>
       <c r="O14" s="18">
-        <v>19.978030818699999</v>
+        <v>19.877699393099999</v>
       </c>
       <c r="P14" s="18">
-        <v>21.6801441</v>
+        <v>21.936820623900001</v>
       </c>
       <c r="Q14" s="18">
-        <v>20.990522550400001</v>
+        <v>21.157200180499999</v>
       </c>
       <c r="R14" s="18">
-        <v>19.1924317663</v>
+        <v>19.708874968300002</v>
       </c>
       <c r="S14" s="18">
-        <v>18.7084756287</v>
+        <v>19.145246206300001</v>
       </c>
       <c r="T14" s="18">
-        <v>17.976524016900001</v>
+        <v>18.249073758600002</v>
       </c>
       <c r="U14" s="18">
-        <v>20.895658150100001</v>
+        <v>21.325845981699999</v>
       </c>
       <c r="V14" s="18">
-        <v>17.351129975500001</v>
+        <v>17.650658279799998</v>
       </c>
       <c r="W14" s="18">
-        <v>17.255232815100001</v>
+        <v>17.597080355300001</v>
       </c>
       <c r="X14" s="18">
-        <v>22.306189551300001</v>
+        <v>22.6111738452</v>
       </c>
       <c r="Y14" s="18">
-        <v>16.3627858772</v>
+        <v>16.442572999900001</v>
       </c>
       <c r="Z14" s="18">
-        <v>19.328302041499999</v>
+        <v>19.610123417299999</v>
       </c>
       <c r="AA14" s="18">
-        <v>18.800431547999999</v>
+        <v>19.042691546499999</v>
       </c>
       <c r="AB14" s="18">
-        <v>16.413157825700001</v>
+        <v>16.408464803400001</v>
       </c>
       <c r="AC14" s="18">
-        <v>20.583981443599999</v>
+        <v>20.882877729200001</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C15" s="33">
-        <v>84.761383901499997</v>
+        <v>84.8</v>
       </c>
       <c r="D15" s="33">
-        <v>99.322163917099999</v>
+        <v>99.328519732199993</v>
       </c>
       <c r="E15" s="33">
-        <v>74.603394735500004</v>
+        <v>74.680500146399993</v>
       </c>
       <c r="F15" s="33">
-        <v>63.715910712300001</v>
+        <v>63.759867368899997</v>
       </c>
       <c r="G15" s="33">
-        <v>88.481776357499996</v>
+        <v>88.622951719599996</v>
       </c>
       <c r="H15" s="33">
-        <v>81.985492781399998</v>
+        <v>82.033110294300002</v>
       </c>
       <c r="I15" s="33">
-        <v>27.241516966100001</v>
+        <v>27.3988530958</v>
       </c>
       <c r="J15" s="33">
-        <v>50.624869091699999</v>
+        <v>50.607315549600003</v>
       </c>
       <c r="K15" s="33">
-        <v>76.254677935000004</v>
+        <v>76.501744919900005</v>
       </c>
       <c r="L15" s="33">
         <v>100</v>
       </c>
       <c r="M15" s="33">
-        <v>74.939538013299995</v>
+        <v>74.852375484000007</v>
       </c>
       <c r="N15" s="33">
-        <v>86.0996492676</v>
+        <v>85.972971587999993</v>
       </c>
       <c r="O15" s="33">
         <v>100</v>
       </c>
       <c r="P15" s="33">
-        <v>97.583120516500003</v>
+        <v>97.619840906299999</v>
       </c>
       <c r="Q15" s="33">
-        <v>89.791151921899996</v>
+        <v>89.797660718900005</v>
       </c>
       <c r="R15" s="33">
-        <v>76.592120047799995</v>
+        <v>76.608610638399995</v>
       </c>
       <c r="S15" s="33">
         <v>0</v>
       </c>
       <c r="T15" s="33">
-        <v>82.457805447300004</v>
+        <v>82.427116961500005</v>
       </c>
       <c r="U15" s="33">
-        <v>44.754608667500001</v>
+        <v>44.834382671599997</v>
       </c>
       <c r="V15" s="33">
-        <v>85.047124538700004</v>
+        <v>85.034067769900005</v>
       </c>
       <c r="W15" s="33">
-        <v>67.127585363099996</v>
+        <v>67.071529847500003</v>
       </c>
       <c r="X15" s="33">
-        <v>92.693146060700002</v>
+        <v>92.765103596200007</v>
       </c>
       <c r="Y15" s="33">
-        <v>89.5824008453</v>
+        <v>89.619155472399996</v>
       </c>
       <c r="Z15" s="33">
-        <v>78.670309813900005</v>
+        <v>78.793156081500001</v>
       </c>
       <c r="AA15" s="33">
-        <v>89.903576004100003</v>
+        <v>87.825275657299997</v>
       </c>
       <c r="AB15" s="33">
         <v>100</v>
       </c>
       <c r="AC15" s="33">
-        <v>53.297857825100003</v>
+        <v>53.295468475500002</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C16" s="18">
-        <v>25.0631708849</v>
+        <v>25.1</v>
       </c>
       <c r="D16" s="18">
-        <v>26.744645181399999</v>
+        <v>26.850926515200001</v>
       </c>
       <c r="E16" s="18">
-        <v>16.174647909200001</v>
+        <v>16.335725334999999</v>
       </c>
       <c r="F16" s="18">
-        <v>18.448436185399999</v>
+        <v>18.528556464699999</v>
       </c>
       <c r="G16" s="18">
-        <v>12.041654040099999</v>
+        <v>12.3432053358</v>
       </c>
       <c r="H16" s="18">
-        <v>21.087596391600002</v>
+        <v>21.573210190699999</v>
       </c>
       <c r="I16" s="18">
-        <v>14.6879574185</v>
+        <v>14.65341825</v>
       </c>
       <c r="J16" s="18">
-        <v>14.5616607322</v>
+        <v>14.6935659255</v>
       </c>
       <c r="K16" s="18">
-        <v>24.072467719199999</v>
+        <v>24.087320248499999</v>
       </c>
       <c r="L16" s="18">
-        <v>27.8988367179</v>
+        <v>28.319812042199999</v>
       </c>
       <c r="M16" s="18">
-        <v>22.5124891295</v>
+        <v>22.7034268968</v>
       </c>
       <c r="N16" s="18">
-        <v>22.333402104400001</v>
+        <v>22.619457235500001</v>
       </c>
       <c r="O16" s="18">
-        <v>35.976339294900001</v>
+        <v>36.402144111399998</v>
       </c>
       <c r="P16" s="18">
-        <v>22.534779442800001</v>
+        <v>22.814543334300001</v>
       </c>
       <c r="Q16" s="18">
-        <v>26.018119015100002</v>
+        <v>26.057738044400001</v>
       </c>
       <c r="R16" s="18">
-        <v>16.305411577099999</v>
+        <v>16.319658181600001</v>
       </c>
       <c r="S16" s="18">
-        <v>11.387767774</v>
+        <v>11.2976153608</v>
       </c>
       <c r="T16" s="18">
-        <v>23.9616315888</v>
+        <v>24.109262020500001</v>
       </c>
       <c r="U16" s="18">
-        <v>18.6484273933</v>
+        <v>18.642094173299999</v>
       </c>
       <c r="V16" s="18">
-        <v>24.930252105800001</v>
+        <v>25.1286111762</v>
       </c>
       <c r="W16" s="18">
-        <v>24.719778233100001</v>
+        <v>24.869787898999999</v>
       </c>
       <c r="X16" s="18">
-        <v>27.872347042299999</v>
+        <v>27.799333791799999</v>
       </c>
       <c r="Y16" s="18">
-        <v>33.539562920999998</v>
+        <v>33.1938509282</v>
       </c>
       <c r="Z16" s="18">
-        <v>22.954463587599999</v>
+        <v>22.699481036800002</v>
       </c>
       <c r="AA16" s="18">
-        <v>25.371985345399999</v>
+        <v>25.279615493400001</v>
       </c>
       <c r="AB16" s="18">
-        <v>40.095790198499998</v>
+        <v>40.029630816000001</v>
       </c>
       <c r="AC16" s="18">
-        <v>14.6964115159</v>
+        <v>14.666503221199999</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -2139,528 +2107,528 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="18">
-        <v>4.8035694002999998</v>
+        <v>4.8</v>
       </c>
       <c r="D18" s="18">
-        <v>5.5034312898</v>
+        <v>5.4718287094000004</v>
       </c>
       <c r="E18" s="18">
-        <v>4.8142555617999996</v>
+        <v>4.7674293101999998</v>
       </c>
       <c r="F18" s="18">
-        <v>4.9956599740999996</v>
+        <v>4.9211886827000004</v>
       </c>
       <c r="G18" s="18">
-        <v>4.7208878582000002</v>
+        <v>4.6746961448000004</v>
       </c>
       <c r="H18" s="18">
-        <v>5.0772119400999998</v>
+        <v>5.0937541474000003</v>
       </c>
       <c r="I18" s="18">
-        <v>4.6162261683999999</v>
+        <v>4.9326402885</v>
       </c>
       <c r="J18" s="18">
-        <v>5.4720841859</v>
+        <v>5.1744941526000003</v>
       </c>
       <c r="K18" s="18">
-        <v>4.2735042735000004</v>
+        <v>4.5076282939999999</v>
       </c>
       <c r="L18" s="18">
-        <v>5.0768138782000003</v>
+        <v>5.3992341174999998</v>
       </c>
       <c r="M18" s="18">
-        <v>4.0670634845000002</v>
+        <v>4.3831691354000002</v>
       </c>
       <c r="N18" s="18">
-        <v>4.7959502507999998</v>
+        <v>4.6968011074999998</v>
       </c>
       <c r="O18" s="18">
-        <v>5.3439730424</v>
+        <v>5.2949258246999999</v>
       </c>
       <c r="P18" s="18">
-        <v>4.4495125269000004</v>
+        <v>4.3257904391000004</v>
       </c>
       <c r="Q18" s="18">
-        <v>4.7125585986000003</v>
+        <v>4.7507683266000003</v>
       </c>
       <c r="R18" s="18">
-        <v>4.7942469037000004</v>
+        <v>4.5284932797000002</v>
       </c>
       <c r="S18" s="18">
-        <v>4.4225738133999997</v>
+        <v>3.5968992248</v>
       </c>
       <c r="T18" s="18">
-        <v>4.9243575004000002</v>
+        <v>5.2075153376000003</v>
       </c>
       <c r="U18" s="18">
-        <v>4.5316838543999998</v>
+        <v>4.3102251765000004</v>
       </c>
       <c r="V18" s="18">
-        <v>5.1197122410000002</v>
+        <v>4.9674064905000002</v>
       </c>
       <c r="W18" s="18">
-        <v>5.1422379753999996</v>
+        <v>4.9211936621000003</v>
       </c>
       <c r="X18" s="18">
-        <v>3.8102823958999998</v>
+        <v>3.6998693165000001</v>
       </c>
       <c r="Y18" s="18">
-        <v>4.3828990888000003</v>
+        <v>4.1839532643000004</v>
       </c>
       <c r="Z18" s="18">
-        <v>4.1255349751999999</v>
+        <v>4.3535477620999998</v>
       </c>
       <c r="AA18" s="18">
-        <v>3.9603849315000001</v>
+        <v>3.5793401613000002</v>
       </c>
       <c r="AB18" s="18">
-        <v>4.4903749391999996</v>
+        <v>4.7610957355999997</v>
       </c>
       <c r="AC18" s="18">
-        <v>4.016064257</v>
+        <v>3.9806692158999999</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="18">
-        <v>1.8819570649999999</v>
+        <v>1.9</v>
       </c>
       <c r="D19" s="18">
-        <v>1.9911005359</v>
+        <v>2.0136752747000002</v>
       </c>
       <c r="E19" s="18">
-        <v>1.8953762054000001</v>
+        <v>1.8517953847999999</v>
       </c>
       <c r="F19" s="18">
-        <v>1.5656195865</v>
+        <v>1.7229061971999999</v>
       </c>
       <c r="G19" s="18">
-        <v>1.2699464413999999</v>
+        <v>1.0999285046</v>
       </c>
       <c r="H19" s="18">
-        <v>1.858451163</v>
+        <v>1.7189840299000001</v>
       </c>
       <c r="I19" s="18">
-        <v>1.1473856950000001</v>
+        <v>1.1403415721000001</v>
       </c>
       <c r="J19" s="18">
-        <v>1.520023385</v>
+        <v>1.8331167626</v>
       </c>
       <c r="K19" s="18">
-        <v>1.4162194395000001</v>
+        <v>1.6346344363</v>
       </c>
       <c r="L19" s="18">
-        <v>1.5318664309000001</v>
+        <v>1.8711002228</v>
       </c>
       <c r="M19" s="18">
-        <v>1.8979629594</v>
+        <v>1.8744438203</v>
       </c>
       <c r="N19" s="18">
-        <v>1.7933969712</v>
+        <v>2.1152130086000001</v>
       </c>
       <c r="O19" s="18">
-        <v>1.7985518557</v>
+        <v>1.8575978841</v>
       </c>
       <c r="P19" s="18">
-        <v>1.7183360779000001</v>
+        <v>2.0550981908999999</v>
       </c>
       <c r="Q19" s="18">
-        <v>1.7764618801000001</v>
+        <v>1.6162407709</v>
       </c>
       <c r="R19" s="18">
-        <v>1.6525623797</v>
+        <v>1.9744230700000001</v>
       </c>
       <c r="S19" s="18">
-        <v>1.1835056684</v>
+        <v>1.5503875969000001</v>
       </c>
       <c r="T19" s="18">
-        <v>1.8009646181000001</v>
+        <v>1.8016896766999999</v>
       </c>
       <c r="U19" s="18">
-        <v>1.5476509592000001</v>
+        <v>1.7210618093000001</v>
       </c>
       <c r="V19" s="18">
-        <v>1.7924987823</v>
+        <v>1.8796393405</v>
       </c>
       <c r="W19" s="18">
-        <v>1.7446878845</v>
+        <v>1.7700305121</v>
       </c>
       <c r="X19" s="18">
-        <v>1.8302913214000001</v>
+        <v>1.9234794611999999</v>
       </c>
       <c r="Y19" s="18">
-        <v>2.0355511673</v>
+        <v>1.9669981423</v>
       </c>
       <c r="Z19" s="18">
-        <v>1.9187851415999999</v>
+        <v>2.080482275</v>
       </c>
       <c r="AA19" s="18">
-        <v>2.0082405177</v>
+        <v>2.3110700253999998</v>
       </c>
       <c r="AB19" s="18">
-        <v>2.3315017776000002</v>
+        <v>2.4288022164999998</v>
       </c>
       <c r="AC19" s="18">
-        <v>2.4451547687000001</v>
+        <v>2.3311453284999999</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="18">
-        <v>10.3386954793</v>
+        <v>10.3</v>
       </c>
       <c r="D20" s="18">
-        <v>11.4092266356</v>
+        <v>11.184954685699999</v>
       </c>
       <c r="E20" s="18">
-        <v>9.8569282560999998</v>
+        <v>9.8204203758999995</v>
       </c>
       <c r="F20" s="18">
-        <v>10.8259878035</v>
+        <v>10.815341462599999</v>
       </c>
       <c r="G20" s="18">
-        <v>9.6626359670999999</v>
+        <v>9.7893636914000002</v>
       </c>
       <c r="H20" s="18">
-        <v>9.6435094710999998</v>
+        <v>10.2886250024</v>
       </c>
       <c r="I20" s="18">
-        <v>10.059637372799999</v>
+        <v>10.1835154344</v>
       </c>
       <c r="J20" s="18">
-        <v>9.7749196140999999</v>
+        <v>10.02413217</v>
       </c>
       <c r="K20" s="18">
-        <v>9.3917710197000002</v>
+        <v>10.0802456905</v>
       </c>
       <c r="L20" s="18">
-        <v>10.0814455686</v>
+        <v>10.6478288102</v>
       </c>
       <c r="M20" s="18">
-        <v>10.934818529199999</v>
+        <v>11.1898615941</v>
       </c>
       <c r="N20" s="18">
-        <v>9.4476891987999991</v>
+        <v>9.7644989405999993</v>
       </c>
       <c r="O20" s="18">
-        <v>10.693114337200001</v>
+        <v>10.677328558099999</v>
       </c>
       <c r="P20" s="18">
-        <v>9.4089377923999997</v>
+        <v>9.1210195512999999</v>
       </c>
       <c r="Q20" s="18">
-        <v>9.2153960030000004</v>
+        <v>9.4525596601000004</v>
       </c>
       <c r="R20" s="18">
-        <v>10.242254748800001</v>
+        <v>10.723472086399999</v>
       </c>
       <c r="S20" s="18">
-        <v>11.585897595600001</v>
+        <v>10.480620155</v>
       </c>
       <c r="T20" s="18">
-        <v>10.335193866799999</v>
+        <v>10.604682220100001</v>
       </c>
       <c r="U20" s="18">
-        <v>8.6587530789000002</v>
+        <v>9.0545011318000004</v>
       </c>
       <c r="V20" s="18">
-        <v>10.362321555699999</v>
+        <v>10.2950277758</v>
       </c>
       <c r="W20" s="18">
-        <v>10.317533194999999</v>
+        <v>10.798276491899999</v>
       </c>
       <c r="X20" s="18">
-        <v>7.8352285886999997</v>
+        <v>7.2300198571000003</v>
       </c>
       <c r="Y20" s="18">
-        <v>11.0092138476</v>
+        <v>10.9729858052</v>
       </c>
       <c r="Z20" s="18">
-        <v>9.5762952167000002</v>
+        <v>9.7050267136000006</v>
       </c>
       <c r="AA20" s="18">
-        <v>9.8616950560000003</v>
+        <v>9.3344682001999999</v>
       </c>
       <c r="AB20" s="18">
-        <v>11.0502623447</v>
+        <v>10.7627303517</v>
       </c>
       <c r="AC20" s="18">
-        <v>9.4937573423000003</v>
+        <v>9.3109488852000002</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="18">
-        <v>7.9238367030000001</v>
+        <v>7.9</v>
       </c>
       <c r="D21" s="18">
-        <v>7.4029639259</v>
+        <v>7.3129599109000001</v>
       </c>
       <c r="E21" s="18">
-        <v>9.1998645049000007</v>
+        <v>9.1486242457000007</v>
       </c>
       <c r="F21" s="18">
-        <v>7.5984408008999997</v>
+        <v>7.6954842946999999</v>
       </c>
       <c r="G21" s="18">
-        <v>9.9111037491000005</v>
+        <v>8.9094208875999996</v>
       </c>
       <c r="H21" s="18">
-        <v>6.8143209309000001</v>
+        <v>7.2804029501</v>
       </c>
       <c r="I21" s="18">
-        <v>7.4446653235999998</v>
+        <v>6.8420494324999996</v>
       </c>
       <c r="J21" s="18">
-        <v>7.8105817013000003</v>
+        <v>6.9844069055000002</v>
       </c>
       <c r="K21" s="18">
-        <v>9.3917710197000002</v>
+        <v>8.9904893995999995</v>
       </c>
       <c r="L21" s="18">
-        <v>6.3760932594000002</v>
+        <v>6.4537100905000004</v>
       </c>
       <c r="M21" s="18">
-        <v>6.5742885031</v>
+        <v>6.4942851553000001</v>
       </c>
       <c r="N21" s="18">
-        <v>9.0372416444999999</v>
+        <v>9.0484112033000006</v>
       </c>
       <c r="O21" s="18">
-        <v>10.97219997</v>
+        <v>10.687619959099999</v>
       </c>
       <c r="P21" s="18">
-        <v>8.5986654955000006</v>
+        <v>8.5055332910000008</v>
       </c>
       <c r="Q21" s="18">
-        <v>9.1167036763000002</v>
+        <v>9.4770481566000004</v>
       </c>
       <c r="R21" s="18">
-        <v>9.1889732321000004</v>
+        <v>8.3143136616</v>
       </c>
       <c r="S21" s="18">
-        <v>7.5370624144000002</v>
+        <v>8.4961240310000008</v>
       </c>
       <c r="T21" s="18">
-        <v>7.7161505026999997</v>
+        <v>7.6650832737999997</v>
       </c>
       <c r="U21" s="18">
-        <v>8.8307142966000001</v>
+        <v>9.0292656214000004</v>
       </c>
       <c r="V21" s="18">
-        <v>7.0605867586000004</v>
+        <v>7.0857066620999998</v>
       </c>
       <c r="W21" s="18">
-        <v>7.2946318709</v>
+        <v>7.5126346376999997</v>
       </c>
       <c r="X21" s="18">
-        <v>9.1232113704</v>
+        <v>8.9158930318999996</v>
       </c>
       <c r="Y21" s="18">
-        <v>7.2866647950000001</v>
+        <v>7.2223750434999996</v>
       </c>
       <c r="Z21" s="18">
-        <v>8.1070876044000002</v>
+        <v>7.9484343859999997</v>
       </c>
       <c r="AA21" s="18">
-        <v>9.0426919397999992</v>
+        <v>9.0244466115000002</v>
       </c>
       <c r="AB21" s="18">
-        <v>6.7873509935999996</v>
+        <v>6.8058737605999999</v>
       </c>
       <c r="AC21" s="18">
-        <v>9.0702947845999997</v>
+        <v>9.2700515987000003</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22" s="21">
-        <v>3723.0790000000002</v>
+        <v>3762.3519999999999</v>
       </c>
       <c r="D22" s="21">
-        <v>671.44299999999998</v>
+        <v>680.79100000000005</v>
       </c>
       <c r="E22" s="21">
-        <v>467.02499999999998</v>
+        <v>469.733</v>
       </c>
       <c r="F22" s="21">
-        <v>174.24199999999999</v>
+        <v>176.40100000000001</v>
       </c>
       <c r="G22" s="21">
-        <v>15.118</v>
+        <v>15.307</v>
       </c>
       <c r="H22" s="21">
-        <v>66.977999999999994</v>
+        <v>68.180999999999997</v>
       </c>
       <c r="I22" s="21">
-        <v>15.904999999999999</v>
+        <v>16.024999999999999</v>
       </c>
       <c r="J22" s="21">
-        <v>18.809000000000001</v>
+        <v>19.021999999999998</v>
       </c>
       <c r="K22" s="21">
-        <v>17.817</v>
+        <v>17.920999999999999</v>
       </c>
       <c r="L22" s="21">
-        <v>53.689</v>
+        <v>54.466999999999999</v>
       </c>
       <c r="M22" s="21">
-        <v>128.44300000000001</v>
+        <v>130.75800000000001</v>
       </c>
       <c r="N22" s="21">
-        <v>119.95</v>
+        <v>121.26600000000001</v>
       </c>
       <c r="O22" s="21">
-        <v>96.275999999999996</v>
+        <v>96.430999999999997</v>
       </c>
       <c r="P22" s="21">
-        <v>126.96599999999999</v>
+        <v>127.664</v>
       </c>
       <c r="Q22" s="21">
-        <v>36.795999999999999</v>
+        <v>37.252000000000002</v>
       </c>
       <c r="R22" s="21">
-        <v>23.626999999999999</v>
+        <v>23.766999999999999</v>
       </c>
       <c r="S22" s="21">
-        <v>6.4</v>
+        <v>6.4630000000000001</v>
       </c>
       <c r="T22" s="21">
-        <v>218.05699999999999</v>
+        <v>220.28</v>
       </c>
       <c r="U22" s="21">
-        <v>90.936000000000007</v>
+        <v>91.447000000000003</v>
       </c>
       <c r="V22" s="21">
-        <v>288.46499999999997</v>
+        <v>292.608</v>
       </c>
       <c r="W22" s="21">
-        <v>118.119</v>
+        <v>119.717</v>
       </c>
       <c r="X22" s="21">
-        <v>162.553</v>
+        <v>163.48500000000001</v>
       </c>
       <c r="Y22" s="21">
-        <v>344.62700000000001</v>
+        <v>349.75799999999998</v>
       </c>
       <c r="Z22" s="21">
-        <v>148.173</v>
+        <v>150.387</v>
       </c>
       <c r="AA22" s="21">
-        <v>80.923000000000002</v>
+        <v>81.046000000000006</v>
       </c>
       <c r="AB22" s="21">
-        <v>200.08199999999999</v>
+        <v>200.19</v>
       </c>
       <c r="AC22" s="21">
-        <v>31.66</v>
+        <v>31.984999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C23" s="18">
-        <v>2.2339187539999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D23" s="18">
-        <v>2.1970339999999999</v>
+        <v>2.1926610000000002</v>
       </c>
       <c r="E23" s="18">
-        <v>2.164434</v>
+        <v>2.1608170000000002</v>
       </c>
       <c r="F23" s="18">
-        <v>2.2884669999999998</v>
+        <v>2.2779120000000002</v>
       </c>
       <c r="G23" s="18">
-        <v>2.350708</v>
+        <v>2.3269090000000001</v>
       </c>
       <c r="H23" s="18">
-        <v>2.3078319999999999</v>
+        <v>2.2937479999999999</v>
       </c>
       <c r="I23" s="18">
-        <v>2.3271299999999999</v>
+        <v>2.325866</v>
       </c>
       <c r="J23" s="18">
-        <v>2.2488169999999998</v>
+        <v>2.2367780000000002</v>
       </c>
       <c r="K23" s="18">
-        <v>2.2224840000000001</v>
+        <v>2.2134930000000002</v>
       </c>
       <c r="L23" s="18">
-        <v>2.296821</v>
+        <v>2.2916080000000001</v>
       </c>
       <c r="M23" s="18">
-        <v>2.4069349999999998</v>
+        <v>2.39167</v>
       </c>
       <c r="N23" s="18">
-        <v>2.226369</v>
+        <v>2.2174390000000002</v>
       </c>
       <c r="O23" s="18">
-        <v>1.9601770000000001</v>
+        <v>1.963611</v>
       </c>
       <c r="P23" s="18">
-        <v>2.2276750000000001</v>
+        <v>2.223767</v>
       </c>
       <c r="Q23" s="18">
-        <v>2.170725</v>
+        <v>2.162112</v>
       </c>
       <c r="R23" s="18">
-        <v>2.2967369999999998</v>
+        <v>2.286448</v>
       </c>
       <c r="S23" s="18">
-        <v>2.4707810000000001</v>
+        <v>2.45892</v>
       </c>
       <c r="T23" s="18">
-        <v>2.2789549999999998</v>
+        <v>2.2691300000000001</v>
       </c>
       <c r="U23" s="18">
-        <v>2.1418140000000001</v>
+        <v>2.1340340000000002</v>
       </c>
       <c r="V23" s="18">
-        <v>2.294902</v>
+        <v>2.288246</v>
       </c>
       <c r="W23" s="18">
-        <v>2.2880820000000002</v>
+        <v>2.2802690000000001</v>
       </c>
       <c r="X23" s="18">
-        <v>2.139548</v>
+        <v>2.1252529999999998</v>
       </c>
       <c r="Y23" s="18">
-        <v>2.253352</v>
+        <v>2.2395429999999998</v>
       </c>
       <c r="Z23" s="18">
-        <v>2.2596419999999999</v>
+        <v>2.2445889999999999</v>
       </c>
       <c r="AA23" s="18">
-        <v>2.157953</v>
+        <v>2.1423390000000002</v>
       </c>
       <c r="AB23" s="18">
-        <v>2.3613970000000002</v>
+        <v>2.377481</v>
       </c>
       <c r="AC23" s="18">
-        <v>2.2735310000000002</v>
+        <v>2.257339</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -2695,473 +2663,473 @@
       <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="55">
-        <v>2017</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
+      <c r="A25" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="30">
-        <v>63.376874360000002</v>
-      </c>
-      <c r="D26" s="65">
-        <v>82.188288435600001</v>
-      </c>
-      <c r="E26" s="31">
-        <v>84.296014037399999</v>
-      </c>
-      <c r="F26" s="31">
-        <v>88.782210090600003</v>
-      </c>
-      <c r="G26" s="31">
-        <v>93.451040148399997</v>
-      </c>
-      <c r="H26" s="31">
-        <v>89.537432404800001</v>
-      </c>
-      <c r="I26" s="31">
-        <v>91.456533520400001</v>
-      </c>
-      <c r="J26" s="31">
-        <v>92.092500753500005</v>
-      </c>
-      <c r="K26" s="31">
-        <v>86.592673495300005</v>
-      </c>
-      <c r="L26" s="31">
-        <v>81.538313808300003</v>
-      </c>
-      <c r="M26" s="31">
-        <v>27.782755021</v>
-      </c>
-      <c r="N26" s="31">
-        <v>88.444186280099998</v>
-      </c>
-      <c r="O26" s="31">
-        <v>78.139300918900005</v>
-      </c>
-      <c r="P26" s="31">
-        <v>87.442170064500004</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>88.371143044700005</v>
-      </c>
-      <c r="R26" s="31">
-        <v>91.290553901600006</v>
-      </c>
-      <c r="S26" s="31">
-        <v>93.6367055284</v>
-      </c>
-      <c r="T26" s="31">
-        <v>87.970947950400003</v>
-      </c>
-      <c r="U26" s="31">
-        <v>74.094613549900004</v>
-      </c>
-      <c r="V26" s="31">
-        <v>87.009381359100004</v>
-      </c>
-      <c r="W26" s="31">
-        <v>89.566756243</v>
-      </c>
-      <c r="X26" s="31">
-        <v>10.480027122399999</v>
-      </c>
-      <c r="Y26" s="31">
-        <v>5.7632386723</v>
-      </c>
-      <c r="Z26" s="31">
-        <v>24.9045758048</v>
-      </c>
-      <c r="AA26" s="31">
-        <v>5.5251175738000002</v>
-      </c>
-      <c r="AB26" s="31">
-        <v>4.5804481077999997</v>
-      </c>
-      <c r="AC26" s="31">
-        <v>6.1282753868000004</v>
+        <v>63.27951431662995</v>
+      </c>
+      <c r="D26" s="30">
+        <v>81.894134794206181</v>
+      </c>
+      <c r="E26" s="30">
+        <v>83.989816705331052</v>
+      </c>
+      <c r="F26" s="30">
+        <v>88.867552125844028</v>
+      </c>
+      <c r="G26" s="30">
+        <v>93.019631250829022</v>
+      </c>
+      <c r="H26" s="30">
+        <v>89.53030004396804</v>
+      </c>
+      <c r="I26" s="30">
+        <v>91.23142656718322</v>
+      </c>
+      <c r="J26" s="30">
+        <v>91.733699382292386</v>
+      </c>
+      <c r="K26" s="30">
+        <v>86.943418525631557</v>
+      </c>
+      <c r="L26" s="30">
+        <v>81.59822568721016</v>
+      </c>
+      <c r="M26" s="30">
+        <v>27.417048779252553</v>
+      </c>
+      <c r="N26" s="30">
+        <v>88.450851900393189</v>
+      </c>
+      <c r="O26" s="30">
+        <v>77.276940548172249</v>
+      </c>
+      <c r="P26" s="30">
+        <v>87.094278740743803</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>87.906271416281484</v>
+      </c>
+      <c r="R26" s="30">
+        <v>91.741362805674001</v>
+      </c>
+      <c r="S26" s="30">
+        <v>93.838041431261772</v>
+      </c>
+      <c r="T26" s="30">
+        <v>88.023586050073973</v>
+      </c>
+      <c r="U26" s="30">
+        <v>74.498531710320663</v>
+      </c>
+      <c r="V26" s="30">
+        <v>86.880040880941408</v>
+      </c>
+      <c r="W26" s="30">
+        <v>89.405024817965142</v>
+      </c>
+      <c r="X26" s="30">
+        <v>10.602235126838798</v>
+      </c>
+      <c r="Y26" s="30">
+        <v>5.8929573632204626</v>
+      </c>
+      <c r="Z26" s="30">
+        <v>25.294975427477759</v>
+      </c>
+      <c r="AA26" s="30">
+        <v>5.3465306094663685</v>
+      </c>
+      <c r="AB26" s="30">
+        <v>4.5287727539635938</v>
+      </c>
+      <c r="AC26" s="30">
+        <v>6.6451178893136662</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="30">
-        <v>22.851329249999999</v>
-      </c>
-      <c r="D27" s="31">
-        <v>3.1668862665000002</v>
-      </c>
-      <c r="E27" s="31">
-        <v>10.6443673595</v>
-      </c>
-      <c r="F27" s="31">
-        <v>1.7861116468</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="59">
-        <v>1.8513321855731091</v>
-      </c>
-      <c r="I27" s="60">
-        <v>1.9773636392616913</v>
-      </c>
-      <c r="J27" s="60">
-        <v>1.7432955585390582</v>
-      </c>
-      <c r="K27" s="60">
-        <v>0.90649600023614851</v>
-      </c>
-      <c r="L27" s="31">
-        <v>3.4597657000000002</v>
-      </c>
-      <c r="M27" s="31">
-        <v>68.7668468862</v>
-      </c>
-      <c r="N27" s="31">
-        <v>2.6313835617999999</v>
-      </c>
-      <c r="O27" s="31">
-        <v>5.0308562454999999</v>
-      </c>
-      <c r="P27" s="31">
-        <v>3.3244719335999999</v>
-      </c>
-      <c r="Q27" s="60">
-        <v>1.6587643154132321</v>
-      </c>
-      <c r="R27" s="60">
-        <v>1.2313224537690954</v>
-      </c>
-      <c r="S27" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="T27" s="31">
-        <v>1.1754518269000001</v>
-      </c>
-      <c r="U27" s="59">
-        <v>1.5121832849000656</v>
-      </c>
-      <c r="V27" s="31">
-        <v>1.8469718273</v>
-      </c>
-      <c r="W27" s="31">
-        <v>1.1649297590000001</v>
-      </c>
-      <c r="X27" s="31">
-        <v>4.8145636812000001</v>
-      </c>
-      <c r="Y27" s="31">
-        <v>83.422288889499995</v>
-      </c>
-      <c r="Z27" s="31">
-        <v>68.1663482939</v>
-      </c>
-      <c r="AA27" s="31">
-        <v>87.579715372699994</v>
-      </c>
-      <c r="AB27" s="31">
-        <v>80.787274324799995</v>
-      </c>
-      <c r="AC27" s="31">
-        <v>90.207885539900005</v>
+        <v>22.879027131955421</v>
+      </c>
+      <c r="D27" s="61">
+        <v>3.3294311554052376</v>
+      </c>
+      <c r="E27" s="61">
+        <v>10.949706946378951</v>
+      </c>
+      <c r="F27" s="61">
+        <v>1.7069080655932329</v>
+      </c>
+      <c r="G27" s="62">
+        <v>0.69022260909935007</v>
+      </c>
+      <c r="H27" s="61">
+        <v>2.0354170141152568</v>
+      </c>
+      <c r="I27" s="62">
+        <v>1.3298744021427205</v>
+      </c>
+      <c r="J27" s="61">
+        <v>1.4325858613589566</v>
+      </c>
+      <c r="K27" s="62">
+        <v>0.93443126015659628</v>
+      </c>
+      <c r="L27" s="61">
+        <v>3.3834839130893974</v>
+      </c>
+      <c r="M27" s="61">
+        <v>68.767019755577806</v>
+      </c>
+      <c r="N27" s="61">
+        <v>2.6989951944080386</v>
+      </c>
+      <c r="O27" s="61">
+        <v>5.3546545532672418</v>
+      </c>
+      <c r="P27" s="61">
+        <v>3.4981177346626402</v>
+      </c>
+      <c r="Q27" s="61">
+        <v>1.5995683935783964</v>
+      </c>
+      <c r="R27" s="62">
+        <v>1.1382912061613437</v>
+      </c>
+      <c r="S27" s="62">
+        <v>0.63110395480225989</v>
+      </c>
+      <c r="T27" s="61">
+        <v>1.2052290815331408</v>
+      </c>
+      <c r="U27" s="61">
+        <v>1.4588168427035475</v>
+      </c>
+      <c r="V27" s="61">
+        <v>2.0227846925174298</v>
+      </c>
+      <c r="W27" s="61">
+        <v>1.2468020903942449</v>
+      </c>
+      <c r="X27" s="61">
+        <v>4.9785390615656517</v>
+      </c>
+      <c r="Y27" s="61">
+        <v>83.061400240263822</v>
+      </c>
+      <c r="Z27" s="61">
+        <v>67.658915163454594</v>
+      </c>
+      <c r="AA27" s="61">
+        <v>87.663632836166343</v>
+      </c>
+      <c r="AB27" s="61">
+        <v>80.607751027598354</v>
+      </c>
+      <c r="AC27" s="61">
+        <v>90.288283262506766</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="30">
-        <v>8.430759278</v>
-      </c>
-      <c r="D28" s="31">
-        <v>5.8590681913999996</v>
-      </c>
-      <c r="E28" s="31">
-        <v>3.1335236649999998</v>
-      </c>
-      <c r="F28" s="31">
-        <v>3.0829711166</v>
-      </c>
-      <c r="G28" s="60">
-        <v>2.5716134225520078</v>
-      </c>
-      <c r="H28" s="31">
-        <v>3.2870437084000002</v>
-      </c>
-      <c r="I28" s="60">
-        <v>1.0721294908986581</v>
-      </c>
-      <c r="J28" s="60">
-        <v>2.1026480806641641</v>
-      </c>
-      <c r="K28" s="59">
-        <v>7.1612008147120463</v>
-      </c>
-      <c r="L28" s="31">
-        <v>3.7487996927</v>
-      </c>
-      <c r="M28" s="31">
-        <v>2.3312974245000002</v>
-      </c>
-      <c r="N28" s="31">
-        <v>4.8557215668999998</v>
-      </c>
-      <c r="O28" s="31">
-        <v>6.3037530519000002</v>
-      </c>
-      <c r="P28" s="31">
-        <v>5.0667085618999996</v>
-      </c>
-      <c r="Q28" s="59">
-        <v>3.5947187978700126</v>
-      </c>
-      <c r="R28" s="60">
-        <v>2.0548225950151022</v>
-      </c>
-      <c r="S28" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="T28" s="31">
-        <v>3.6993070044</v>
-      </c>
-      <c r="U28" s="31">
-        <v>13.1036156273</v>
-      </c>
-      <c r="V28" s="31">
-        <v>5.3647581767999997</v>
-      </c>
-      <c r="W28" s="31">
-        <v>4.3306897380000002</v>
-      </c>
-      <c r="X28" s="31">
-        <v>88.7697850813</v>
-      </c>
-      <c r="Y28" s="31">
-        <v>5.4269326012999999</v>
-      </c>
-      <c r="Z28" s="31">
-        <v>3.8832127021999998</v>
-      </c>
-      <c r="AA28" s="31">
-        <v>6.0607504304999997</v>
-      </c>
-      <c r="AB28" s="31">
-        <v>6.5270601033000002</v>
-      </c>
-      <c r="AC28" s="59">
-        <v>3.2257535235532511</v>
+        <v>8.4360089583520228</v>
+      </c>
+      <c r="D28" s="61">
+        <v>5.8281871859528005</v>
+      </c>
+      <c r="E28" s="61">
+        <v>3.2384221223617642</v>
+      </c>
+      <c r="F28" s="61">
+        <v>3.1401647250871854</v>
+      </c>
+      <c r="G28" s="61">
+        <v>2.9683518371136755</v>
+      </c>
+      <c r="H28" s="61">
+        <v>3.2293767151325863</v>
+      </c>
+      <c r="I28" s="62">
+        <v>1.5713804923155412</v>
+      </c>
+      <c r="J28" s="61">
+        <v>2.6044030199039123</v>
+      </c>
+      <c r="K28" s="61">
+        <v>6.1604372876348057</v>
+      </c>
+      <c r="L28" s="61">
+        <v>3.9826025174502893</v>
+      </c>
+      <c r="M28" s="61">
+        <v>2.3869537608059623</v>
+      </c>
+      <c r="N28" s="61">
+        <v>4.8112712975098297</v>
+      </c>
+      <c r="O28" s="61">
+        <v>6.1815168349651639</v>
+      </c>
+      <c r="P28" s="61">
+        <v>5.2024986555247592</v>
+      </c>
+      <c r="Q28" s="61">
+        <v>4.0638077601668101</v>
+      </c>
+      <c r="R28" s="61">
+        <v>2.4323383517535464</v>
+      </c>
+      <c r="S28" s="62">
+        <v>1.5637697928436913</v>
+      </c>
+      <c r="T28" s="61">
+        <v>3.5400482377062827</v>
+      </c>
+      <c r="U28" s="61">
+        <v>13.344266565623077</v>
+      </c>
+      <c r="V28" s="61">
+        <v>5.2141067835918768</v>
+      </c>
+      <c r="W28" s="61">
+        <v>4.2302057595171974</v>
+      </c>
+      <c r="X28" s="61">
+        <v>88.529693168378671</v>
+      </c>
+      <c r="Y28" s="61">
+        <v>5.3740864485945181</v>
+      </c>
+      <c r="Z28" s="61">
+        <v>4.1545439886707003</v>
+      </c>
+      <c r="AA28" s="61">
+        <v>5.9898297469690061</v>
+      </c>
+      <c r="AB28" s="61">
+        <v>6.657369348209043</v>
+      </c>
+      <c r="AC28" s="61">
+        <v>2.9796380461712637</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="30">
-        <v>0.57479897899999999</v>
-      </c>
-      <c r="D29" s="31">
-        <v>0.39640176830000001</v>
-      </c>
-      <c r="E29" s="60">
-        <v>0.18832413525518152</v>
-      </c>
-      <c r="F29" s="60">
-        <v>0.17985602515984514</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="60">
-        <v>0.44776924710468641</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="60">
-        <v>0.23724377760706744</v>
-      </c>
-      <c r="M29" s="63">
-        <v>0.11678068275657905</v>
-      </c>
-      <c r="N29" s="60">
-        <v>8.4591421471216371E-2</v>
-      </c>
-      <c r="O29" s="60">
-        <v>0.23473886905419167</v>
-      </c>
-      <c r="P29" s="60">
-        <v>0.19172099820980432</v>
-      </c>
-      <c r="Q29" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="T29" s="60">
-        <v>0.42250606044025324</v>
-      </c>
-      <c r="U29" s="31">
-        <v>15.420718390599999</v>
-      </c>
-      <c r="V29" s="59">
-        <v>0.18866340197989376</v>
-      </c>
-      <c r="W29" s="60">
-        <v>0.20056408643027246</v>
-      </c>
-      <c r="X29" s="60">
-        <v>0.13795490563654614</v>
-      </c>
-      <c r="Y29" s="60">
-        <v>6.0546542937340797E-2</v>
-      </c>
-      <c r="Z29" s="64">
-        <v>5.7307439406950454E-2</v>
-      </c>
-      <c r="AA29" s="64">
-        <v>6.7893867105881064E-2</v>
-      </c>
-      <c r="AB29" s="60">
-        <v>6.9526388046275173E-2</v>
-      </c>
-      <c r="AC29" s="62" t="s">
-        <v>35</v>
+        <v>0.54069708011918882</v>
+      </c>
+      <c r="D29" s="61">
+        <v>0.322350345066309</v>
+      </c>
+      <c r="E29" s="61">
+        <v>0.13974799010871605</v>
+      </c>
+      <c r="F29" s="61">
+        <v>0.19337928025524967</v>
+      </c>
+      <c r="G29" s="62">
+        <v>0.18386632842552064</v>
+      </c>
+      <c r="H29" s="62">
+        <v>0.34233045014175906</v>
+      </c>
+      <c r="I29" s="62">
+        <v>0.18679663286780179</v>
+      </c>
+      <c r="J29" s="62">
+        <v>0.37947412491420729</v>
+      </c>
+      <c r="K29" s="62">
+        <v>0.17383117151721081</v>
+      </c>
+      <c r="L29" s="62">
+        <v>0.2095487695985713</v>
+      </c>
+      <c r="M29" s="62">
+        <v>5.6454031563733263E-2</v>
+      </c>
+      <c r="N29" s="62">
+        <v>0.10498939711664483</v>
+      </c>
+      <c r="O29" s="62">
+        <v>0.15985514256775421</v>
+      </c>
+      <c r="P29" s="62">
+        <v>0.17051532288090018</v>
+      </c>
+      <c r="Q29" s="62">
+        <v>8.2789489800382032E-2</v>
+      </c>
+      <c r="R29" s="62">
+        <v>0.24678637629449135</v>
+      </c>
+      <c r="S29" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="61">
+        <v>0.32586616177233135</v>
+      </c>
+      <c r="U29" s="61">
+        <v>15.307511959456258</v>
+      </c>
+      <c r="V29" s="61">
+        <v>0.18993199612631639</v>
+      </c>
+      <c r="W29" s="61">
+        <v>0.19378744888811142</v>
+      </c>
+      <c r="X29" s="61">
+        <v>0.10844925783689688</v>
+      </c>
+      <c r="Y29" s="61">
+        <v>5.5794071946183375E-2</v>
+      </c>
+      <c r="Z29" s="62">
+        <v>5.2938186610954924E-2</v>
+      </c>
+      <c r="AA29" s="62">
+        <v>6.8421146502018387E-2</v>
+      </c>
+      <c r="AB29" s="62">
+        <v>6.3497585668148657E-2</v>
+      </c>
+      <c r="AC29" s="61" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="30">
-        <v>5.8965074749999999</v>
-      </c>
-      <c r="D30" s="31">
-        <v>8.6480663992999993</v>
-      </c>
-      <c r="E30" s="31">
-        <v>3.7904575489000001</v>
-      </c>
-      <c r="F30" s="31">
-        <v>3.9650491774000001</v>
-      </c>
-      <c r="G30" s="60">
-        <v>2.1085768186034186</v>
-      </c>
-      <c r="H30" s="43">
-        <v>5.7481551145000003</v>
-      </c>
-      <c r="I30" s="60">
-        <v>4.3450540342376227</v>
-      </c>
-      <c r="J30" s="60">
-        <v>5.1127489930679237</v>
-      </c>
-      <c r="K30" s="60">
-        <v>4.2300085603801989</v>
-      </c>
-      <c r="L30" s="65">
-        <v>11.3059343192</v>
-      </c>
-      <c r="M30" s="43">
-        <v>3.7031987659999999</v>
-      </c>
-      <c r="N30" s="31">
-        <v>3.6192988508999999</v>
-      </c>
-      <c r="O30" s="31">
-        <v>10.5647367711</v>
-      </c>
-      <c r="P30" s="31">
-        <v>5.8621673357999997</v>
-      </c>
-      <c r="Q30" s="59">
-        <v>3.7931286016485521</v>
-      </c>
-      <c r="R30" s="60">
-        <v>3.6962993546143985</v>
-      </c>
-      <c r="S30" s="64">
-        <v>3.51464114328695</v>
-      </c>
-      <c r="T30" s="31">
-        <v>3.5434841049000001</v>
-      </c>
-      <c r="U30" s="31">
-        <v>3.1166955688</v>
-      </c>
-      <c r="V30" s="31">
-        <v>4.5281003059999998</v>
-      </c>
-      <c r="W30" s="31">
-        <v>3.2492189377999998</v>
-      </c>
-      <c r="X30" s="31">
-        <v>3.4591069541000001</v>
-      </c>
-      <c r="Y30" s="31">
-        <v>8.6135755189999994</v>
-      </c>
-      <c r="Z30" s="43">
-        <v>3.7745570530000001</v>
-      </c>
-      <c r="AA30" s="43">
-        <v>4.1890981358000001</v>
-      </c>
-      <c r="AB30" s="31">
-        <v>11.863768540400001</v>
-      </c>
-      <c r="AC30" s="59">
-        <v>1.4470284837645799</v>
+        <v>6.076430330160453</v>
+      </c>
+      <c r="D30" s="61">
+        <v>8.8214861769152915</v>
+      </c>
+      <c r="E30" s="61">
+        <v>4.039713458681641</v>
+      </c>
+      <c r="F30" s="61">
+        <v>4.1403873265563549</v>
+      </c>
+      <c r="G30" s="61">
+        <v>2.4265388645708983</v>
+      </c>
+      <c r="H30" s="61">
+        <v>6.4185757387388751</v>
+      </c>
+      <c r="I30" s="61">
+        <v>4.3619667113066765</v>
+      </c>
+      <c r="J30" s="61">
+        <v>5.1832532601235419</v>
+      </c>
+      <c r="K30" s="61">
+        <v>3.7198995420298417</v>
+      </c>
+      <c r="L30" s="61">
+        <v>11.538793889758336</v>
+      </c>
+      <c r="M30" s="61">
+        <v>3.6476331095848251</v>
+      </c>
+      <c r="N30" s="61">
+        <v>3.8335517693315859</v>
+      </c>
+      <c r="O30" s="61">
+        <v>10.983088302998681</v>
+      </c>
+      <c r="P30" s="61">
+        <v>6.1411492160675136</v>
+      </c>
+      <c r="Q30" s="61">
+        <v>4.5610300228926377</v>
+      </c>
+      <c r="R30" s="61">
+        <v>3.713775998607606</v>
+      </c>
+      <c r="S30" s="62">
+        <v>3.6347483239171376</v>
+      </c>
+      <c r="T30" s="61">
+        <v>3.6087893477443878</v>
+      </c>
+      <c r="U30" s="61">
+        <v>3.3077961445554873</v>
+      </c>
+      <c r="V30" s="61">
+        <v>4.7976143254823347</v>
+      </c>
+      <c r="W30" s="61">
+        <v>3.4067303697548814</v>
+      </c>
+      <c r="X30" s="61">
+        <v>3.6662990179793495</v>
+      </c>
+      <c r="Y30" s="61">
+        <v>8.7779785988939203</v>
+      </c>
+      <c r="Z30" s="61">
+        <v>3.6767644192682227</v>
+      </c>
+      <c r="AA30" s="61">
+        <v>4.0395101396197388</v>
+      </c>
+      <c r="AB30" s="61">
+        <v>12.010580068786176</v>
+      </c>
+      <c r="AC30" s="61">
+        <v>1.8540699296109735</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3196,299 +3164,299 @@
       <c r="AC31" s="18"/>
     </row>
     <row r="32" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="55">
-        <v>2017</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="53"/>
+      <c r="A32" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="46">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="D33" s="67">
-        <v>26.216695358900001</v>
-      </c>
-      <c r="E33" s="66">
-        <v>15.598705126800001</v>
-      </c>
-      <c r="F33" s="66">
-        <v>60.139743951100002</v>
-      </c>
-      <c r="G33" s="66">
-        <v>79.644229495199994</v>
-      </c>
-      <c r="H33" s="66">
-        <v>60.012438282600002</v>
-      </c>
-      <c r="I33" s="66">
-        <v>69.208454206400006</v>
-      </c>
-      <c r="J33" s="66">
-        <v>66.273940323900007</v>
-      </c>
-      <c r="K33" s="66">
-        <v>32.319863033899999</v>
-      </c>
-      <c r="L33" s="66">
-        <v>50.291914730199998</v>
-      </c>
-      <c r="M33" s="66">
-        <v>60.215250619300001</v>
-      </c>
-      <c r="N33" s="66">
-        <v>33.323579380399998</v>
-      </c>
-      <c r="O33" s="66">
-        <v>16.547658483300001</v>
-      </c>
-      <c r="P33" s="66">
-        <v>25.613441764899999</v>
-      </c>
-      <c r="Q33" s="66">
-        <v>23.3598366037</v>
-      </c>
-      <c r="R33" s="66">
-        <v>27.6407570786</v>
-      </c>
-      <c r="S33" s="66">
-        <v>72.666415945799997</v>
-      </c>
-      <c r="T33" s="66">
-        <v>44.247518133699998</v>
-      </c>
-      <c r="U33" s="66">
-        <v>42.662507916000003</v>
-      </c>
-      <c r="V33" s="66">
-        <v>32.180509426900002</v>
-      </c>
-      <c r="W33" s="66">
-        <v>31.178256974899998</v>
-      </c>
-      <c r="X33" s="66">
-        <v>65.271988778799994</v>
-      </c>
-      <c r="Y33" s="66">
-        <v>29.059501611999998</v>
-      </c>
-      <c r="Z33" s="66">
-        <v>69.782863952599996</v>
-      </c>
-      <c r="AA33" s="66">
-        <v>21.396048431600001</v>
-      </c>
-      <c r="AB33" s="66">
-        <v>32.350264638799999</v>
-      </c>
-      <c r="AC33" s="66">
-        <v>67.3486800007</v>
+      <c r="C33" s="44">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D33" s="56">
+        <v>26.169191063300001</v>
+      </c>
+      <c r="E33" s="55">
+        <v>15.4544358979</v>
+      </c>
+      <c r="F33" s="55">
+        <v>60.349632707600001</v>
+      </c>
+      <c r="G33" s="55">
+        <v>78.647698633800005</v>
+      </c>
+      <c r="H33" s="55">
+        <v>59.351547220199997</v>
+      </c>
+      <c r="I33" s="55">
+        <v>69.638415917399996</v>
+      </c>
+      <c r="J33" s="55">
+        <v>65.704873026800001</v>
+      </c>
+      <c r="K33" s="55">
+        <v>32.208598020399997</v>
+      </c>
+      <c r="L33" s="55">
+        <v>50.117615431099999</v>
+      </c>
+      <c r="M33" s="55">
+        <v>59.789159560100003</v>
+      </c>
+      <c r="N33" s="55">
+        <v>33.182175622499997</v>
+      </c>
+      <c r="O33" s="55">
+        <v>16.793836898799999</v>
+      </c>
+      <c r="P33" s="55">
+        <v>25.494560046299998</v>
+      </c>
+      <c r="Q33" s="55">
+        <v>22.5485192692</v>
+      </c>
+      <c r="R33" s="55">
+        <v>28.491863197299999</v>
+      </c>
+      <c r="S33" s="55">
+        <v>72.512241054599997</v>
+      </c>
+      <c r="T33" s="55">
+        <v>43.967432412500003</v>
+      </c>
+      <c r="U33" s="55">
+        <v>41.9747312083</v>
+      </c>
+      <c r="V33" s="55">
+        <v>32.1605077241</v>
+      </c>
+      <c r="W33" s="55">
+        <v>31.5920669976</v>
+      </c>
+      <c r="X33" s="55">
+        <v>65.054549320299998</v>
+      </c>
+      <c r="Y33" s="55">
+        <v>29.127891785399999</v>
+      </c>
+      <c r="Z33" s="55">
+        <v>70.0001402141</v>
+      </c>
+      <c r="AA33" s="55">
+        <v>21.0763858161</v>
+      </c>
+      <c r="AB33" s="55">
+        <v>32.477613035799997</v>
+      </c>
+      <c r="AC33" s="55">
+        <v>66.922079839899993</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="26"/>
-      <c r="C34" s="46">
-        <v>23.81</v>
-      </c>
-      <c r="D34" s="66">
-        <v>28.318121635899999</v>
-      </c>
-      <c r="E34" s="66">
-        <v>50.242817681200002</v>
-      </c>
-      <c r="F34" s="66">
-        <v>10.2612410806</v>
-      </c>
-      <c r="G34" s="47">
-        <v>4.6342917715648602</v>
-      </c>
-      <c r="H34" s="66">
-        <v>10.2934372891</v>
-      </c>
-      <c r="I34" s="47">
-        <v>6.8825910931174086</v>
-      </c>
-      <c r="J34" s="66">
-        <v>10.466613694299999</v>
-      </c>
-      <c r="K34" s="66">
-        <v>32.0364849308</v>
-      </c>
-      <c r="L34" s="66">
-        <v>13.703668138999999</v>
-      </c>
-      <c r="M34" s="66">
-        <v>11.5742976893</v>
-      </c>
-      <c r="N34" s="66">
-        <v>20.9388252456</v>
-      </c>
-      <c r="O34" s="66">
-        <v>15.819500165599999</v>
-      </c>
-      <c r="P34" s="66">
-        <v>29.975648377500001</v>
-      </c>
-      <c r="Q34" s="66">
-        <v>34.731927930600001</v>
-      </c>
-      <c r="R34" s="66">
-        <v>37.979964797100003</v>
-      </c>
-      <c r="S34" s="47">
-        <v>7.5592327942835649</v>
-      </c>
-      <c r="T34" s="66">
-        <v>21.161701348200001</v>
-      </c>
-      <c r="U34" s="66">
-        <v>31.313143269699999</v>
-      </c>
-      <c r="V34" s="66">
-        <v>23.3444161171</v>
-      </c>
-      <c r="W34" s="66">
-        <v>32.278080007</v>
-      </c>
-      <c r="X34" s="66">
-        <v>3.9683172791999999</v>
-      </c>
-      <c r="Y34" s="66">
-        <v>22.7430649424</v>
-      </c>
-      <c r="Z34" s="66">
-        <v>5.3430539247000004</v>
-      </c>
-      <c r="AA34" s="66">
-        <v>20.130811480399998</v>
-      </c>
-      <c r="AB34" s="66">
-        <v>8.8604317900999998</v>
-      </c>
-      <c r="AC34" s="66">
-        <v>8.7649925344999993</v>
+      <c r="C34" s="44">
+        <v>23.8</v>
+      </c>
+      <c r="D34" s="55">
+        <v>28.236303715999998</v>
+      </c>
+      <c r="E34" s="55">
+        <v>50.251685434899997</v>
+      </c>
+      <c r="F34" s="55">
+        <v>10.0366550419</v>
+      </c>
+      <c r="G34" s="55">
+        <v>5.1333068046000001</v>
+      </c>
+      <c r="H34" s="55">
+        <v>10.643297906200001</v>
+      </c>
+      <c r="I34" s="55">
+        <v>7.3145845290000002</v>
+      </c>
+      <c r="J34" s="55">
+        <v>9.8339052848000001</v>
+      </c>
+      <c r="K34" s="55">
+        <v>31.425616782399999</v>
+      </c>
+      <c r="L34" s="55">
+        <v>13.755724751100001</v>
+      </c>
+      <c r="M34" s="55">
+        <v>11.7851702657</v>
+      </c>
+      <c r="N34" s="55">
+        <v>20.525120139799998</v>
+      </c>
+      <c r="O34" s="55">
+        <v>16.182437617000001</v>
+      </c>
+      <c r="P34" s="55">
+        <v>30.248210813699998</v>
+      </c>
+      <c r="Q34" s="55">
+        <v>35.326110730400003</v>
+      </c>
+      <c r="R34" s="55">
+        <v>37.953615873300002</v>
+      </c>
+      <c r="S34" s="55">
+        <v>9.7476459510000009</v>
+      </c>
+      <c r="T34" s="55">
+        <v>20.906573933600001</v>
+      </c>
+      <c r="U34" s="55">
+        <v>31.9560223559</v>
+      </c>
+      <c r="V34" s="55">
+        <v>23.541561694799999</v>
+      </c>
+      <c r="W34" s="55">
+        <v>31.470491767399999</v>
+      </c>
+      <c r="X34" s="55">
+        <v>3.8613078548000002</v>
+      </c>
+      <c r="Y34" s="55">
+        <v>22.847791165299999</v>
+      </c>
+      <c r="Z34" s="55">
+        <v>5.4658964238000003</v>
+      </c>
+      <c r="AA34" s="55">
+        <v>19.832674150300001</v>
+      </c>
+      <c r="AB34" s="55">
+        <v>8.9736599279</v>
+      </c>
+      <c r="AC34" s="55">
+        <v>8.6567017243999995</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="B35" s="26"/>
-      <c r="C35" s="46">
-        <v>26.02</v>
-      </c>
-      <c r="D35" s="66">
-        <v>29.204936348099999</v>
-      </c>
-      <c r="E35" s="66">
-        <v>20.4969857715</v>
-      </c>
-      <c r="F35" s="66">
-        <v>18.0062009524</v>
-      </c>
-      <c r="G35" s="47">
-        <v>9.4043990989797273</v>
-      </c>
-      <c r="H35" s="66">
-        <v>18.322955457300001</v>
-      </c>
-      <c r="I35" s="66">
-        <v>15.983933182399999</v>
-      </c>
-      <c r="J35" s="66">
-        <v>15.012192783</v>
-      </c>
-      <c r="K35" s="66">
-        <v>19.3287481182</v>
-      </c>
-      <c r="L35" s="66">
-        <v>23.213942769300001</v>
-      </c>
-      <c r="M35" s="66">
-        <v>18.113616179200001</v>
-      </c>
-      <c r="N35" s="66">
-        <v>30.590434429399998</v>
-      </c>
-      <c r="O35" s="66">
-        <v>49.6270258996</v>
-      </c>
-      <c r="P35" s="66">
-        <v>30.248932290900001</v>
-      </c>
-      <c r="Q35" s="66">
-        <v>25.110511342900001</v>
-      </c>
-      <c r="R35" s="66">
-        <v>21.6193311458</v>
-      </c>
-      <c r="S35" s="47">
-        <v>10.831139526137646</v>
-      </c>
-      <c r="T35" s="66">
-        <v>18.450858691200001</v>
-      </c>
-      <c r="U35" s="66">
-        <v>18.3196122182</v>
-      </c>
-      <c r="V35" s="66">
-        <v>27.7010042396</v>
-      </c>
-      <c r="W35" s="66">
-        <v>21.4992025518</v>
-      </c>
-      <c r="X35" s="66">
-        <v>20.1467137321</v>
-      </c>
-      <c r="Y35" s="66">
-        <v>32.6209164765</v>
-      </c>
-      <c r="Z35" s="66">
-        <v>15.325003066900001</v>
-      </c>
-      <c r="AA35" s="66">
-        <v>44.846830782200001</v>
-      </c>
-      <c r="AB35" s="66">
-        <v>41.339877826799999</v>
-      </c>
-      <c r="AC35" s="66">
-        <v>14.4879977686</v>
+      <c r="C35" s="44">
+        <v>26.3</v>
+      </c>
+      <c r="D35" s="55">
+        <v>29.365531509499998</v>
+      </c>
+      <c r="E35" s="55">
+        <v>20.8324159716</v>
+      </c>
+      <c r="F35" s="55">
+        <v>18.119462788500002</v>
+      </c>
+      <c r="G35" s="55">
+        <v>10.0046425255</v>
+      </c>
+      <c r="H35" s="55">
+        <v>19.355792410199999</v>
+      </c>
+      <c r="I35" s="55">
+        <v>15.4518206747</v>
+      </c>
+      <c r="J35" s="55">
+        <v>17.353466026100001</v>
+      </c>
+      <c r="K35" s="55">
+        <v>21.155266656799999</v>
+      </c>
+      <c r="L35" s="55">
+        <v>23.511564717300001</v>
+      </c>
+      <c r="M35" s="55">
+        <v>18.3176397714</v>
+      </c>
+      <c r="N35" s="55">
+        <v>31.297072957600001</v>
+      </c>
+      <c r="O35" s="55">
+        <v>49.362511893399997</v>
+      </c>
+      <c r="P35" s="55">
+        <v>30.448847888100001</v>
+      </c>
+      <c r="Q35" s="55">
+        <v>25.3947886441</v>
+      </c>
+      <c r="R35" s="55">
+        <v>21.3493168567</v>
+      </c>
+      <c r="S35" s="55">
+        <v>9.7702448211000004</v>
+      </c>
+      <c r="T35" s="55">
+        <v>19.064359756199998</v>
+      </c>
+      <c r="U35" s="55">
+        <v>18.160611945199999</v>
+      </c>
+      <c r="V35" s="55">
+        <v>27.997548572900001</v>
+      </c>
+      <c r="W35" s="55">
+        <v>21.777709750100001</v>
+      </c>
+      <c r="X35" s="55">
+        <v>20.847009421599999</v>
+      </c>
+      <c r="Y35" s="55">
+        <v>32.713450599799998</v>
+      </c>
+      <c r="Z35" s="55">
+        <v>15.450192443900001</v>
+      </c>
+      <c r="AA35" s="55">
+        <v>46.055453066399998</v>
+      </c>
+      <c r="AB35" s="55">
+        <v>41.452321533400003</v>
+      </c>
+      <c r="AC35" s="55">
+        <v>15.5397312419</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -3523,103 +3491,103 @@
       <c r="AC36" s="18"/>
     </row>
     <row r="37" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="53">
-        <v>41290.39</v>
-      </c>
-      <c r="D37" s="54">
+      <c r="C37" s="50">
+        <v>41290.400000000001</v>
+      </c>
+      <c r="D37" s="51">
         <v>1728.85</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="50">
         <v>5959.4</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="50">
         <v>1493.28</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="50">
         <v>1076.3</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="50">
         <v>908.03</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="50">
         <v>490.64</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="50">
         <v>275.94</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="50">
         <v>685.43</v>
       </c>
-      <c r="L37" s="53">
+      <c r="L37" s="50">
         <v>238.71</v>
       </c>
-      <c r="M37" s="53">
+      <c r="M37" s="50">
         <v>1671.37</v>
       </c>
-      <c r="N37" s="53">
+      <c r="N37" s="50">
         <v>790.37</v>
       </c>
-      <c r="O37" s="53">
+      <c r="O37" s="50">
         <v>36.979999999999997</v>
       </c>
-      <c r="P37" s="53">
+      <c r="P37" s="50">
         <v>517.74</v>
       </c>
-      <c r="Q37" s="53">
+      <c r="Q37" s="50">
         <v>298.43</v>
       </c>
-      <c r="R37" s="53">
+      <c r="R37" s="50">
         <v>242.92</v>
       </c>
-      <c r="S37" s="53">
+      <c r="S37" s="50">
         <v>172.39</v>
       </c>
-      <c r="T37" s="53">
+      <c r="T37" s="50">
         <v>2030.73</v>
       </c>
-      <c r="U37" s="53">
+      <c r="U37" s="50">
         <v>7105</v>
       </c>
-      <c r="V37" s="53">
+      <c r="V37" s="50">
         <v>1403.95</v>
       </c>
-      <c r="W37" s="53">
+      <c r="W37" s="50">
         <v>991.51</v>
       </c>
-      <c r="X37" s="53">
+      <c r="X37" s="50">
         <v>2812.25</v>
       </c>
-      <c r="Y37" s="53">
+      <c r="Y37" s="50">
         <v>3212.21</v>
       </c>
-      <c r="Z37" s="53">
+      <c r="Z37" s="50">
         <v>5224.7700000000004</v>
       </c>
-      <c r="AA37" s="53">
+      <c r="AA37" s="50">
         <v>802.26</v>
       </c>
-      <c r="AB37" s="53">
+      <c r="AB37" s="50">
         <v>282.32</v>
       </c>
-      <c r="AC37" s="53">
+      <c r="AC37" s="50">
         <v>838.61</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="18">
-        <v>7.4569167304999997</v>
+        <v>7.5</v>
       </c>
       <c r="D38" s="18">
         <v>21.8601960841</v>
@@ -3702,13 +3670,13 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="18">
-        <v>23.417977753300001</v>
+        <v>23.4</v>
       </c>
       <c r="D39" s="18">
         <v>18.311314257100001</v>
@@ -3791,13 +3759,13 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="18">
-        <v>35.883821877199999</v>
+        <v>35.9</v>
       </c>
       <c r="D40" s="18">
         <v>41.654278855900003</v>
@@ -3880,13 +3848,13 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="18">
-        <v>-5.4298096684999999</v>
+        <v>-5.4</v>
       </c>
       <c r="D41" s="18">
         <v>-7.5815517286</v>
@@ -3969,13 +3937,13 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="18">
-        <v>31.315882460800001</v>
+        <v>31.3</v>
       </c>
       <c r="D42" s="18">
         <v>30.3508112329</v>
@@ -4058,13 +4026,13 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="18">
-        <v>25.343378931499998</v>
+        <v>25.3</v>
       </c>
       <c r="D43" s="18">
         <v>6.1347138270999997</v>
@@ -4177,214 +4145,214 @@
       <c r="AC44" s="18"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
+      <c r="A45" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B46" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C46" s="18">
-        <v>81.59</v>
-      </c>
-      <c r="D46" s="18">
-        <v>83.75</v>
-      </c>
-      <c r="E46" s="18">
-        <v>84.16</v>
-      </c>
-      <c r="F46" s="18">
-        <v>84.21</v>
-      </c>
-      <c r="G46" s="18">
-        <v>84.92</v>
-      </c>
-      <c r="H46" s="18">
-        <v>83.27</v>
-      </c>
-      <c r="I46" s="18">
-        <v>85.47</v>
-      </c>
-      <c r="J46" s="18">
-        <v>84.71</v>
-      </c>
-      <c r="K46" s="18">
-        <v>85.91</v>
-      </c>
-      <c r="L46" s="18">
-        <v>82.68</v>
-      </c>
-      <c r="M46" s="18">
-        <v>82.15</v>
-      </c>
-      <c r="N46" s="18">
-        <v>82.97</v>
-      </c>
-      <c r="O46" s="18">
-        <v>79.41</v>
-      </c>
-      <c r="P46" s="18">
-        <v>79.38</v>
-      </c>
-      <c r="Q46" s="18">
-        <v>80.650000000000006</v>
-      </c>
-      <c r="R46" s="18">
-        <v>82.98</v>
-      </c>
-      <c r="S46" s="18">
-        <v>82.41</v>
-      </c>
-      <c r="T46" s="18">
-        <v>82.2</v>
-      </c>
-      <c r="U46" s="18">
-        <v>83.61</v>
-      </c>
-      <c r="V46" s="18">
-        <v>83.07</v>
-      </c>
-      <c r="W46" s="18">
-        <v>83.13</v>
-      </c>
-      <c r="X46" s="18">
-        <v>73.89</v>
-      </c>
-      <c r="Y46" s="18">
-        <v>78.430000000000007</v>
-      </c>
-      <c r="Z46" s="18">
-        <v>79.540000000000006</v>
-      </c>
-      <c r="AA46" s="18">
-        <v>78.819999999999993</v>
-      </c>
-      <c r="AB46" s="18">
-        <v>75.31</v>
-      </c>
-      <c r="AC46" s="18">
-        <v>76.040000000000006</v>
+        <v>79.853550443827444</v>
+      </c>
+      <c r="D46" s="63">
+        <v>81.972681477041249</v>
+      </c>
+      <c r="E46" s="63">
+        <v>82.371088956537179</v>
+      </c>
+      <c r="F46" s="63">
+        <v>81.959894719504305</v>
+      </c>
+      <c r="G46" s="63">
+        <v>81.970304215117622</v>
+      </c>
+      <c r="H46" s="63">
+        <v>80.579632024270722</v>
+      </c>
+      <c r="I46" s="63">
+        <v>84.263525115918142</v>
+      </c>
+      <c r="J46" s="63">
+        <v>81.383413904147929</v>
+      </c>
+      <c r="K46" s="63">
+        <v>79.969401619777983</v>
+      </c>
+      <c r="L46" s="63">
+        <v>80.587300039407097</v>
+      </c>
+      <c r="M46" s="63">
+        <v>79.764906153980746</v>
+      </c>
+      <c r="N46" s="63">
+        <v>80.642676292477191</v>
+      </c>
+      <c r="O46" s="63">
+        <v>77.347037862711716</v>
+      </c>
+      <c r="P46" s="63">
+        <v>79.596464877076414</v>
+      </c>
+      <c r="Q46" s="63">
+        <v>80.154479219547213</v>
+      </c>
+      <c r="R46" s="63">
+        <v>82.642837766760252</v>
+      </c>
+      <c r="S46" s="63">
+        <v>83.291002882436501</v>
+      </c>
+      <c r="T46" s="63">
+        <v>80.779115317953355</v>
+      </c>
+      <c r="U46" s="63">
+        <v>80.936710827812902</v>
+      </c>
+      <c r="V46" s="63">
+        <v>81.260381157483621</v>
+      </c>
+      <c r="W46" s="63">
+        <v>80.753256425191054</v>
+      </c>
+      <c r="X46" s="63">
+        <v>71.851371993429197</v>
+      </c>
+      <c r="Y46" s="63">
+        <v>76.76330995166694</v>
+      </c>
+      <c r="Z46" s="63">
+        <v>77.796523739132994</v>
+      </c>
+      <c r="AA46" s="63">
+        <v>76.676239066177317</v>
+      </c>
+      <c r="AB46" s="63">
+        <v>74.744700856905382</v>
+      </c>
+      <c r="AC46" s="63">
+        <v>78.234263075021133</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="45">
-        <v>2018</v>
-      </c>
-      <c r="C47" s="56">
-        <v>2.6</v>
+        <v>70</v>
+      </c>
+      <c r="B47" s="46">
+        <v>2019</v>
+      </c>
+      <c r="C47" s="53">
+        <v>2.2999999999999998</v>
       </c>
       <c r="D47" s="18">
-        <v>2.7</v>
+        <v>2.1274999999999999</v>
       </c>
       <c r="E47" s="18">
-        <v>1.9</v>
+        <v>1.7846</v>
       </c>
       <c r="F47" s="18">
-        <v>1.8</v>
+        <v>1.6217999999999999</v>
       </c>
       <c r="G47" s="18">
-        <v>0.8</v>
+        <v>1.0617000000000001</v>
       </c>
       <c r="H47" s="18">
-        <v>1.4</v>
+        <v>1.1083000000000001</v>
       </c>
       <c r="I47" s="18">
-        <v>0.7</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="J47" s="18">
-        <v>1</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="K47" s="18">
-        <v>1.7</v>
+        <v>1.3714999999999999</v>
       </c>
       <c r="L47" s="18">
-        <v>2.2000000000000002</v>
+        <v>1.9376</v>
       </c>
       <c r="M47" s="18">
-        <v>2.7</v>
+        <v>2.4628000000000001</v>
       </c>
       <c r="N47" s="18">
-        <v>2.2999999999999998</v>
+        <v>1.8774999999999999</v>
       </c>
       <c r="O47" s="18">
-        <v>3.4</v>
+        <v>2.9782999999999999</v>
       </c>
       <c r="P47" s="18">
-        <v>2.2999999999999998</v>
+        <v>1.8526</v>
       </c>
       <c r="Q47" s="18">
-        <v>3.1</v>
+        <v>2.8843999999999999</v>
       </c>
       <c r="R47" s="18">
-        <v>1.5</v>
+        <v>1.5748</v>
       </c>
       <c r="S47" s="18">
-        <v>1</v>
+        <v>1.0729</v>
       </c>
       <c r="T47" s="18">
-        <v>2</v>
+        <v>1.8354999999999999</v>
       </c>
       <c r="U47" s="18">
-        <v>1.3</v>
+        <v>1.1453</v>
       </c>
       <c r="V47" s="18">
-        <v>2.7</v>
+        <v>2.4714999999999998</v>
       </c>
       <c r="W47" s="18">
-        <v>2.1</v>
+        <v>1.891</v>
       </c>
       <c r="X47" s="18">
-        <v>3</v>
+        <v>2.7881999999999998</v>
       </c>
       <c r="Y47" s="18">
-        <v>3.8</v>
+        <v>3.4026000000000001</v>
       </c>
       <c r="Z47" s="18">
-        <v>3.1</v>
+        <v>2.7176999999999998</v>
       </c>
       <c r="AA47" s="18">
-        <v>4.5999999999999996</v>
+        <v>3.5072999999999999</v>
       </c>
       <c r="AB47" s="18">
-        <v>4.5</v>
+        <v>3.948</v>
       </c>
       <c r="AC47" s="18">
-        <v>3.7</v>
+        <v>3.4140000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -4419,926 +4387,926 @@
       <c r="AC48" s="24"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
+      <c r="A49" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="58">
-        <v>78868.506819999995</v>
+        <v>34</v>
+      </c>
+      <c r="C50" s="60">
+        <v>79218</v>
       </c>
       <c r="D50" s="21">
-        <v>93741.899850000002</v>
-      </c>
-      <c r="E50" s="21">
-        <v>76209.75576</v>
+        <v>95608</v>
+      </c>
+      <c r="E50" s="64">
+        <v>76085</v>
       </c>
       <c r="F50" s="21">
-        <v>66611.362200000003</v>
+        <v>66655</v>
       </c>
       <c r="G50" s="21">
-        <v>52827.330540000003</v>
+        <v>52468</v>
       </c>
       <c r="H50" s="21">
-        <v>59924.926270000004</v>
-      </c>
-      <c r="I50" s="21">
-        <v>66877.795280000006</v>
+        <v>60313</v>
+      </c>
+      <c r="I50" s="64">
+        <v>66970</v>
       </c>
       <c r="J50" s="21">
-        <v>69047.926519999994</v>
+        <v>71329</v>
       </c>
       <c r="K50" s="21">
-        <v>67851.953779999996</v>
+        <v>68671</v>
       </c>
       <c r="L50" s="21">
-        <v>153895.38959999999</v>
+        <v>151747</v>
       </c>
       <c r="M50" s="21">
-        <v>59390.715730000004</v>
+        <v>59444</v>
       </c>
       <c r="N50" s="21">
-        <v>65395.873549999997</v>
+        <v>65459</v>
       </c>
       <c r="O50" s="21">
-        <v>173184.65349999999</v>
+        <v>185826</v>
       </c>
       <c r="P50" s="21">
-        <v>68811.327369999999</v>
+        <v>71065</v>
       </c>
       <c r="Q50" s="21">
-        <v>87082.753670000006</v>
+        <v>85895</v>
       </c>
       <c r="R50" s="21">
-        <v>56236.831720000002</v>
+        <v>56038</v>
       </c>
       <c r="S50" s="21">
-        <v>62127.782290000003</v>
+        <v>61633</v>
       </c>
       <c r="T50" s="21">
-        <v>72884.02622</v>
+        <v>73059</v>
       </c>
       <c r="U50" s="21">
-        <v>71914.222039999993</v>
+        <v>70909</v>
       </c>
       <c r="V50" s="21">
-        <v>61866.779199999997</v>
+        <v>62337</v>
       </c>
       <c r="W50" s="21">
-        <v>60834.406609999998</v>
+        <v>60143</v>
       </c>
       <c r="X50" s="21">
-        <v>83415.828609999997</v>
+        <v>80532</v>
       </c>
       <c r="Y50" s="21">
-        <v>72232.422170000005</v>
+        <v>68102</v>
       </c>
       <c r="Z50" s="21">
-        <v>53275.971089999999</v>
+        <v>54083</v>
       </c>
       <c r="AA50" s="21">
-        <v>85275.527900000001</v>
+        <v>86584</v>
       </c>
       <c r="AB50" s="21">
-        <v>98350.176019999999</v>
+        <v>100464</v>
       </c>
       <c r="AC50" s="21">
-        <v>62341.060030000001</v>
+        <v>63236</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51" s="37">
-        <v>1.6012200000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D51" s="18">
-        <v>-0.56308000000000002</v>
+        <v>2.3845000000000001</v>
       </c>
       <c r="E51" s="18">
-        <v>1.01685</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="F51" s="18">
-        <v>3.4322499999999998</v>
+        <v>1.1455</v>
       </c>
       <c r="G51" s="18">
-        <v>0.32267000000000001</v>
+        <v>0.36830000000000002</v>
       </c>
       <c r="H51" s="18">
-        <v>2.75562</v>
+        <v>1.157</v>
       </c>
       <c r="I51" s="18">
-        <v>3.52162</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="J51" s="18">
-        <v>0.36989</v>
+        <v>3.3869101800000001</v>
       </c>
       <c r="K51" s="18">
-        <v>0.96504000000000001</v>
+        <v>2.3942000000000001</v>
       </c>
       <c r="L51" s="18">
-        <v>3.2781500000000001</v>
+        <v>-0.88200000000000001</v>
       </c>
       <c r="M51" s="18">
-        <v>2.3991600000000002</v>
+        <v>1.0967</v>
       </c>
       <c r="N51" s="18">
-        <v>0.99368999999999996</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="O51" s="18">
-        <v>2.8858600000000001</v>
+        <v>6.4500999999999999</v>
       </c>
       <c r="P51" s="18">
-        <v>0.17046</v>
+        <v>2.7789000000000001</v>
       </c>
       <c r="Q51" s="18">
-        <v>4.1863400000000004</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="R51" s="18">
-        <v>2.04541</v>
+        <v>0.20180000000000001</v>
       </c>
       <c r="S51" s="18">
-        <v>2.4015</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="T51" s="18">
-        <v>2.5335200000000002</v>
+        <v>0.96589999999999998</v>
       </c>
       <c r="U51" s="18">
-        <v>1.8990100000000001</v>
+        <v>-0.70220000000000005</v>
       </c>
       <c r="V51" s="18">
-        <v>0.40695999999999999</v>
+        <v>0.76770000000000005</v>
       </c>
       <c r="W51" s="18">
-        <v>3.29853</v>
+        <v>-0.2797</v>
       </c>
       <c r="X51" s="18">
-        <v>1.1366099999999999</v>
+        <v>-2.6779999999999999</v>
       </c>
       <c r="Y51" s="18">
-        <v>7.4331500000000004</v>
+        <v>-5.3943000000000003</v>
       </c>
       <c r="Z51" s="18">
-        <v>0.96526000000000001</v>
+        <v>2.1562999999999999</v>
       </c>
       <c r="AA51" s="18">
-        <v>-1.1294200000000001</v>
+        <v>2.5987</v>
       </c>
       <c r="AB51" s="18">
-        <v>1.11005</v>
+        <v>2.1289452500000001</v>
       </c>
       <c r="AC51" s="18">
-        <v>-8.6749999999999994E-2</v>
+        <v>2.4554999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C52" s="18">
-        <v>5120.335</v>
+        <v>5180.17</v>
       </c>
       <c r="D52" s="18">
-        <v>1014.859</v>
+        <v>1027.4269999999999</v>
       </c>
       <c r="E52" s="18">
-        <v>633.69000000000005</v>
+        <v>637.45699999999999</v>
       </c>
       <c r="F52" s="18">
-        <v>248.267</v>
+        <v>250.821</v>
       </c>
       <c r="G52" s="18">
-        <v>18.262</v>
+        <v>18.45</v>
       </c>
       <c r="H52" s="18">
-        <v>81.108999999999995</v>
+        <v>82.994</v>
       </c>
       <c r="I52" s="18">
-        <v>22.094000000000001</v>
+        <v>22.189</v>
       </c>
       <c r="J52" s="18">
-        <v>23.489000000000001</v>
+        <v>23.666</v>
       </c>
       <c r="K52" s="18">
-        <v>22.030999999999999</v>
+        <v>22.042999999999999</v>
       </c>
       <c r="L52" s="18">
-        <v>110.58799999999999</v>
+        <v>112.916</v>
       </c>
       <c r="M52" s="18">
-        <v>150.60900000000001</v>
+        <v>153.309</v>
       </c>
       <c r="N52" s="18">
-        <v>140.92099999999999</v>
+        <v>143.19499999999999</v>
       </c>
       <c r="O52" s="18">
-        <v>190.68100000000001</v>
+        <v>190.96600000000001</v>
       </c>
       <c r="P52" s="18">
-        <v>148.15100000000001</v>
+        <v>149.179</v>
       </c>
       <c r="Q52" s="18">
-        <v>45.494999999999997</v>
+        <v>45.92</v>
       </c>
       <c r="R52" s="18">
-        <v>26.74</v>
+        <v>26.898</v>
       </c>
       <c r="S52" s="18">
-        <v>8.9269999999999996</v>
+        <v>8.9120000000000008</v>
       </c>
       <c r="T52" s="18">
-        <v>299.06099999999998</v>
+        <v>301.25900000000001</v>
       </c>
       <c r="U52" s="18">
-        <v>127.709</v>
+        <v>128.53100000000001</v>
       </c>
       <c r="V52" s="18">
-        <v>338.36700000000002</v>
+        <v>341.51</v>
       </c>
       <c r="W52" s="18">
-        <v>133.97200000000001</v>
+        <v>136.06</v>
       </c>
       <c r="X52" s="18">
-        <v>230.73599999999999</v>
+        <v>232.67400000000001</v>
       </c>
       <c r="Y52" s="18">
-        <v>438.74799999999999</v>
+        <v>447.14100000000002</v>
       </c>
       <c r="Z52" s="18">
-        <v>173.42</v>
+        <v>176.69</v>
       </c>
       <c r="AA52" s="18">
-        <v>103.967</v>
+        <v>105.379</v>
       </c>
       <c r="AB52" s="18">
-        <v>346.423</v>
+        <v>351.69799999999998</v>
       </c>
       <c r="AC52" s="18">
-        <v>42.018999999999998</v>
+        <v>42.886000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="18">
-        <v>162.649</v>
+        <v>162.905</v>
       </c>
       <c r="D53" s="18">
-        <v>11.66</v>
+        <v>11.563000000000001</v>
       </c>
       <c r="E53" s="18">
-        <v>33.237000000000002</v>
+        <v>33.006999999999998</v>
       </c>
       <c r="F53" s="18">
-        <v>13.875</v>
+        <v>13.624000000000001</v>
       </c>
       <c r="G53" s="18">
-        <v>1.5029999999999999</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="H53" s="18">
-        <v>4.4340000000000002</v>
+        <v>4.4269999999999996</v>
       </c>
       <c r="I53" s="18">
-        <v>1.7569999999999999</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="J53" s="18">
-        <v>1.2569999999999999</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="K53" s="18">
-        <v>1.0860000000000001</v>
+        <v>1.091</v>
       </c>
       <c r="L53" s="18">
-        <v>1.849</v>
+        <v>1.897</v>
       </c>
       <c r="M53" s="18">
-        <v>8.8000000000000007</v>
+        <v>8.7690000000000001</v>
       </c>
       <c r="N53" s="18">
-        <v>4.2610000000000001</v>
+        <v>4.2309999999999999</v>
       </c>
       <c r="O53" s="18">
-        <v>6.0999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="P53" s="18">
-        <v>3.2850000000000001</v>
+        <v>3.202</v>
       </c>
       <c r="Q53" s="18">
-        <v>1.9610000000000001</v>
+        <v>1.948</v>
       </c>
       <c r="R53" s="18">
-        <v>1.69</v>
+        <v>1.718</v>
       </c>
       <c r="S53" s="18">
-        <v>1.0760000000000001</v>
+        <v>1.042</v>
       </c>
       <c r="T53" s="18">
-        <v>11.115</v>
+        <v>11.227</v>
       </c>
       <c r="U53" s="18">
-        <v>7.0359999999999996</v>
+        <v>7.0670000000000002</v>
       </c>
       <c r="V53" s="18">
-        <v>10.577999999999999</v>
+        <v>10.581</v>
       </c>
       <c r="W53" s="18">
-        <v>8.6630000000000003</v>
+        <v>8.6910000000000007</v>
       </c>
       <c r="X53" s="18">
-        <v>3.2440000000000002</v>
+        <v>3.3410000000000002</v>
       </c>
       <c r="Y53" s="18">
-        <v>13.236000000000001</v>
+        <v>13.442</v>
       </c>
       <c r="Z53" s="18">
-        <v>9.7149999999999999</v>
+        <v>10.127000000000001</v>
       </c>
       <c r="AA53" s="18">
-        <v>2.4780000000000002</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="AB53" s="18">
-        <v>1.7370000000000001</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="AC53" s="18">
-        <v>3.0550000000000002</v>
+        <v>3.0590000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="C54" s="18">
-        <v>1076.021</v>
+        <v>1078.704</v>
       </c>
       <c r="D54" s="18">
-        <v>140.50700000000001</v>
+        <v>139.28100000000001</v>
       </c>
       <c r="E54" s="18">
-        <v>129.82300000000001</v>
+        <v>130.18799999999999</v>
       </c>
       <c r="F54" s="18">
-        <v>55.893999999999998</v>
+        <v>57.131999999999998</v>
       </c>
       <c r="G54" s="18">
-        <v>5.2270000000000003</v>
+        <v>5.3159999999999998</v>
       </c>
       <c r="H54" s="18">
-        <v>20.65</v>
+        <v>21.085999999999999</v>
       </c>
       <c r="I54" s="18">
-        <v>7.21</v>
+        <v>7.226</v>
       </c>
       <c r="J54" s="18">
-        <v>6.7549999999999999</v>
+        <v>6.7949999999999999</v>
       </c>
       <c r="K54" s="18">
-        <v>7.952</v>
+        <v>8.0139999999999993</v>
       </c>
       <c r="L54" s="18">
-        <v>22.306000000000001</v>
+        <v>22.236000000000001</v>
       </c>
       <c r="M54" s="18">
-        <v>37.232999999999997</v>
+        <v>37.790999999999997</v>
       </c>
       <c r="N54" s="18">
-        <v>37.618000000000002</v>
+        <v>37.523000000000003</v>
       </c>
       <c r="O54" s="18">
-        <v>36.969000000000001</v>
+        <v>36.445</v>
       </c>
       <c r="P54" s="18">
-        <v>38.409999999999997</v>
+        <v>39.180999999999997</v>
       </c>
       <c r="Q54" s="18">
-        <v>13.2</v>
+        <v>13.34</v>
       </c>
       <c r="R54" s="18">
-        <v>7.6260000000000003</v>
+        <v>7.6870000000000003</v>
       </c>
       <c r="S54" s="18">
-        <v>2.8519999999999999</v>
+        <v>2.806</v>
       </c>
       <c r="T54" s="18">
-        <v>86.614999999999995</v>
+        <v>87.522000000000006</v>
       </c>
       <c r="U54" s="18">
-        <v>26.635999999999999</v>
+        <v>26.710999999999999</v>
       </c>
       <c r="V54" s="18">
-        <v>95.09</v>
+        <v>94.013000000000005</v>
       </c>
       <c r="W54" s="18">
-        <v>40.685000000000002</v>
+        <v>40.825000000000003</v>
       </c>
       <c r="X54" s="18">
-        <v>51.598999999999997</v>
+        <v>51.253999999999998</v>
       </c>
       <c r="Y54" s="18">
-        <v>72.156000000000006</v>
+        <v>72.998999999999995</v>
       </c>
       <c r="Z54" s="18">
-        <v>37.645000000000003</v>
+        <v>37.408999999999999</v>
       </c>
       <c r="AA54" s="18">
-        <v>33.832000000000001</v>
+        <v>33.838000000000001</v>
       </c>
       <c r="AB54" s="18">
-        <v>46.104999999999997</v>
+        <v>46.564</v>
       </c>
       <c r="AC54" s="18">
-        <v>15.426</v>
+        <v>15.522</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="18">
-        <v>3881.665</v>
+        <v>3938.5610000000001</v>
       </c>
       <c r="D55" s="18">
-        <v>862.69200000000001</v>
+        <v>876.58299999999997</v>
       </c>
       <c r="E55" s="18">
-        <v>470.63</v>
+        <v>474.262</v>
       </c>
       <c r="F55" s="18">
-        <v>178.49799999999999</v>
+        <v>180.065</v>
       </c>
       <c r="G55" s="18">
-        <v>11.532</v>
+        <v>11.635</v>
       </c>
       <c r="H55" s="18">
-        <v>56.024999999999999</v>
+        <v>57.481000000000002</v>
       </c>
       <c r="I55" s="18">
-        <v>13.127000000000001</v>
+        <v>13.22</v>
       </c>
       <c r="J55" s="18">
-        <v>15.477</v>
+        <v>15.632</v>
       </c>
       <c r="K55" s="18">
-        <v>12.993</v>
+        <v>12.938000000000001</v>
       </c>
       <c r="L55" s="18">
-        <v>86.433000000000007</v>
+        <v>88.783000000000001</v>
       </c>
       <c r="M55" s="18">
-        <v>104.57599999999999</v>
+        <v>106.749</v>
       </c>
       <c r="N55" s="18">
-        <v>99.042000000000002</v>
+        <v>101.441</v>
       </c>
       <c r="O55" s="18">
-        <v>153.65100000000001</v>
+        <v>154.46299999999999</v>
       </c>
       <c r="P55" s="18">
-        <v>106.456</v>
+        <v>106.79600000000001</v>
       </c>
       <c r="Q55" s="18">
-        <v>30.334</v>
+        <v>30.632000000000001</v>
       </c>
       <c r="R55" s="18">
-        <v>17.423999999999999</v>
+        <v>17.492999999999999</v>
       </c>
       <c r="S55" s="18">
-        <v>4.9989999999999997</v>
+        <v>5.0640000000000001</v>
       </c>
       <c r="T55" s="18">
-        <v>201.33099999999999</v>
+        <v>202.51</v>
       </c>
       <c r="U55" s="18">
-        <v>94.037000000000006</v>
+        <v>94.753</v>
       </c>
       <c r="V55" s="18">
-        <v>232.69900000000001</v>
+        <v>236.916</v>
       </c>
       <c r="W55" s="18">
-        <v>84.623999999999995</v>
+        <v>86.543999999999997</v>
       </c>
       <c r="X55" s="18">
-        <v>175.893</v>
+        <v>178.07900000000001</v>
       </c>
       <c r="Y55" s="18">
-        <v>353.35599999999999</v>
+        <v>360.7</v>
       </c>
       <c r="Z55" s="18">
-        <v>126.06</v>
+        <v>129.154</v>
       </c>
       <c r="AA55" s="18">
-        <v>67.656999999999996</v>
+        <v>69.055000000000007</v>
       </c>
       <c r="AB55" s="18">
-        <v>298.58100000000002</v>
+        <v>303.30799999999999</v>
       </c>
       <c r="AC55" s="18">
-        <v>23.538</v>
+        <v>24.305</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" s="21">
-        <v>680100</v>
+        <v>684167</v>
       </c>
       <c r="D56" s="21">
-        <v>118225</v>
+        <v>118647</v>
       </c>
       <c r="E56" s="21">
-        <v>80138</v>
+        <v>80319</v>
       </c>
       <c r="F56" s="21">
-        <v>32094</v>
+        <v>32295</v>
       </c>
       <c r="G56" s="21">
-        <v>2781</v>
+        <v>2800</v>
       </c>
       <c r="H56" s="21">
-        <v>15325</v>
+        <v>15351</v>
       </c>
       <c r="I56" s="21">
-        <v>3680</v>
+        <v>3654</v>
       </c>
       <c r="J56" s="21">
-        <v>4093</v>
+        <v>4098</v>
       </c>
       <c r="K56" s="21">
-        <v>3327</v>
+        <v>3306</v>
       </c>
       <c r="L56" s="21">
-        <v>17709</v>
+        <v>17955</v>
       </c>
       <c r="M56" s="21">
-        <v>21696</v>
+        <v>21798</v>
       </c>
       <c r="N56" s="21">
-        <v>18306</v>
+        <v>18318</v>
       </c>
       <c r="O56" s="21">
-        <v>17174</v>
+        <v>17093</v>
       </c>
       <c r="P56" s="21">
-        <v>19512</v>
+        <v>19625</v>
       </c>
       <c r="Q56" s="21">
-        <v>6571</v>
+        <v>6569</v>
       </c>
       <c r="R56" s="21">
-        <v>5230</v>
+        <v>5164</v>
       </c>
       <c r="S56" s="21">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="T56" s="21">
-        <v>38652</v>
+        <v>38739</v>
       </c>
       <c r="U56" s="21">
-        <v>20835</v>
+        <v>20731</v>
       </c>
       <c r="V56" s="21">
-        <v>45550</v>
+        <v>45625</v>
       </c>
       <c r="W56" s="21">
-        <v>20590</v>
+        <v>20675</v>
       </c>
       <c r="X56" s="21">
-        <v>39019</v>
+        <v>38886</v>
       </c>
       <c r="Y56" s="21">
-        <v>58910</v>
+        <v>60526</v>
       </c>
       <c r="Z56" s="21">
-        <v>28848</v>
+        <v>29268</v>
       </c>
       <c r="AA56" s="21">
-        <v>13547</v>
+        <v>13602</v>
       </c>
       <c r="AB56" s="21">
-        <v>40054</v>
+        <v>40837</v>
       </c>
       <c r="AC56" s="21">
-        <v>6331</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="21">
-        <v>54812</v>
+        <v>54193</v>
       </c>
       <c r="D57" s="21">
-        <v>3721</v>
+        <v>3678</v>
       </c>
       <c r="E57" s="21">
-        <v>11056</v>
+        <v>10936</v>
       </c>
       <c r="F57" s="21">
-        <v>4795</v>
+        <v>4752</v>
       </c>
       <c r="G57" s="21">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H57" s="21">
-        <v>1668</v>
+        <v>1642</v>
       </c>
       <c r="I57" s="21">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="J57" s="21">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="K57" s="21">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L57" s="21">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="M57" s="21">
-        <v>2963</v>
+        <v>2938</v>
       </c>
       <c r="N57" s="21">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="O57" s="21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P57" s="21">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q57" s="21">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="R57" s="21">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="S57" s="21">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="T57" s="21">
-        <v>4156</v>
+        <v>4133</v>
       </c>
       <c r="U57" s="21">
-        <v>2528</v>
+        <v>2474</v>
       </c>
       <c r="V57" s="21">
-        <v>3537</v>
+        <v>3454</v>
       </c>
       <c r="W57" s="21">
-        <v>2715</v>
+        <v>2675</v>
       </c>
       <c r="X57" s="21">
-        <v>1223</v>
+        <v>1200</v>
       </c>
       <c r="Y57" s="21">
-        <v>3858</v>
+        <v>3876</v>
       </c>
       <c r="Z57" s="21">
-        <v>3184</v>
+        <v>3122</v>
       </c>
       <c r="AA57" s="21">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="AB57" s="21">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AC57" s="21">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" s="21">
-        <v>95940</v>
+        <v>95820</v>
       </c>
       <c r="D58" s="21">
-        <v>13210</v>
+        <v>13233</v>
       </c>
       <c r="E58" s="21">
-        <v>11734</v>
+        <v>11649</v>
       </c>
       <c r="F58" s="21">
-        <v>4592</v>
+        <v>4620</v>
       </c>
       <c r="G58" s="21">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H58" s="21">
-        <v>2432</v>
+        <v>2420</v>
       </c>
       <c r="I58" s="21">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J58" s="21">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="K58" s="21">
         <v>616</v>
       </c>
       <c r="L58" s="21">
-        <v>1651</v>
+        <v>1688</v>
       </c>
       <c r="M58" s="21">
-        <v>3406</v>
+        <v>3446</v>
       </c>
       <c r="N58" s="21">
+        <v>3089</v>
+      </c>
+      <c r="O58" s="21">
+        <v>1495</v>
+      </c>
+      <c r="P58" s="21">
         <v>3149</v>
       </c>
-      <c r="O58" s="21">
-        <v>1513</v>
-      </c>
-      <c r="P58" s="21">
-        <v>3136</v>
-      </c>
       <c r="Q58" s="21">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="R58" s="21">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="S58" s="21">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="T58" s="21">
-        <v>6726</v>
+        <v>6716</v>
       </c>
       <c r="U58" s="21">
-        <v>3069</v>
+        <v>3040</v>
       </c>
       <c r="V58" s="21">
-        <v>7327</v>
+        <v>7273</v>
       </c>
       <c r="W58" s="21">
-        <v>3598</v>
+        <v>3584</v>
       </c>
       <c r="X58" s="21">
-        <v>5624</v>
+        <v>5502</v>
       </c>
       <c r="Y58" s="21">
-        <v>7977</v>
+        <v>8099</v>
       </c>
       <c r="Z58" s="21">
-        <v>4382</v>
+        <v>4397</v>
       </c>
       <c r="AA58" s="21">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="AB58" s="21">
-        <v>4462</v>
+        <v>4542</v>
       </c>
       <c r="AC58" s="21">
-        <v>1225</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59" s="21">
-        <v>529348</v>
+        <v>534154</v>
       </c>
       <c r="D59" s="21">
-        <v>101294</v>
+        <v>101736</v>
       </c>
       <c r="E59" s="21">
-        <v>57348</v>
+        <v>57734</v>
       </c>
       <c r="F59" s="21">
-        <v>22707</v>
+        <v>22923</v>
       </c>
       <c r="G59" s="21">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="H59" s="21">
-        <v>11225</v>
+        <v>11289</v>
       </c>
       <c r="I59" s="21">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="J59" s="21">
-        <v>3033</v>
+        <v>3071</v>
       </c>
       <c r="K59" s="21">
-        <v>2319</v>
+        <v>2302</v>
       </c>
       <c r="L59" s="21">
-        <v>15459</v>
+        <v>15675</v>
       </c>
       <c r="M59" s="21">
-        <v>15327</v>
+        <v>15414</v>
       </c>
       <c r="N59" s="21">
-        <v>13710</v>
+        <v>13791</v>
       </c>
       <c r="O59" s="21">
-        <v>15642</v>
+        <v>15580</v>
       </c>
       <c r="P59" s="21">
-        <v>15405</v>
+        <v>15506</v>
       </c>
       <c r="Q59" s="21">
-        <v>4990</v>
+        <v>5001</v>
       </c>
       <c r="R59" s="21">
-        <v>3627</v>
+        <v>3581</v>
       </c>
       <c r="S59" s="21">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="T59" s="21">
-        <v>27770</v>
+        <v>27890</v>
       </c>
       <c r="U59" s="21">
-        <v>15238</v>
+        <v>15217</v>
       </c>
       <c r="V59" s="21">
-        <v>34686</v>
+        <v>34898</v>
       </c>
       <c r="W59" s="21">
-        <v>14277</v>
+        <v>14416</v>
       </c>
       <c r="X59" s="21">
-        <v>32172</v>
+        <v>32184</v>
       </c>
       <c r="Y59" s="21">
-        <v>47075</v>
+        <v>48551</v>
       </c>
       <c r="Z59" s="21">
-        <v>21282</v>
+        <v>21749</v>
       </c>
       <c r="AA59" s="21">
-        <v>10215</v>
+        <v>10294</v>
       </c>
       <c r="AB59" s="21">
-        <v>35171</v>
+        <v>35877</v>
       </c>
       <c r="AC59" s="21">
-        <v>4028</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
@@ -5373,212 +5341,212 @@
       <c r="AC60" s="21"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="55">
-        <v>2017</v>
-      </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="53"/>
-      <c r="Z61" s="53"/>
-      <c r="AA61" s="53"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="53"/>
+      <c r="A61" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="52">
+        <v>2018</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="50"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="50"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="18">
-        <v>14.4730251054</v>
+        <v>15.4</v>
       </c>
       <c r="D62" s="18">
-        <v>12.1210990112</v>
+        <v>13.439219291300001</v>
       </c>
       <c r="E62" s="18">
-        <v>11.8956902523</v>
+        <v>12.504970935799999</v>
       </c>
       <c r="F62" s="18">
-        <v>9.3969368600000003</v>
+        <v>10.0729904681</v>
       </c>
       <c r="G62" s="18">
-        <v>14.658558817999999</v>
+        <v>15.431766269800001</v>
       </c>
       <c r="H62" s="18">
-        <v>11.4305030484</v>
+        <v>11.9127231734</v>
       </c>
       <c r="I62" s="18">
-        <v>32.870277024700002</v>
+        <v>34.797520454500003</v>
       </c>
       <c r="J62" s="18">
-        <v>19.0867645897</v>
+        <v>19.678747384800001</v>
       </c>
       <c r="K62" s="18">
-        <v>28.139114986700001</v>
+        <v>31.019971878700002</v>
       </c>
       <c r="L62" s="18">
-        <v>15.3946835734</v>
+        <v>16.103122903399999</v>
       </c>
       <c r="M62" s="18">
-        <v>6.7311800906999997</v>
+        <v>7.3274824065999997</v>
       </c>
       <c r="N62" s="18">
-        <v>13.510087217900001</v>
+        <v>15.328849865800001</v>
       </c>
       <c r="O62" s="18">
-        <v>27.363432917499999</v>
+        <v>40.445801426000003</v>
       </c>
       <c r="P62" s="18">
-        <v>15.1269647783</v>
+        <v>16.252399987699999</v>
       </c>
       <c r="Q62" s="18">
-        <v>5.9948018544000004</v>
+        <v>6.5519213132000003</v>
       </c>
       <c r="R62" s="18">
-        <v>20.894795179300001</v>
+        <v>23.717642655700001</v>
       </c>
       <c r="S62" s="18">
-        <v>6.0947472801</v>
+        <v>6.0976121768000002</v>
       </c>
       <c r="T62" s="18">
-        <v>12.503376838499999</v>
+        <v>13.3957143016</v>
       </c>
       <c r="U62" s="18">
-        <v>63.576684279699997</v>
+        <v>65.169166543100005</v>
       </c>
       <c r="V62" s="18">
-        <v>9.8484678002999999</v>
+        <v>10.314144852</v>
       </c>
       <c r="W62" s="18">
-        <v>13.301309252399999</v>
+        <v>14.3683690487</v>
       </c>
       <c r="X62" s="18">
-        <v>20.044240489</v>
+        <v>20.651717978000001</v>
       </c>
       <c r="Y62" s="18">
-        <v>7.9398751668000003</v>
+        <v>8.6419564509000004</v>
       </c>
       <c r="Z62" s="18">
-        <v>17.8724743575</v>
+        <v>18.618665221600001</v>
       </c>
       <c r="AA62" s="18">
-        <v>7.6818422384999998</v>
+        <v>8.4942411235000002</v>
       </c>
       <c r="AB62" s="18">
-        <v>9.5128241372000009</v>
+        <v>11.3578529337</v>
       </c>
       <c r="AC62" s="18">
-        <v>16.240262292499999</v>
+        <v>17.9280731574</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="18">
-        <v>20.265570339</v>
+        <v>20.5</v>
       </c>
       <c r="D63" s="18">
-        <v>21.388901515200001</v>
+        <v>21.827168768699998</v>
       </c>
       <c r="E63" s="18">
-        <v>18.2046289556</v>
+        <v>18.4568684013</v>
       </c>
       <c r="F63" s="18">
-        <v>16.492594544700001</v>
+        <v>16.602456785800001</v>
       </c>
       <c r="G63" s="18">
-        <v>11.8380667838</v>
+        <v>11.9948190053</v>
       </c>
       <c r="H63" s="18">
-        <v>14.935513282700001</v>
+        <v>15.185326251599999</v>
       </c>
       <c r="I63" s="18">
-        <v>12.458672</v>
+        <v>12.698029316</v>
       </c>
       <c r="J63" s="18">
-        <v>13.711820276499999</v>
+        <v>13.9126760563</v>
       </c>
       <c r="K63" s="18">
-        <v>18.621189189199999</v>
+        <v>19.095342465800002</v>
       </c>
       <c r="L63" s="18">
-        <v>19.055502321399999</v>
+        <v>19.121643087999999</v>
       </c>
       <c r="M63" s="18">
-        <v>26.590011338</v>
+        <v>27.166036314300001</v>
       </c>
       <c r="N63" s="18">
-        <v>23.198736892500001</v>
+        <v>23.113250367100001</v>
       </c>
       <c r="O63" s="18">
-        <v>32.973792307700002</v>
+        <v>32.651653846199999</v>
       </c>
       <c r="P63" s="18">
-        <v>23.716757871399999</v>
+        <v>23.6080388767</v>
       </c>
       <c r="Q63" s="18">
-        <v>27.437231993000001</v>
+        <v>29.0291027574</v>
       </c>
       <c r="R63" s="18">
-        <v>16.847785613500001</v>
+        <v>16.959481115900001</v>
       </c>
       <c r="S63" s="18">
-        <v>15.3980645161</v>
+        <v>15.4998264642</v>
       </c>
       <c r="T63" s="18">
-        <v>17.852367317799999</v>
+        <v>18.076837594899999</v>
       </c>
       <c r="U63" s="18">
-        <v>24.0585319672</v>
+        <v>24.596881957899999</v>
       </c>
       <c r="V63" s="18">
-        <v>18.424616093400001</v>
+        <v>18.714223331300001</v>
       </c>
       <c r="W63" s="18">
-        <v>19.230597859100001</v>
+        <v>19.326246854200001</v>
       </c>
       <c r="X63" s="18">
-        <v>12.700330965399999</v>
+        <v>12.563460897400001</v>
       </c>
       <c r="Y63" s="18">
-        <v>29.865027039699999</v>
+        <v>29.526133804299999</v>
       </c>
       <c r="Z63" s="18">
-        <v>12.6323682679</v>
+        <v>13.3781269231</v>
       </c>
       <c r="AA63" s="18">
-        <v>39.056197026</v>
+        <v>39.604722236199997</v>
       </c>
       <c r="AB63" s="18">
-        <v>29.446884816800001</v>
+        <v>29.310025906700002</v>
       </c>
       <c r="AC63" s="18">
-        <v>39.591931341799999</v>
+        <v>39.887904733699997</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
@@ -5613,131 +5581,131 @@
       <c r="AC64" s="18"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="53"/>
-      <c r="V65" s="53"/>
-      <c r="W65" s="53"/>
-      <c r="X65" s="53"/>
-      <c r="Y65" s="53"/>
-      <c r="Z65" s="53"/>
-      <c r="AA65" s="53"/>
-      <c r="AB65" s="53"/>
-      <c r="AC65" s="53"/>
+      <c r="A65" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="49"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="50"/>
+      <c r="X65" s="50"/>
+      <c r="Y65" s="50"/>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="50"/>
+      <c r="AB65" s="50"/>
+      <c r="AC65" s="50"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B66" s="26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C66" s="24">
-        <v>1.6174970879999999</v>
+        <v>1.66</v>
       </c>
       <c r="D66" s="24">
-        <v>0.99342461069999999</v>
+        <v>0.89022319800000005</v>
       </c>
       <c r="E66" s="24">
-        <v>1.8313061412</v>
+        <v>1.8700737239</v>
       </c>
       <c r="F66" s="24">
-        <v>1.4385767598999999</v>
+        <v>1.5050495393000001</v>
       </c>
       <c r="G66" s="24">
-        <v>1.4067340409</v>
+        <v>1.8756859224</v>
       </c>
       <c r="H66" s="24">
-        <v>1.4388489208999999</v>
+        <v>1.4372833321</v>
       </c>
       <c r="I66" s="24">
-        <v>0.70241161320000001</v>
+        <v>0.86698502479999995</v>
       </c>
       <c r="J66" s="24">
-        <v>1.9020490673999999</v>
+        <v>1.4977010971</v>
       </c>
       <c r="K66" s="24">
-        <v>1.5999292849</v>
+        <v>1.7091401845</v>
       </c>
       <c r="L66" s="24">
-        <v>0.4419300478</v>
+        <v>0.4150365708</v>
       </c>
       <c r="M66" s="24">
-        <v>1.5060770344000001</v>
+        <v>1.8315623822</v>
       </c>
       <c r="N66" s="24">
-        <v>2.9829869623</v>
+        <v>3.3988277897999999</v>
       </c>
       <c r="O66" s="24">
-        <v>0.71409003739999999</v>
+        <v>1.0158064545000001</v>
       </c>
       <c r="P66" s="24">
-        <v>0.75872534140000003</v>
+        <v>1.0572187776999999</v>
       </c>
       <c r="Q66" s="24">
-        <v>2.4699010608999998</v>
+        <v>2.5618083352999999</v>
       </c>
       <c r="R66" s="24">
-        <v>2.178059862</v>
+        <v>2.2985741281999998</v>
       </c>
       <c r="S66" s="24">
-        <v>1.8886930244</v>
+        <v>2.0223325062000002</v>
       </c>
       <c r="T66" s="24">
-        <v>2.1992116255999998</v>
+        <v>2.1797159928999998</v>
       </c>
       <c r="U66" s="24">
-        <v>1.5940705231000001</v>
+        <v>1.6827102669</v>
       </c>
       <c r="V66" s="24">
-        <v>2.6493372732</v>
+        <v>2.5857891179000001</v>
       </c>
       <c r="W66" s="24">
-        <v>2.42316339</v>
+        <v>2.6512117705999998</v>
       </c>
       <c r="X66" s="24">
-        <v>2.0210141923</v>
+        <v>2.2904965501999999</v>
       </c>
       <c r="Y66" s="24">
-        <v>1.0817011199</v>
+        <v>1.0964096956</v>
       </c>
       <c r="Z66" s="24">
-        <v>2.3656177396000002</v>
+        <v>2.0908906913999998</v>
       </c>
       <c r="AA66" s="24">
-        <v>2.0382259924000001</v>
+        <v>2.3909352005</v>
       </c>
       <c r="AB66" s="24">
-        <v>0.52711720380000004</v>
+        <v>0.53683039990000003</v>
       </c>
       <c r="AC66" s="24">
-        <v>2.5567659798000002</v>
+        <v>2.5876612421999998</v>
       </c>
       <c r="AD66" s="24"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B67" s="26">
         <v>2017</v>
@@ -5826,180 +5794,180 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B68" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C68" s="21">
         <v>46</v>
       </c>
       <c r="D68" s="21">
-        <v>44</v>
+        <v>44.515235271800002</v>
       </c>
       <c r="E68" s="21">
-        <v>45</v>
+        <v>45.629930117000001</v>
       </c>
       <c r="F68" s="21">
-        <v>46</v>
+        <v>46.354604174400002</v>
       </c>
       <c r="G68" s="21">
-        <v>46</v>
+        <v>46.270265752999997</v>
       </c>
       <c r="H68" s="21">
-        <v>49</v>
+        <v>49.482229443599998</v>
       </c>
       <c r="I68" s="21">
-        <v>48</v>
+        <v>47.914664590800001</v>
       </c>
       <c r="J68" s="21">
-        <v>49</v>
+        <v>49.533635445800002</v>
       </c>
       <c r="K68" s="21">
-        <v>50</v>
+        <v>49.833974230899997</v>
       </c>
       <c r="L68" s="21">
-        <v>47</v>
+        <v>47.251849135999997</v>
       </c>
       <c r="M68" s="21">
-        <v>45</v>
+        <v>44.845389165599997</v>
       </c>
       <c r="N68" s="21">
-        <v>49</v>
+        <v>49.638429767300003</v>
       </c>
       <c r="O68" s="21">
-        <v>41</v>
+        <v>40.987278103500003</v>
       </c>
       <c r="P68" s="21">
-        <v>48</v>
+        <v>47.725395800599998</v>
       </c>
       <c r="Q68" s="21">
-        <v>51</v>
+        <v>50.7204615936</v>
       </c>
       <c r="R68" s="21">
-        <v>50</v>
+        <v>50.682253078000002</v>
       </c>
       <c r="S68" s="21">
-        <v>49</v>
+        <v>49.278471481499999</v>
       </c>
       <c r="T68" s="21">
-        <v>47</v>
+        <v>47.498710972200001</v>
       </c>
       <c r="U68" s="21">
-        <v>47</v>
+        <v>46.961239460199998</v>
       </c>
       <c r="V68" s="21">
-        <v>50</v>
+        <v>49.791113091299998</v>
       </c>
       <c r="W68" s="21">
-        <v>51</v>
+        <v>51.443513319799997</v>
       </c>
       <c r="X68" s="21">
-        <v>48</v>
+        <v>47.901093652699998</v>
       </c>
       <c r="Y68" s="21">
-        <v>43</v>
+        <v>42.800996691899996</v>
       </c>
       <c r="Z68" s="21">
-        <v>45</v>
+        <v>45.545355149899997</v>
       </c>
       <c r="AA68" s="21">
-        <v>44</v>
+        <v>44.763426433900001</v>
       </c>
       <c r="AB68" s="21">
-        <v>37</v>
+        <v>36.394712812500003</v>
       </c>
       <c r="AC68" s="21">
-        <v>47</v>
+        <v>47.347524192100003</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B69" s="26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C69" s="18">
-        <v>6.2487345573999997</v>
+        <v>6</v>
       </c>
       <c r="D69" s="18">
-        <v>6.8179462419999997</v>
+        <v>5.4362691696000001</v>
       </c>
       <c r="E69" s="18">
-        <v>4.2094069384999999</v>
+        <v>4.1714035770000004</v>
       </c>
       <c r="F69" s="18">
-        <v>7.0518253996000002</v>
+        <v>6.7774425689999998</v>
       </c>
       <c r="G69" s="18">
-        <v>7.3944347149</v>
+        <v>10.7068750865</v>
       </c>
       <c r="H69" s="18">
-        <v>9.0984016146000002</v>
+        <v>8.3470740330000002</v>
       </c>
       <c r="I69" s="18">
-        <v>7.2553673534999996</v>
+        <v>5.1099577290999996</v>
       </c>
       <c r="J69" s="18">
-        <v>5.4219707684999996</v>
+        <v>6.9320424852000002</v>
       </c>
       <c r="K69" s="18">
-        <v>6.8951733786</v>
+        <v>6.7751015020000001</v>
       </c>
       <c r="L69" s="18">
-        <v>7.3034535837999996</v>
+        <v>5.0908445476999997</v>
       </c>
       <c r="M69" s="18">
-        <v>7.0870777107</v>
+        <v>7.0051360311000002</v>
       </c>
       <c r="N69" s="18">
-        <v>5.1010066887000001</v>
+        <v>5.5856384143</v>
       </c>
       <c r="O69" s="18">
-        <v>2.1478805319999998</v>
+        <v>1.9267623142000001</v>
       </c>
       <c r="P69" s="18">
-        <v>5.5996695276999997</v>
+        <v>5.1781362911000004</v>
       </c>
       <c r="Q69" s="18">
-        <v>5.8369657797999999</v>
+        <v>6.7600193143</v>
       </c>
       <c r="R69" s="18">
-        <v>6.4536237463999999</v>
+        <v>3.9123630672999998</v>
       </c>
       <c r="S69" s="18">
-        <v>3.0674846626000001</v>
+        <v>3.9367618572</v>
       </c>
       <c r="T69" s="18">
-        <v>5.6585815474999999</v>
+        <v>5.5456947739000002</v>
       </c>
       <c r="U69" s="18">
-        <v>6.8307817506999999</v>
+        <v>6.5603644647000001</v>
       </c>
       <c r="V69" s="18">
-        <v>7.6658890121000001</v>
+        <v>8.5611534647000003</v>
       </c>
       <c r="W69" s="18">
-        <v>7.2206080866000004</v>
+        <v>9.4788130428000006</v>
       </c>
       <c r="X69" s="18">
-        <v>6.4782665523</v>
+        <v>7.1619047618999998</v>
       </c>
       <c r="Y69" s="18">
-        <v>7.2019001638000004</v>
+        <v>6.1886644359999998</v>
       </c>
       <c r="Z69" s="18">
-        <v>9.9345836709000004</v>
+        <v>8.4941151497000007</v>
       </c>
       <c r="AA69" s="18">
-        <v>3.0318853273999999</v>
+        <v>3.4888865243999998</v>
       </c>
       <c r="AB69" s="18">
-        <v>4.1032644573999999</v>
+        <v>4.0386171056000002</v>
       </c>
       <c r="AC69" s="18">
-        <v>5.2210711439999997</v>
+        <v>6.2498290528</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
@@ -6034,212 +6002,212 @@
       <c r="AC70" s="18"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="55">
-        <v>2017</v>
-      </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="53"/>
-      <c r="T71" s="53"/>
-      <c r="U71" s="53"/>
-      <c r="V71" s="53"/>
-      <c r="W71" s="53"/>
-      <c r="X71" s="53"/>
-      <c r="Y71" s="53"/>
-      <c r="Z71" s="53"/>
-      <c r="AA71" s="53"/>
-      <c r="AB71" s="53"/>
-      <c r="AC71" s="53"/>
+      <c r="A71" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="52">
+        <v>2018</v>
+      </c>
+      <c r="C71" s="50"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="50"/>
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
+      <c r="V71" s="50"/>
+      <c r="W71" s="50"/>
+      <c r="X71" s="50"/>
+      <c r="Y71" s="50"/>
+      <c r="Z71" s="50"/>
+      <c r="AA71" s="50"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="50"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="21">
-        <v>18562.061000000002</v>
+        <v>19353.082999999999</v>
       </c>
       <c r="D72" s="21">
-        <v>3172.2139999999999</v>
+        <v>3298.643</v>
       </c>
       <c r="E72" s="21">
-        <v>2713.0650000000001</v>
+        <v>2860.6</v>
       </c>
       <c r="F72" s="21">
-        <v>1201.3430000000001</v>
+        <v>1245.7819999999999</v>
       </c>
       <c r="G72" s="21">
-        <v>148.81899999999999</v>
+        <v>152.178</v>
       </c>
       <c r="H72" s="21">
-        <v>288.64</v>
+        <v>309.37</v>
       </c>
       <c r="I72" s="21">
-        <v>361.64600000000002</v>
+        <v>364.86</v>
       </c>
       <c r="J72" s="21">
-        <v>142.67699999999999</v>
+        <v>196.52199999999999</v>
       </c>
       <c r="K72" s="21">
-        <v>64.677999999999997</v>
+        <v>68.078000000000003</v>
       </c>
       <c r="L72" s="21">
-        <v>151.333</v>
+        <v>152.93600000000001</v>
       </c>
       <c r="M72" s="21">
-        <v>278.95600000000002</v>
+        <v>280.49400000000003</v>
       </c>
       <c r="N72" s="21">
-        <v>210.32400000000001</v>
+        <v>226.39500000000001</v>
       </c>
       <c r="O72" s="21">
-        <v>719.85699999999997</v>
+        <v>742.18600000000004</v>
       </c>
       <c r="P72" s="21">
-        <v>142.125</v>
+        <v>141.62299999999999</v>
       </c>
       <c r="Q72" s="21">
-        <v>91.906999999999996</v>
+        <v>93.948999999999998</v>
       </c>
       <c r="R72" s="21">
-        <v>65.480999999999995</v>
+        <v>69.236000000000004</v>
       </c>
       <c r="S72" s="21">
-        <v>87.605000000000004</v>
+        <v>96.06</v>
       </c>
       <c r="T72" s="21">
-        <v>462.30099999999999</v>
+        <v>476.59</v>
       </c>
       <c r="U72" s="21">
-        <v>1797.2349999999999</v>
+        <v>1926.828</v>
       </c>
       <c r="V72" s="21">
-        <v>346.29599999999999</v>
+        <v>360.553</v>
       </c>
       <c r="W72" s="21">
-        <v>199.209</v>
+        <v>207.91499999999999</v>
       </c>
       <c r="X72" s="21">
-        <v>1185.1179999999999</v>
+        <v>1098.2</v>
       </c>
       <c r="Y72" s="21">
-        <v>1404.462</v>
+        <v>1451.998</v>
       </c>
       <c r="Z72" s="21">
-        <v>1685.2090000000001</v>
+        <v>1761.4469999999999</v>
       </c>
       <c r="AA72" s="21">
-        <v>132.21</v>
+        <v>135.17400000000001</v>
       </c>
       <c r="AB72" s="21">
-        <v>1445.5139999999999</v>
+        <v>1570.6569999999999</v>
       </c>
       <c r="AC72" s="21">
-        <v>63.837000000000003</v>
+        <v>64.808999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="21">
-        <v>37392.74</v>
+        <v>38806.777000000002</v>
       </c>
       <c r="D73" s="21">
-        <v>5385.7780000000002</v>
+        <v>5698.59</v>
       </c>
       <c r="E73" s="21">
-        <v>5284.0770000000002</v>
+        <v>5549.8680000000004</v>
       </c>
       <c r="F73" s="21">
-        <v>2105.3429999999998</v>
+        <v>2174.8029999999999</v>
       </c>
       <c r="G73" s="21">
-        <v>250.89400000000001</v>
+        <v>255.42099999999999</v>
       </c>
       <c r="H73" s="21">
-        <v>534.49900000000002</v>
+        <v>564.53300000000002</v>
       </c>
       <c r="I73" s="21">
-        <v>645.66800000000001</v>
+        <v>673.298</v>
       </c>
       <c r="J73" s="21">
-        <v>240.65799999999999</v>
+        <v>328.50599999999997</v>
       </c>
       <c r="K73" s="21">
-        <v>131.41800000000001</v>
+        <v>135.26499999999999</v>
       </c>
       <c r="L73" s="21">
-        <v>305.01299999999998</v>
+        <v>302.19600000000003</v>
       </c>
       <c r="M73" s="21">
-        <v>446.45699999999999</v>
+        <v>444.34199999999998</v>
       </c>
       <c r="N73" s="21">
-        <v>413.64400000000001</v>
+        <v>431.28</v>
       </c>
       <c r="O73" s="21">
-        <v>1328.047</v>
+        <v>1386.499</v>
       </c>
       <c r="P73" s="21">
-        <v>281.82</v>
+        <v>284.89</v>
       </c>
       <c r="Q73" s="21">
-        <v>153.023</v>
+        <v>154.69800000000001</v>
       </c>
       <c r="R73" s="21">
-        <v>119.861</v>
+        <v>121.708</v>
       </c>
       <c r="S73" s="21">
-        <v>153.02500000000001</v>
+        <v>159.51400000000001</v>
       </c>
       <c r="T73" s="21">
-        <v>979.16399999999999</v>
+        <v>983.64700000000005</v>
       </c>
       <c r="U73" s="21">
-        <v>4853.3590000000004</v>
+        <v>5132.2120000000004</v>
       </c>
       <c r="V73" s="21">
-        <v>715.83299999999997</v>
+        <v>725.50699999999995</v>
       </c>
       <c r="W73" s="21">
-        <v>407.57499999999999</v>
+        <v>425.68700000000001</v>
       </c>
       <c r="X73" s="21">
-        <v>2455.0990000000002</v>
+        <v>2270.8009999999999</v>
       </c>
       <c r="Y73" s="21">
-        <v>2889.576</v>
+        <v>2912.5630000000001</v>
       </c>
       <c r="Z73" s="21">
-        <v>3923.26</v>
+        <v>4129.3440000000001</v>
       </c>
       <c r="AA73" s="21">
-        <v>231.54499999999999</v>
+        <v>226.83799999999999</v>
       </c>
       <c r="AB73" s="21">
-        <v>3054.4349999999999</v>
+        <v>3232.8710000000001</v>
       </c>
       <c r="AC73" s="21">
-        <v>103.669</v>
+        <v>101.896</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
@@ -6274,130 +6242,130 @@
       <c r="AC74" s="18"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="53"/>
-      <c r="W75" s="53"/>
-      <c r="X75" s="53"/>
-      <c r="Y75" s="53"/>
-      <c r="Z75" s="53"/>
-      <c r="AA75" s="53"/>
-      <c r="AB75" s="53"/>
-      <c r="AC75" s="53"/>
+      <c r="A75" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
+      <c r="V75" s="50"/>
+      <c r="W75" s="50"/>
+      <c r="X75" s="50"/>
+      <c r="Y75" s="50"/>
+      <c r="Z75" s="50"/>
+      <c r="AA75" s="50"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B76" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C76" s="18">
-        <v>542.88210179999999</v>
+        <v>543</v>
       </c>
       <c r="D76" s="18">
-        <v>495.47201589999997</v>
+        <v>492.38007750000003</v>
       </c>
       <c r="E76" s="18">
-        <v>518.12592729999994</v>
+        <v>519.24498070000004</v>
       </c>
       <c r="F76" s="18">
-        <v>537.20776309999997</v>
+        <v>532.3070262</v>
       </c>
       <c r="G76" s="18">
-        <v>548.31926959999998</v>
+        <v>551.42014930000005</v>
       </c>
       <c r="H76" s="18">
-        <v>641.93554600000004</v>
+        <v>644.85286169999995</v>
       </c>
       <c r="I76" s="18">
-        <v>596.28658570000005</v>
+        <v>602.10246170000005</v>
       </c>
       <c r="J76" s="18">
-        <v>626.37465929999996</v>
+        <v>625.84654049999995</v>
       </c>
       <c r="K76" s="18">
-        <v>585.47338530000002</v>
+        <v>586.30944999999997</v>
       </c>
       <c r="L76" s="18">
-        <v>652.72533639999995</v>
+        <v>677.90083000000004</v>
       </c>
       <c r="M76" s="18">
-        <v>589.07904099999996</v>
+        <v>591.51500920000001</v>
       </c>
       <c r="N76" s="18">
-        <v>579.6853486</v>
+        <v>579.37531320000005</v>
       </c>
       <c r="O76" s="18">
-        <v>342.58559070000001</v>
+        <v>341.18757349999998</v>
       </c>
       <c r="P76" s="18">
-        <v>516.79830830000003</v>
+        <v>517.0665765</v>
       </c>
       <c r="Q76" s="18">
-        <v>561.84922429999995</v>
+        <v>561.88614770000004</v>
       </c>
       <c r="R76" s="18">
-        <v>578.88415769999995</v>
+        <v>580.10438939999995</v>
       </c>
       <c r="S76" s="18">
-        <v>600.01249770000004</v>
+        <v>604.53275380000002</v>
       </c>
       <c r="T76" s="18">
-        <v>554.77642109999999</v>
+        <v>556.22704020000003</v>
       </c>
       <c r="U76" s="18">
-        <v>568.07390529999998</v>
+        <v>572.54608670000005</v>
       </c>
       <c r="V76" s="18">
-        <v>588.56272100000001</v>
+        <v>588.74078220000001</v>
       </c>
       <c r="W76" s="18">
-        <v>629.93472699999995</v>
+        <v>631.17008339999995</v>
       </c>
       <c r="X76" s="18">
-        <v>635.87160489999997</v>
+        <v>635.17185029999996</v>
       </c>
       <c r="Y76" s="18">
-        <v>528.30832980000002</v>
+        <v>526.00270569999998</v>
       </c>
       <c r="Z76" s="18">
-        <v>640.52586269999995</v>
+        <v>645.04499759999999</v>
       </c>
       <c r="AA76" s="18">
-        <v>544.5631052</v>
+        <v>544.99224560000005</v>
       </c>
       <c r="AB76" s="18">
-        <v>452.917528</v>
+        <v>445.21240829999999</v>
       </c>
       <c r="AC76" s="18">
-        <v>589.19340279999994</v>
+        <v>592.37276569999995</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B77" s="26">
         <v>2017</v>
@@ -6432,11 +6400,11 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="B78" s="46"/>
       <c r="C78" s="16">
-        <v>30.61</v>
+        <v>30.6</v>
       </c>
       <c r="D78" s="31">
         <v>46.43</v>
@@ -6447,52 +6415,52 @@
       <c r="F78" s="31">
         <v>25.52</v>
       </c>
-      <c r="G78" s="71">
+      <c r="G78" s="57">
         <v>10.65</v>
       </c>
-      <c r="H78" s="72">
+      <c r="H78" s="58">
         <v>18.64</v>
       </c>
-      <c r="I78" s="71">
+      <c r="I78" s="57">
         <v>13.17</v>
       </c>
-      <c r="J78" s="72">
+      <c r="J78" s="58">
         <v>16.91</v>
       </c>
-      <c r="K78" s="71">
+      <c r="K78" s="57">
         <v>14.96</v>
       </c>
-      <c r="L78" s="65">
+      <c r="L78" s="54">
         <v>30.59</v>
       </c>
-      <c r="M78" s="65">
+      <c r="M78" s="54">
         <v>18.96</v>
       </c>
-      <c r="N78" s="65">
+      <c r="N78" s="54">
         <v>21.66</v>
       </c>
-      <c r="O78" s="65">
+      <c r="O78" s="54">
         <v>51</v>
       </c>
-      <c r="P78" s="65">
+      <c r="P78" s="54">
         <v>37.049999999999997</v>
       </c>
-      <c r="Q78" s="65">
+      <c r="Q78" s="54">
         <v>29.72</v>
       </c>
-      <c r="R78" s="65">
+      <c r="R78" s="54">
         <v>20.420000000000002</v>
       </c>
-      <c r="S78" s="71">
+      <c r="S78" s="57">
         <v>8.61</v>
       </c>
-      <c r="T78" s="65">
+      <c r="T78" s="31">
         <v>21.96</v>
       </c>
-      <c r="U78" s="65">
+      <c r="U78" s="31">
         <v>17.420000000000002</v>
       </c>
-      <c r="V78" s="65">
+      <c r="V78" s="31">
         <v>24.64</v>
       </c>
       <c r="W78" s="31">
@@ -6519,11 +6487,11 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="16">
-        <v>53.76</v>
+        <v>53.8</v>
       </c>
       <c r="D79" s="31">
         <v>40.590000000000003</v>
@@ -6636,125 +6604,125 @@
       <c r="AC80" s="18"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="52"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="53"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="53"/>
-      <c r="T81" s="53"/>
-      <c r="U81" s="53"/>
-      <c r="V81" s="53"/>
-      <c r="W81" s="53"/>
-      <c r="X81" s="53"/>
-      <c r="Y81" s="53"/>
-      <c r="Z81" s="53"/>
-      <c r="AA81" s="53"/>
-      <c r="AB81" s="53"/>
-      <c r="AC81" s="53"/>
+      <c r="A81" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="50"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="50"/>
+      <c r="S81" s="50"/>
+      <c r="T81" s="50"/>
+      <c r="U81" s="50"/>
+      <c r="V81" s="50"/>
+      <c r="W81" s="50"/>
+      <c r="X81" s="50"/>
+      <c r="Y81" s="50"/>
+      <c r="Z81" s="50"/>
+      <c r="AA81" s="50"/>
+      <c r="AB81" s="50"/>
+      <c r="AC81" s="50"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="B82" s="26">
-        <v>2017</v>
-      </c>
-      <c r="C82" s="56">
-        <v>3.3</v>
+        <v>2018</v>
+      </c>
+      <c r="C82" s="53">
+        <v>3.2</v>
       </c>
       <c r="D82" s="18">
-        <v>3.286</v>
+        <v>3.2040999999999999</v>
       </c>
       <c r="E82" s="18">
-        <v>4.16</v>
+        <v>4.0157999999999996</v>
       </c>
       <c r="F82" s="18">
-        <v>2.5470000000000002</v>
+        <v>2.4045999999999998</v>
       </c>
       <c r="G82" s="18">
-        <v>1.3029999999999999</v>
+        <v>1.2121999999999999</v>
       </c>
       <c r="H82" s="18">
-        <v>1.3839999999999999</v>
+        <v>1.4367000000000001</v>
       </c>
       <c r="I82" s="18">
-        <v>1.153</v>
+        <v>1.0725</v>
       </c>
       <c r="J82" s="18">
-        <v>0.91600000000000004</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="K82" s="18">
-        <v>1.7929999999999999</v>
+        <v>1.8811</v>
       </c>
       <c r="L82" s="18">
-        <v>1.742</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="M82" s="18">
-        <v>2.3039999999999998</v>
+        <v>2.2582</v>
       </c>
       <c r="N82" s="18">
-        <v>3.6960000000000002</v>
+        <v>3.5783999999999998</v>
       </c>
       <c r="O82" s="18">
-        <v>6.2560000000000002</v>
+        <v>6.2262000000000004</v>
       </c>
       <c r="P82" s="18">
-        <v>3.0139999999999998</v>
+        <v>2.9823</v>
       </c>
       <c r="Q82" s="18">
-        <v>2.7130000000000001</v>
+        <v>2.7423999999999999</v>
       </c>
       <c r="R82" s="18">
-        <v>2.2759999999999998</v>
+        <v>2.3197999999999999</v>
       </c>
       <c r="S82" s="18">
-        <v>1.0249999999999999</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="T82" s="18">
-        <v>2.2410000000000001</v>
+        <v>2.1678999999999999</v>
       </c>
       <c r="U82" s="18">
-        <v>1.365</v>
+        <v>1.3512999999999999</v>
       </c>
       <c r="V82" s="18">
-        <v>2.2610000000000001</v>
+        <v>2.1936</v>
       </c>
       <c r="W82" s="18">
-        <v>1.7549999999999999</v>
+        <v>1.5898000000000001</v>
       </c>
       <c r="X82" s="18">
-        <v>2.7210000000000001</v>
+        <v>2.7294</v>
       </c>
       <c r="Y82" s="18">
-        <v>4.7210000000000001</v>
+        <v>4.5585300000000002</v>
       </c>
       <c r="Z82" s="18">
-        <v>1.7230000000000001</v>
+        <v>1.7996000000000001</v>
       </c>
       <c r="AA82" s="18">
-        <v>7.5389999999999997</v>
+        <v>7.1952999999999996</v>
       </c>
       <c r="AB82" s="18">
-        <v>5.9450000000000003</v>
+        <v>5.9440999999999997</v>
       </c>
       <c r="AC82" s="18">
-        <v>3.214</v>
+        <v>3.2951000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
@@ -6789,133 +6757,133 @@
       <c r="AC83" s="18"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="52"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="53"/>
-      <c r="S84" s="53"/>
-      <c r="T84" s="53"/>
-      <c r="U84" s="53"/>
-      <c r="V84" s="53"/>
-      <c r="W84" s="53"/>
-      <c r="X84" s="53"/>
-      <c r="Y84" s="53"/>
-      <c r="Z84" s="53"/>
-      <c r="AA84" s="53"/>
-      <c r="AB84" s="53"/>
-      <c r="AC84" s="53"/>
+      <c r="A84" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="49"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="50"/>
+      <c r="P84" s="50"/>
+      <c r="Q84" s="50"/>
+      <c r="R84" s="50"/>
+      <c r="S84" s="50"/>
+      <c r="T84" s="50"/>
+      <c r="U84" s="50"/>
+      <c r="V84" s="50"/>
+      <c r="W84" s="50"/>
+      <c r="X84" s="50"/>
+      <c r="Y84" s="50"/>
+      <c r="Z84" s="50"/>
+      <c r="AA84" s="50"/>
+      <c r="AB84" s="50"/>
+      <c r="AC84" s="50"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="50">
-        <v>2017</v>
+        <v>96</v>
+      </c>
+      <c r="B85" s="46">
+        <v>2018</v>
       </c>
       <c r="C85" s="21">
-        <v>222.27382180000001</v>
+        <v>226</v>
       </c>
       <c r="D85" s="21">
-        <v>258.45118079999997</v>
+        <v>261.41246890000002</v>
       </c>
       <c r="E85" s="21">
-        <v>222.3782545</v>
+        <v>224.93253469999999</v>
       </c>
       <c r="F85" s="21">
-        <v>171.46118379999999</v>
+        <v>177.26470309999999</v>
       </c>
       <c r="G85" s="21">
-        <v>96.421389020000007</v>
+        <v>112.53533880000001</v>
       </c>
       <c r="H85" s="21">
-        <v>140.49497460000001</v>
+        <v>146.38896740000001</v>
       </c>
       <c r="I85" s="21">
-        <v>130.405855</v>
+        <v>124.2039058</v>
       </c>
       <c r="J85" s="21">
-        <v>123.3447369</v>
+        <v>122.6199014</v>
       </c>
       <c r="K85" s="21">
-        <v>138.7890654</v>
+        <v>138.60356899999999</v>
       </c>
       <c r="L85" s="21">
-        <v>208.8964368</v>
+        <v>208.92957100000001</v>
       </c>
       <c r="M85" s="21">
-        <v>143.1409764</v>
+        <v>145.2713091</v>
       </c>
       <c r="N85" s="21">
-        <v>163.57688110000001</v>
+        <v>161.05770989999999</v>
       </c>
       <c r="O85" s="21">
-        <v>426.49091320000002</v>
+        <v>440.01519769999999</v>
       </c>
       <c r="P85" s="21">
-        <v>237.61161999999999</v>
+        <v>245.02658500000001</v>
       </c>
       <c r="Q85" s="21">
-        <v>185.6154196</v>
+        <v>191.48443119999999</v>
       </c>
       <c r="R85" s="21">
-        <v>175.79470079999999</v>
+        <v>175.61646809999999</v>
       </c>
       <c r="S85" s="21">
-        <v>136.60353929999999</v>
+        <v>123.8773614</v>
       </c>
       <c r="T85" s="21">
-        <v>194.77457269999999</v>
+        <v>195.3921335</v>
       </c>
       <c r="U85" s="21">
-        <v>179.39440490000001</v>
+        <v>188.52801959999999</v>
       </c>
       <c r="V85" s="21">
-        <v>167.06707119999999</v>
+        <v>170.7443303</v>
       </c>
       <c r="W85" s="21">
-        <v>159.9701973</v>
+        <v>161.3183252</v>
       </c>
       <c r="X85" s="21">
-        <v>223.0647227</v>
+        <v>228.1069669</v>
       </c>
       <c r="Y85" s="21">
-        <v>242.96173759999999</v>
+        <v>243.00971659999999</v>
       </c>
       <c r="Z85" s="21">
-        <v>165.75734410000001</v>
+        <v>180.54687390000001</v>
       </c>
       <c r="AA85" s="21">
-        <v>228.6979389</v>
+        <v>238.6202997</v>
       </c>
       <c r="AB85" s="21">
-        <v>390.51063199999999</v>
+        <v>399.21518379999998</v>
       </c>
       <c r="AC85" s="21">
-        <v>150.0886888</v>
+        <v>151.18702239999999</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B86" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -6947,263 +6915,263 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="18">
-        <v>4.4974293579999998</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D87" s="18">
-        <v>4.2353852982999998</v>
+        <v>4.0978193197000001</v>
       </c>
       <c r="E87" s="18">
-        <v>4.8365400464999997</v>
+        <v>4.8345035686999998</v>
       </c>
       <c r="F87" s="18">
-        <v>3.8818413036999999</v>
+        <v>3.8450098155000001</v>
       </c>
       <c r="G87" s="18">
-        <v>1.6804870658</v>
+        <v>1.729201548</v>
       </c>
       <c r="H87" s="18">
-        <v>2.0431642570999999</v>
+        <v>2.1047340810000001</v>
       </c>
       <c r="I87" s="18">
-        <v>1.4105123087</v>
+        <v>1.3292098554</v>
       </c>
       <c r="J87" s="18">
-        <v>1.6763279804</v>
+        <v>2.3043287138999999</v>
       </c>
       <c r="K87" s="18">
-        <v>3.7459467521000001</v>
+        <v>3.6441075341000002</v>
       </c>
       <c r="L87" s="18">
-        <v>4.5770447876000002</v>
+        <v>4.4703044064000004</v>
       </c>
       <c r="M87" s="18">
-        <v>2.7616039056999999</v>
+        <v>2.7166968351</v>
       </c>
       <c r="N87" s="18">
-        <v>2.5352095048000001</v>
+        <v>2.5124200466</v>
       </c>
       <c r="O87" s="18">
-        <v>11.033392196299999</v>
+        <v>11.132037758099999</v>
       </c>
       <c r="P87" s="18">
-        <v>3.4545367685000001</v>
+        <v>3.3986515694000001</v>
       </c>
       <c r="Q87" s="18">
-        <v>3.5819414708999999</v>
+        <v>3.5433892427</v>
       </c>
       <c r="R87" s="18">
-        <v>8.7476297129000002</v>
+        <v>8.9757599177999996</v>
       </c>
       <c r="S87" s="18">
-        <v>2.2026682768999999</v>
+        <v>2.0234433664</v>
       </c>
       <c r="T87" s="18">
-        <v>4.5882373951000002</v>
+        <v>4.5277086727000002</v>
       </c>
       <c r="U87" s="18">
-        <v>5.4390389918000004</v>
+        <v>5.6941925254000001</v>
       </c>
       <c r="V87" s="18">
-        <v>4.5728886730999996</v>
+        <v>4.5427436579</v>
       </c>
       <c r="W87" s="18">
-        <v>5.6948369619000001</v>
+        <v>5.6251033088</v>
       </c>
       <c r="X87" s="18">
-        <v>5.5299695511999998</v>
+        <v>5.3092887081000004</v>
       </c>
       <c r="Y87" s="18">
-        <v>4.7539054479000002</v>
+        <v>4.6958371696999999</v>
       </c>
       <c r="Z87" s="18">
-        <v>3.9927389</v>
+        <v>3.9107536974000001</v>
       </c>
       <c r="AA87" s="18">
-        <v>3.4889771458999999</v>
+        <v>3.3961293722999999</v>
       </c>
       <c r="AB87" s="18">
-        <v>4.8719646399999998</v>
+        <v>4.7585488908000002</v>
       </c>
       <c r="AC87" s="18">
-        <v>4.7165977909999999</v>
+        <v>4.7489480066</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="18">
-        <v>145.84194253999999</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="D88" s="18">
-        <v>141.73933390319999</v>
+        <v>138.10809957870001</v>
       </c>
       <c r="E88" s="18">
-        <v>159.1861712342</v>
+        <v>158.3184940342</v>
       </c>
       <c r="F88" s="18">
-        <v>129.34864430050001</v>
+        <v>127.12027874020001</v>
       </c>
       <c r="G88" s="18">
-        <v>148.15835146969999</v>
+        <v>153.81659484529999</v>
       </c>
       <c r="H88" s="18">
-        <v>149.2234632965</v>
+        <v>153.28746897869999</v>
       </c>
       <c r="I88" s="18">
-        <v>140.78509647370001</v>
+        <v>139.293359055</v>
       </c>
       <c r="J88" s="18">
-        <v>134.8181246945</v>
+        <v>137.03352381830001</v>
       </c>
       <c r="K88" s="18">
-        <v>156.0385635332</v>
+        <v>158.28032571840001</v>
       </c>
       <c r="L88" s="18">
-        <v>133.51831033080001</v>
+        <v>131.27084368129999</v>
       </c>
       <c r="M88" s="18">
-        <v>126.7765667748</v>
+        <v>129.93781258429999</v>
       </c>
       <c r="N88" s="18">
-        <v>155.02962067850001</v>
+        <v>158.64184425720001</v>
       </c>
       <c r="O88" s="18">
-        <v>162.28830166879999</v>
+        <v>172.71495024800001</v>
       </c>
       <c r="P88" s="18">
-        <v>182.49756988120001</v>
+        <v>171.54290394680001</v>
       </c>
       <c r="Q88" s="18">
-        <v>149.2790500424</v>
+        <v>143.23523313530001</v>
       </c>
       <c r="R88" s="18">
-        <v>163.21722425600001</v>
+        <v>163.8483542745</v>
       </c>
       <c r="S88" s="18">
-        <v>150.8848183794</v>
+        <v>150.44905543510001</v>
       </c>
       <c r="T88" s="18">
-        <v>154.5753201</v>
+        <v>153.107069768</v>
       </c>
       <c r="U88" s="18">
-        <v>150.82774094440001</v>
+        <v>152.5211841979</v>
       </c>
       <c r="V88" s="18">
-        <v>149.87153272489999</v>
+        <v>146.94333735870001</v>
       </c>
       <c r="W88" s="18">
-        <v>150.0871070595</v>
+        <v>151.57411962149999</v>
       </c>
       <c r="X88" s="18">
-        <v>164.56182907420001</v>
+        <v>164.25399682459999</v>
       </c>
       <c r="Y88" s="18">
-        <v>125.1511418697</v>
+        <v>127.1646572274</v>
       </c>
       <c r="Z88" s="18">
-        <v>138.58016827590001</v>
+        <v>138.9367795206</v>
       </c>
       <c r="AA88" s="18">
-        <v>140.19127463980001</v>
+        <v>136.1945151258</v>
       </c>
       <c r="AB88" s="18">
-        <v>128.525246896</v>
+        <v>126.3994554337</v>
       </c>
       <c r="AC88" s="18">
-        <v>164.56542502389999</v>
+        <v>163.30922513249999</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="18">
-        <v>5.3332879550000003</v>
+        <v>5.3</v>
       </c>
       <c r="D89" s="18">
-        <v>5.29228085</v>
+        <v>5.2299946019999997</v>
       </c>
       <c r="E89" s="18">
-        <v>4.9438566350000004</v>
+        <v>4.8545103369999998</v>
       </c>
       <c r="F89" s="18">
-        <v>5.381912453</v>
+        <v>5.3823405449999999</v>
       </c>
       <c r="G89" s="18">
-        <v>4.9313676910000002</v>
+        <v>4.6312499999999996</v>
       </c>
       <c r="H89" s="18">
-        <v>4.4845710820000004</v>
+        <v>4.3073508220000001</v>
       </c>
       <c r="I89" s="18">
-        <v>4.4155773419999997</v>
+        <v>4.245325147</v>
       </c>
       <c r="J89" s="18">
-        <v>4.5907879710000001</v>
+        <v>4.4726520330000001</v>
       </c>
       <c r="K89" s="18">
-        <v>5.49864102</v>
+        <v>5.5402511839999997</v>
       </c>
       <c r="L89" s="18">
-        <v>4.5626397450000002</v>
+        <v>4.5032923770000002</v>
       </c>
       <c r="M89" s="18">
-        <v>5.4651387649999998</v>
+        <v>5.202632479</v>
       </c>
       <c r="N89" s="18">
-        <v>5.22003868</v>
+        <v>5.1926122990000003</v>
       </c>
       <c r="O89" s="18">
-        <v>5.5404540210000004</v>
+        <v>5.55497087</v>
       </c>
       <c r="P89" s="18">
-        <v>5.167153806</v>
+        <v>5.0674590000000004</v>
       </c>
       <c r="Q89" s="18">
-        <v>5.2522004999999998</v>
+        <v>5.2979373570000003</v>
       </c>
       <c r="R89" s="18">
-        <v>4.1435516159999999</v>
+        <v>4.1744554870000004</v>
       </c>
       <c r="S89" s="18">
-        <v>3.8059113299999998</v>
+        <v>3.8376344090000001</v>
       </c>
       <c r="T89" s="18">
-        <v>4.956254661</v>
+        <v>4.9545259550000003</v>
       </c>
       <c r="U89" s="18">
-        <v>4.9793536539999996</v>
+        <v>5.1212275350000001</v>
       </c>
       <c r="V89" s="18">
-        <v>5.0186119939999996</v>
+        <v>5.0037417629999998</v>
       </c>
       <c r="W89" s="18">
-        <v>5.0864773879999996</v>
+        <v>5.0732550529999996</v>
       </c>
       <c r="X89" s="18">
-        <v>6.2121409029999999</v>
+        <v>6.4167571199999998</v>
       </c>
       <c r="Y89" s="18">
-        <v>6.0423465460000001</v>
+        <v>5.7913354220000004</v>
       </c>
       <c r="Z89" s="18">
-        <v>5.7974771870000001</v>
+        <v>6.0280744750000004</v>
       </c>
       <c r="AA89" s="18">
-        <v>5.0142914249999997</v>
+        <v>4.9782924800000004</v>
       </c>
       <c r="AB89" s="18">
-        <v>6.148074136</v>
+        <v>6.1660240929999999</v>
       </c>
       <c r="AC89" s="18">
-        <v>5.2890741659999998</v>
+        <v>5.0495501049999998</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
@@ -7238,392 +7206,392 @@
       <c r="AC90" s="18"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A91" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="52"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="53"/>
-      <c r="M91" s="53"/>
-      <c r="N91" s="53"/>
-      <c r="O91" s="53"/>
-      <c r="P91" s="53"/>
-      <c r="Q91" s="53"/>
-      <c r="R91" s="53"/>
-      <c r="S91" s="53"/>
-      <c r="T91" s="53"/>
-      <c r="U91" s="53"/>
-      <c r="V91" s="53"/>
-      <c r="W91" s="53"/>
-      <c r="X91" s="53"/>
-      <c r="Y91" s="53"/>
-      <c r="Z91" s="53"/>
-      <c r="AA91" s="53"/>
-      <c r="AB91" s="53"/>
-      <c r="AC91" s="53"/>
+      <c r="A91" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="49"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="50"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="50"/>
+      <c r="S91" s="50"/>
+      <c r="T91" s="50"/>
+      <c r="U91" s="50"/>
+      <c r="V91" s="50"/>
+      <c r="W91" s="50"/>
+      <c r="X91" s="50"/>
+      <c r="Y91" s="50"/>
+      <c r="Z91" s="50"/>
+      <c r="AA91" s="50"/>
+      <c r="AB91" s="50"/>
+      <c r="AC91" s="50"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92" s="26">
-        <v>2017</v>
-      </c>
-      <c r="C92" s="48">
-        <v>20.28</v>
-      </c>
-      <c r="D92" s="70">
-        <v>15.73399596</v>
-      </c>
-      <c r="E92" s="49">
-        <v>17.4813142</v>
-      </c>
-      <c r="F92" s="49">
-        <v>19.863830839999999</v>
-      </c>
-      <c r="G92" s="49">
-        <v>28.3488738</v>
-      </c>
-      <c r="H92" s="49">
-        <v>19.454592900000002</v>
-      </c>
-      <c r="I92" s="49">
-        <v>18.642573819999999</v>
-      </c>
-      <c r="J92" s="49">
-        <v>17.049844239999999</v>
-      </c>
-      <c r="K92" s="49">
-        <v>26.375866290000001</v>
-      </c>
-      <c r="L92" s="49">
-        <v>14.60758502</v>
-      </c>
-      <c r="M92" s="49">
-        <v>26.48708598</v>
-      </c>
-      <c r="N92" s="49">
-        <v>19.87107035</v>
-      </c>
-      <c r="O92" s="49">
-        <v>18.63339186</v>
-      </c>
-      <c r="P92" s="49">
-        <v>17.283341320000002</v>
-      </c>
-      <c r="Q92" s="49">
-        <v>18.810233190000002</v>
-      </c>
-      <c r="R92" s="49">
-        <v>16.774921630000001</v>
-      </c>
-      <c r="S92" s="68">
-        <v>27.509095749401013</v>
-      </c>
-      <c r="T92" s="49">
-        <v>21.484842369999999</v>
-      </c>
-      <c r="U92" s="49">
-        <v>19.539130140000001</v>
-      </c>
-      <c r="V92" s="49">
-        <v>18.096555840000001</v>
-      </c>
-      <c r="W92" s="49">
-        <v>19.003341349999999</v>
-      </c>
-      <c r="X92" s="49">
-        <v>24.257046890000002</v>
-      </c>
-      <c r="Y92" s="49">
-        <v>24.32257671</v>
-      </c>
-      <c r="Z92" s="49">
-        <v>28.095865199999999</v>
-      </c>
-      <c r="AA92" s="49">
-        <v>27.201343820000002</v>
-      </c>
-      <c r="AB92" s="49">
-        <v>25.488313489999999</v>
-      </c>
-      <c r="AC92" s="49">
-        <v>30.283517539999998</v>
+        <v>2018</v>
+      </c>
+      <c r="C92" s="45">
+        <v>19.198972345257754</v>
+      </c>
+      <c r="D92" s="61">
+        <v>14.921207564880355</v>
+      </c>
+      <c r="E92" s="61">
+        <v>16.747848979386969</v>
+      </c>
+      <c r="F92" s="61">
+        <v>18.237171860006015</v>
+      </c>
+      <c r="G92" s="61">
+        <v>25.056493169762142</v>
+      </c>
+      <c r="H92" s="61">
+        <v>18.097408918378711</v>
+      </c>
+      <c r="I92" s="61">
+        <v>22.151049312481582</v>
+      </c>
+      <c r="J92" s="61">
+        <v>17.146254355866525</v>
+      </c>
+      <c r="K92" s="61">
+        <v>24.317238485672675</v>
+      </c>
+      <c r="L92" s="61">
+        <v>12.997195843437225</v>
+      </c>
+      <c r="M92" s="61">
+        <v>25.40114678418065</v>
+      </c>
+      <c r="N92" s="61">
+        <v>19.240692661052243</v>
+      </c>
+      <c r="O92" s="61">
+        <v>18.65310259674062</v>
+      </c>
+      <c r="P92" s="61">
+        <v>15.585939640466323</v>
+      </c>
+      <c r="Q92" s="61">
+        <v>18.07923010184161</v>
+      </c>
+      <c r="R92" s="61">
+        <v>19.137846048351477</v>
+      </c>
+      <c r="S92" s="61">
+        <v>20.637317428952642</v>
+      </c>
+      <c r="T92" s="61">
+        <v>19.442005752680394</v>
+      </c>
+      <c r="U92" s="61">
+        <v>19.184395088742736</v>
+      </c>
+      <c r="V92" s="61">
+        <v>17.70549376623136</v>
+      </c>
+      <c r="W92" s="61">
+        <v>18.3493581538327</v>
+      </c>
+      <c r="X92" s="61">
+        <v>22.771764711685623</v>
+      </c>
+      <c r="Y92" s="61">
+        <v>22.626202050970118</v>
+      </c>
+      <c r="Z92" s="61">
+        <v>27.298218099318646</v>
+      </c>
+      <c r="AA92" s="61">
+        <v>25.955002637820407</v>
+      </c>
+      <c r="AB92" s="61">
+        <v>23.593730755612267</v>
+      </c>
+      <c r="AC92" s="61">
+        <v>27.656591472339709</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93" s="26">
-        <v>2017</v>
-      </c>
-      <c r="C93" s="48">
-        <v>45.03</v>
-      </c>
-      <c r="D93" s="49">
-        <v>41.871475089999997</v>
-      </c>
-      <c r="E93" s="49">
-        <v>50.706259170000003</v>
-      </c>
-      <c r="F93" s="49">
-        <v>48.15081455</v>
-      </c>
-      <c r="G93" s="49">
-        <v>49.008096389999999</v>
-      </c>
-      <c r="H93" s="49">
-        <v>47.77574809</v>
-      </c>
-      <c r="I93" s="49">
-        <v>52.563537529999998</v>
-      </c>
-      <c r="J93" s="49">
-        <v>50.454828659999997</v>
-      </c>
-      <c r="K93" s="49">
-        <v>48.294605249999996</v>
-      </c>
-      <c r="L93" s="49">
-        <v>41.416262320000001</v>
-      </c>
-      <c r="M93" s="49">
-        <v>41.924117879999997</v>
-      </c>
-      <c r="N93" s="49">
-        <v>51.994958840000002</v>
-      </c>
-      <c r="O93" s="49">
-        <v>37.469001280000001</v>
-      </c>
-      <c r="P93" s="49">
-        <v>50.050292829999997</v>
-      </c>
-      <c r="Q93" s="49">
-        <v>50.631668300000001</v>
-      </c>
-      <c r="R93" s="49">
-        <v>52.830094039999999</v>
-      </c>
-      <c r="S93" s="49">
-        <v>52.285029729999998</v>
-      </c>
-      <c r="T93" s="49">
-        <v>50.55996596</v>
-      </c>
-      <c r="U93" s="49">
-        <v>53.615200620000003</v>
-      </c>
-      <c r="V93" s="49">
-        <v>49.92233676</v>
-      </c>
-      <c r="W93" s="49">
-        <v>52.169859340000002</v>
-      </c>
-      <c r="X93" s="49">
-        <v>43.299190600000003</v>
-      </c>
-      <c r="Y93" s="49">
-        <v>36.687370450000003</v>
-      </c>
-      <c r="Z93" s="49">
-        <v>44.80622777</v>
-      </c>
-      <c r="AA93" s="49">
-        <v>40.531824700000001</v>
-      </c>
-      <c r="AB93" s="49">
-        <v>29.70557324</v>
-      </c>
-      <c r="AC93" s="49">
-        <v>45.222489189999997</v>
+        <v>2018</v>
+      </c>
+      <c r="C93" s="45">
+        <v>45.764165357841179</v>
+      </c>
+      <c r="D93" s="61">
+        <v>42.401580011243901</v>
+      </c>
+      <c r="E93" s="61">
+        <v>51.027879417706707</v>
+      </c>
+      <c r="F93" s="61">
+        <v>49.090197861984883</v>
+      </c>
+      <c r="G93" s="61">
+        <v>49.654614544550014</v>
+      </c>
+      <c r="H93" s="61">
+        <v>49.197497843155702</v>
+      </c>
+      <c r="I93" s="61">
+        <v>49.09542950801125</v>
+      </c>
+      <c r="J93" s="61">
+        <v>49.67279315616976</v>
+      </c>
+      <c r="K93" s="61">
+        <v>52.426557663292371</v>
+      </c>
+      <c r="L93" s="61">
+        <v>41.171565212934233</v>
+      </c>
+      <c r="M93" s="61">
+        <v>43.001712861663655</v>
+      </c>
+      <c r="N93" s="61">
+        <v>52.207241143837599</v>
+      </c>
+      <c r="O93" s="61">
+        <v>36.629074376357423</v>
+      </c>
+      <c r="P93" s="61">
+        <v>50.941665743343556</v>
+      </c>
+      <c r="Q93" s="61">
+        <v>50.616945837561467</v>
+      </c>
+      <c r="R93" s="61">
+        <v>49.976663190336275</v>
+      </c>
+      <c r="S93" s="61">
+        <v>53.340369853662565</v>
+      </c>
+      <c r="T93" s="61">
+        <v>51.952958701282313</v>
+      </c>
+      <c r="U93" s="61">
+        <v>53.302348031042087</v>
+      </c>
+      <c r="V93" s="61">
+        <v>50.570884837486297</v>
+      </c>
+      <c r="W93" s="61">
+        <v>53.251672856232808</v>
+      </c>
+      <c r="X93" s="61">
+        <v>44.474882209094737</v>
+      </c>
+      <c r="Y93" s="61">
+        <v>37.978625996071003</v>
+      </c>
+      <c r="Z93" s="61">
+        <v>45.274030056647504</v>
+      </c>
+      <c r="AA93" s="61">
+        <v>42.527054656477624</v>
+      </c>
+      <c r="AB93" s="61">
+        <v>31.363285052076169</v>
+      </c>
+      <c r="AC93" s="61">
+        <v>46.670454289594936</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94" s="26">
-        <v>2017</v>
-      </c>
-      <c r="C94" s="48">
-        <v>34.69</v>
-      </c>
-      <c r="D94" s="49">
-        <v>42.394528940000001</v>
-      </c>
-      <c r="E94" s="49">
-        <v>31.812426630000001</v>
-      </c>
-      <c r="F94" s="49">
-        <v>31.985354619999999</v>
-      </c>
-      <c r="G94" s="49">
-        <v>22.643029810000002</v>
-      </c>
-      <c r="H94" s="49">
-        <v>32.769659009999998</v>
-      </c>
-      <c r="I94" s="49">
-        <v>28.793888639999999</v>
-      </c>
-      <c r="J94" s="49">
-        <v>32.495327099999997</v>
-      </c>
-      <c r="K94" s="49">
-        <v>25.32952847</v>
-      </c>
-      <c r="L94" s="49">
-        <v>43.976152659999997</v>
-      </c>
-      <c r="M94" s="49">
-        <v>31.588796139999999</v>
-      </c>
-      <c r="N94" s="49">
-        <v>28.133970810000001</v>
-      </c>
-      <c r="O94" s="49">
-        <v>43.897606860000003</v>
-      </c>
-      <c r="P94" s="49">
-        <v>32.666365849999998</v>
-      </c>
-      <c r="Q94" s="49">
-        <v>30.5580985</v>
-      </c>
-      <c r="R94" s="49">
-        <v>30.39498433</v>
-      </c>
-      <c r="S94" s="69">
-        <v>20.205874523027774</v>
-      </c>
-      <c r="T94" s="49">
-        <v>27.955467989999999</v>
-      </c>
-      <c r="U94" s="49">
-        <v>26.845669239999999</v>
-      </c>
-      <c r="V94" s="49">
-        <v>31.981107399999999</v>
-      </c>
-      <c r="W94" s="49">
-        <v>28.826799309999998</v>
-      </c>
-      <c r="X94" s="49">
-        <v>32.443762509999999</v>
-      </c>
-      <c r="Y94" s="49">
-        <v>38.990052839999997</v>
-      </c>
-      <c r="Z94" s="49">
-        <v>27.097504300000001</v>
-      </c>
-      <c r="AA94" s="49">
-        <v>32.267623819999997</v>
-      </c>
-      <c r="AB94" s="49">
-        <v>44.806113269999997</v>
-      </c>
-      <c r="AC94" s="49">
-        <v>24.493993270000001</v>
+        <v>2018</v>
+      </c>
+      <c r="C94" s="45">
+        <v>35.036862296901077</v>
+      </c>
+      <c r="D94" s="61">
+        <v>42.67721242387573</v>
+      </c>
+      <c r="E94" s="61">
+        <v>32.224271602906342</v>
+      </c>
+      <c r="F94" s="61">
+        <v>32.67263027800908</v>
+      </c>
+      <c r="G94" s="61">
+        <v>25.28889228568784</v>
+      </c>
+      <c r="H94" s="61">
+        <v>32.705093238465608</v>
+      </c>
+      <c r="I94" s="61">
+        <v>28.753521179507185</v>
+      </c>
+      <c r="J94" s="61">
+        <v>33.180952487963722</v>
+      </c>
+      <c r="K94" s="61">
+        <v>23.256203851034979</v>
+      </c>
+      <c r="L94" s="61">
+        <v>45.831238943628534</v>
+      </c>
+      <c r="M94" s="61">
+        <v>31.597140354155705</v>
+      </c>
+      <c r="N94" s="61">
+        <v>28.552066195110154</v>
+      </c>
+      <c r="O94" s="61">
+        <v>44.717823026901939</v>
+      </c>
+      <c r="P94" s="61">
+        <v>33.472394616190122</v>
+      </c>
+      <c r="Q94" s="61">
+        <v>31.303824060596913</v>
+      </c>
+      <c r="R94" s="61">
+        <v>30.885490761312205</v>
+      </c>
+      <c r="S94" s="61">
+        <v>26.0223127173847</v>
+      </c>
+      <c r="T94" s="61">
+        <v>28.605035546037293</v>
+      </c>
+      <c r="U94" s="61">
+        <v>27.513256880215145</v>
+      </c>
+      <c r="V94" s="61">
+        <v>31.723621396282326</v>
+      </c>
+      <c r="W94" s="61">
+        <v>28.398968989934453</v>
+      </c>
+      <c r="X94" s="61">
+        <v>32.753353079219593</v>
+      </c>
+      <c r="Y94" s="61">
+        <v>39.395171952958897</v>
+      </c>
+      <c r="Z94" s="61">
+        <v>27.427751844033846</v>
+      </c>
+      <c r="AA94" s="61">
+        <v>31.517942705701991</v>
+      </c>
+      <c r="AB94" s="61">
+        <v>45.04298419231155</v>
+      </c>
+      <c r="AC94" s="61">
+        <v>25.672954238065344</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C95" s="18">
-        <v>29.52</v>
+        <v>29.8</v>
       </c>
       <c r="D95" s="36">
-        <v>21.72</v>
+        <v>22.15</v>
       </c>
       <c r="E95" s="36">
-        <v>24.59</v>
+        <v>24.27</v>
       </c>
       <c r="F95" s="36">
-        <v>25.76</v>
+        <v>24.25</v>
       </c>
       <c r="G95" s="36">
-        <v>22.93</v>
+        <v>29.42</v>
       </c>
       <c r="H95" s="36">
-        <v>25.99</v>
+        <v>25.35</v>
       </c>
       <c r="I95" s="36">
-        <v>25.49</v>
+        <v>26.48</v>
       </c>
       <c r="J95" s="36">
-        <v>28.13</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="K95" s="36">
-        <v>22.89</v>
+        <v>19.91</v>
       </c>
       <c r="L95" s="36">
-        <v>29.52</v>
+        <v>32.57</v>
       </c>
       <c r="M95" s="36">
-        <v>30.4</v>
+        <v>29.83</v>
       </c>
       <c r="N95" s="36">
-        <v>23.12</v>
+        <v>24.5</v>
       </c>
       <c r="O95" s="36">
-        <v>26.35</v>
+        <v>26.05</v>
       </c>
       <c r="P95" s="36">
-        <v>31.7</v>
+        <v>31.62</v>
       </c>
       <c r="Q95" s="36">
-        <v>26.42</v>
+        <v>23.42</v>
       </c>
       <c r="R95" s="36">
-        <v>27.09</v>
+        <v>28.89</v>
       </c>
       <c r="S95" s="36">
-        <v>23.65</v>
+        <v>27.63</v>
       </c>
       <c r="T95" s="36">
-        <v>22.74</v>
+        <v>22.54</v>
       </c>
       <c r="U95" s="36">
-        <v>28.49</v>
+        <v>27.2</v>
       </c>
       <c r="V95" s="36">
-        <v>22.67</v>
+        <v>24.56</v>
       </c>
       <c r="W95" s="36">
-        <v>23.86</v>
+        <v>23.43</v>
       </c>
       <c r="X95" s="36">
-        <v>30.19</v>
+        <v>31.52</v>
       </c>
       <c r="Y95" s="36">
-        <v>28.25</v>
+        <v>27.39</v>
       </c>
       <c r="Z95" s="36">
-        <v>27.46</v>
+        <v>29.88</v>
       </c>
       <c r="AA95" s="36">
-        <v>33.200000000000003</v>
+        <v>34.29</v>
       </c>
       <c r="AB95" s="36">
-        <v>30.24</v>
+        <v>31.87</v>
       </c>
       <c r="AC95" s="36">
-        <v>32.06</v>
+        <v>34.08</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -7658,65 +7626,65 @@
       <c r="AC96" s="18"/>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A97" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="55">
-        <v>2015</v>
-      </c>
-      <c r="C97" s="53"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="53"/>
-      <c r="U97" s="53"/>
-      <c r="V97" s="53"/>
-      <c r="W97" s="53"/>
-      <c r="X97" s="53"/>
-      <c r="Y97" s="53"/>
-      <c r="Z97" s="53"/>
-      <c r="AA97" s="53"/>
-      <c r="AB97" s="53"/>
-      <c r="AC97" s="53"/>
+      <c r="A97" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="52">
+        <v>2019</v>
+      </c>
+      <c r="C97" s="50"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="50"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="50"/>
+      <c r="P97" s="50"/>
+      <c r="Q97" s="50"/>
+      <c r="R97" s="50"/>
+      <c r="S97" s="50"/>
+      <c r="T97" s="50"/>
+      <c r="U97" s="50"/>
+      <c r="V97" s="50"/>
+      <c r="W97" s="50"/>
+      <c r="X97" s="50"/>
+      <c r="Y97" s="50"/>
+      <c r="Z97" s="50"/>
+      <c r="AA97" s="50"/>
+      <c r="AB97" s="50"/>
+      <c r="AC97" s="50"/>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="29">
-        <v>16.396787119999999</v>
+        <v>15.1</v>
       </c>
       <c r="D98" s="29">
-        <v>15.3216</v>
+        <v>13.660914879</v>
       </c>
       <c r="E98" s="29">
-        <v>9.3306000000000004</v>
+        <v>8.3601424529999999</v>
       </c>
       <c r="F98" s="29">
-        <v>18.465900000000001</v>
+        <v>15.558173557</v>
       </c>
       <c r="G98" s="29" t="s">
         <v>31</v>
       </c>
       <c r="H98" s="29">
-        <v>20.603300000000001</v>
-      </c>
-      <c r="I98" s="29" t="s">
-        <v>31</v>
+        <v>23.098084599</v>
+      </c>
+      <c r="I98" s="29">
+        <v>11.591707418</v>
       </c>
       <c r="J98" s="29" t="s">
         <v>31</v>
@@ -7725,343 +7693,343 @@
         <v>31</v>
       </c>
       <c r="L98" s="29">
-        <v>17.6401</v>
+        <v>14.676798965</v>
       </c>
       <c r="M98" s="29">
-        <v>14.1814</v>
+        <v>15.420336853</v>
       </c>
       <c r="N98" s="29">
-        <v>21.224399999999999</v>
+        <v>18.520253856</v>
       </c>
       <c r="O98" s="29">
-        <v>21.362400000000001</v>
+        <v>21.376396420999999</v>
       </c>
       <c r="P98" s="29">
-        <v>15.795299999999999</v>
+        <v>16.519484698999999</v>
       </c>
       <c r="Q98" s="29">
-        <v>12.901899999999999</v>
+        <v>11.034767528</v>
       </c>
       <c r="R98" s="29">
-        <v>33.581699999999998</v>
+        <v>48.436899423</v>
       </c>
       <c r="S98" s="29" t="s">
         <v>31</v>
       </c>
       <c r="T98" s="29">
-        <v>14.2935</v>
+        <v>14.994611338</v>
       </c>
       <c r="U98" s="29">
-        <v>13.2638</v>
+        <v>13.630094131</v>
       </c>
       <c r="V98" s="29">
-        <v>15.1447</v>
+        <v>13.554601603</v>
       </c>
       <c r="W98" s="29">
-        <v>13.0075</v>
+        <v>11.453251962</v>
       </c>
       <c r="X98" s="29">
-        <v>23.729800000000001</v>
+        <v>20.528249983999999</v>
       </c>
       <c r="Y98" s="29">
-        <v>26.836500000000001</v>
+        <v>23.339751958000001</v>
       </c>
       <c r="Z98" s="29">
-        <v>18.137799999999999</v>
+        <v>16.481001968000001</v>
       </c>
       <c r="AA98" s="29">
-        <v>24.4252</v>
+        <v>22.348833882000001</v>
       </c>
       <c r="AB98" s="29">
-        <v>20.511800000000001</v>
+        <v>17.927960387999999</v>
       </c>
       <c r="AC98" s="29">
-        <v>16.781500000000001</v>
+        <v>9.0734838520000007</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="29">
-        <v>11.645930380999999</v>
+        <v>11.4</v>
       </c>
       <c r="D99" s="29">
-        <v>4.1839000000000004</v>
+        <v>4.4084463100000004</v>
       </c>
       <c r="E99" s="29">
-        <v>1.8348</v>
+        <v>1.8726708430000001</v>
       </c>
       <c r="F99" s="29">
-        <v>23.851600000000001</v>
+        <v>25.490116765</v>
       </c>
       <c r="G99" s="29">
-        <v>26.846900000000002</v>
+        <v>39.205020920999999</v>
       </c>
       <c r="H99" s="29">
-        <v>19.453900000000001</v>
-      </c>
-      <c r="I99" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J99" s="29" t="s">
-        <v>31</v>
+        <v>18.397850201000001</v>
+      </c>
+      <c r="I99" s="29">
+        <v>36.676079620000003</v>
+      </c>
+      <c r="J99" s="29">
+        <v>35.795983507999999</v>
       </c>
       <c r="K99" s="29" t="s">
         <v>31</v>
       </c>
       <c r="L99" s="29">
-        <v>26.442900000000002</v>
+        <v>23.781401047999999</v>
       </c>
       <c r="M99" s="29">
-        <v>22.672999999999998</v>
+        <v>17.801419498000001</v>
       </c>
       <c r="N99" s="29">
-        <v>14.7994</v>
+        <v>14.198910536</v>
       </c>
       <c r="O99" s="29">
-        <v>6.4470000000000001</v>
+        <v>4.5700720749999997</v>
       </c>
       <c r="P99" s="29">
-        <v>9.0945</v>
-      </c>
-      <c r="Q99" s="29" t="s">
-        <v>31</v>
+        <v>8.4882857779999998</v>
+      </c>
+      <c r="Q99" s="29">
+        <v>2.1422082750000002</v>
       </c>
       <c r="R99" s="29" t="s">
         <v>31</v>
       </c>
       <c r="S99" s="29">
-        <v>76.308099999999996</v>
+        <v>61.271471578000003</v>
       </c>
       <c r="T99" s="29">
-        <v>16.552499999999998</v>
+        <v>18.780428983</v>
       </c>
       <c r="U99" s="29">
-        <v>16.809699999999999</v>
+        <v>16.348576979000001</v>
       </c>
       <c r="V99" s="29">
-        <v>8.5884999999999998</v>
+        <v>9.8945791910000001</v>
       </c>
       <c r="W99" s="29">
-        <v>13.1289</v>
+        <v>12.691685861</v>
       </c>
       <c r="X99" s="29">
-        <v>20.080400000000001</v>
+        <v>18.196590564000001</v>
       </c>
       <c r="Y99" s="29">
-        <v>4.0533000000000001</v>
+        <v>2.4250964779999999</v>
       </c>
       <c r="Z99" s="29">
-        <v>39.791499999999999</v>
+        <v>34.784426029000002</v>
       </c>
       <c r="AA99" s="29">
-        <v>3.5697999999999999</v>
+        <v>4.172843039</v>
       </c>
       <c r="AB99" s="29">
-        <v>12.052099999999999</v>
+        <v>7.6631632390000002</v>
       </c>
       <c r="AC99" s="29">
-        <v>27.6328</v>
+        <v>22.758374752000002</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="29">
-        <v>18.840928807000001</v>
+        <v>16.8</v>
       </c>
       <c r="D100" s="29">
-        <v>21.391999999999999</v>
+        <v>17.309270298000001</v>
       </c>
       <c r="E100" s="29">
-        <v>19.677399999999999</v>
+        <v>16.822887211000001</v>
       </c>
       <c r="F100" s="29">
-        <v>13.559100000000001</v>
-      </c>
-      <c r="G100" s="29" t="s">
-        <v>31</v>
+        <v>13.517649597</v>
+      </c>
+      <c r="G100" s="29">
+        <v>22.251046025000001</v>
       </c>
       <c r="H100" s="29">
-        <v>13.087199999999999</v>
-      </c>
-      <c r="I100" s="29" t="s">
-        <v>31</v>
+        <v>13.814815178</v>
+      </c>
+      <c r="I100" s="29">
+        <v>2.9203113159999998</v>
       </c>
       <c r="J100" s="29" t="s">
         <v>31</v>
       </c>
       <c r="K100" s="29">
-        <v>45.003300000000003</v>
+        <v>28.192747339</v>
       </c>
       <c r="L100" s="29">
-        <v>13.752800000000001</v>
+        <v>9.3454285519999996</v>
       </c>
       <c r="M100" s="29">
-        <v>24.1981</v>
+        <v>21.225821533000001</v>
       </c>
       <c r="N100" s="29">
-        <v>20.028500000000001</v>
+        <v>18.440053101</v>
       </c>
       <c r="O100" s="29">
-        <v>33.310299999999998</v>
+        <v>32.650037138000002</v>
       </c>
       <c r="P100" s="29">
-        <v>22.168900000000001</v>
+        <v>21.795546877</v>
       </c>
       <c r="Q100" s="29">
-        <v>28.813400000000001</v>
-      </c>
-      <c r="R100" s="29">
-        <v>28.552099999999999</v>
+        <v>26.15575192</v>
+      </c>
+      <c r="R100" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="S100" s="29">
-        <v>18.0685</v>
+        <v>8.7302992740000001</v>
       </c>
       <c r="T100" s="29">
-        <v>14.1798</v>
+        <v>12.690110486</v>
       </c>
       <c r="U100" s="29">
-        <v>17.6204</v>
+        <v>17.118767694999999</v>
       </c>
       <c r="V100" s="29">
-        <v>16.076499999999999</v>
+        <v>16.466316447000001</v>
       </c>
       <c r="W100" s="29">
-        <v>12.693199999999999</v>
+        <v>12.642046443</v>
       </c>
       <c r="X100" s="29">
-        <v>15.9328</v>
+        <v>14.068040661</v>
       </c>
       <c r="Y100" s="29">
-        <v>22.2042</v>
+        <v>20.387705361999998</v>
       </c>
       <c r="Z100" s="29">
-        <v>13.2567</v>
+        <v>15.066706393</v>
       </c>
       <c r="AA100" s="29">
-        <v>23.658899999999999</v>
+        <v>16.634139361999999</v>
       </c>
       <c r="AB100" s="29">
-        <v>19.935700000000001</v>
+        <v>14.730241151</v>
       </c>
       <c r="AC100" s="29">
-        <v>23.711400000000001</v>
+        <v>27.008714646000001</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="29">
-        <v>29.385929526000002</v>
+        <v>25.6</v>
       </c>
       <c r="D101" s="29">
-        <v>30.6816</v>
+        <v>26.700010093</v>
       </c>
       <c r="E101" s="29">
-        <v>33.122700000000002</v>
+        <v>30.030827962</v>
       </c>
       <c r="F101" s="29">
-        <v>28.515000000000001</v>
+        <v>24.746008953</v>
       </c>
       <c r="G101" s="29">
-        <v>44.084499999999998</v>
+        <v>36.326359832999998</v>
       </c>
       <c r="H101" s="29">
-        <v>42.6342</v>
+        <v>36.892794445</v>
       </c>
       <c r="I101" s="29">
-        <v>34.529000000000003</v>
+        <v>37.275294442000003</v>
       </c>
       <c r="J101" s="29">
-        <v>82.817499999999995</v>
+        <v>64.204016491999994</v>
       </c>
       <c r="K101" s="29" t="s">
         <v>31</v>
       </c>
       <c r="L101" s="29">
-        <v>30.459599999999998</v>
+        <v>26.610899312000001</v>
       </c>
       <c r="M101" s="29">
-        <v>25.934799999999999</v>
+        <v>20.181175819</v>
       </c>
       <c r="N101" s="29">
-        <v>28.8292</v>
+        <v>25.909276062</v>
       </c>
       <c r="O101" s="29">
-        <v>17.648399999999999</v>
+        <v>12.350466749000001</v>
       </c>
       <c r="P101" s="29">
-        <v>29.7852</v>
+        <v>25.147821889999999</v>
       </c>
       <c r="Q101" s="29">
-        <v>45.292299999999997</v>
+        <v>39.451647534999999</v>
       </c>
       <c r="R101" s="29">
-        <v>36.093699999999998</v>
-      </c>
-      <c r="S101" s="29" t="s">
-        <v>31</v>
+        <v>49.455477258000002</v>
+      </c>
+      <c r="S101" s="29">
+        <v>29.077386223000001</v>
       </c>
       <c r="T101" s="29">
-        <v>35.797899999999998</v>
+        <v>31.319242421999999</v>
       </c>
       <c r="U101" s="29">
-        <v>29.732399999999998</v>
+        <v>29.938917101000001</v>
       </c>
       <c r="V101" s="29">
-        <v>37.994900000000001</v>
+        <v>31.528317065</v>
       </c>
       <c r="W101" s="29">
-        <v>39.865600000000001</v>
+        <v>36.674715675000002</v>
       </c>
       <c r="X101" s="29">
-        <v>11.303900000000001</v>
+        <v>11.658416492000001</v>
       </c>
       <c r="Y101" s="29">
-        <v>22.558499999999999</v>
+        <v>17.378684016000001</v>
       </c>
       <c r="Z101" s="29">
-        <v>22.142600000000002</v>
+        <v>19.775916248000001</v>
       </c>
       <c r="AA101" s="29">
-        <v>20.384499999999999</v>
+        <v>12.658749462999999</v>
       </c>
       <c r="AB101" s="29">
-        <v>17.631799999999998</v>
+        <v>13.650933182999999</v>
       </c>
       <c r="AC101" s="29">
-        <v>12.8474</v>
+        <v>14.471660686</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="29">
-        <v>2.1036060616999999</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D102" s="29">
-        <v>3.1175000000000002</v>
+        <v>3.3015021949999999</v>
       </c>
       <c r="E102" s="29">
-        <v>4.3075000000000001</v>
+        <v>4.1766107469999998</v>
       </c>
       <c r="F102" s="29">
-        <v>0.63100000000000001</v>
+        <v>0.71216932300000002</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H102" s="29" t="s">
-        <v>31</v>
+      <c r="H102" s="29">
+        <v>0.60266959600000003</v>
       </c>
       <c r="I102" s="29" t="s">
         <v>31</v>
@@ -8072,23 +8040,23 @@
       <c r="K102" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L102" s="29" t="s">
-        <v>31</v>
+      <c r="L102" s="29">
+        <v>0.82034175200000004</v>
       </c>
       <c r="M102" s="29">
-        <v>2.4897999999999998</v>
+        <v>3.99422386</v>
       </c>
       <c r="N102" s="29">
-        <v>1.2025999999999999</v>
+        <v>1.1994233990000001</v>
       </c>
       <c r="O102" s="29">
-        <v>2.3182</v>
+        <v>2.017789091</v>
       </c>
       <c r="P102" s="29">
-        <v>2.1876000000000002</v>
-      </c>
-      <c r="Q102" s="29" t="s">
-        <v>31</v>
+        <v>3.4967144600000002</v>
+      </c>
+      <c r="Q102" s="29">
+        <v>1.879593691</v>
       </c>
       <c r="R102" s="29" t="s">
         <v>31</v>
@@ -8097,58 +8065,58 @@
         <v>31</v>
       </c>
       <c r="T102" s="29">
-        <v>1.7508999999999999</v>
+        <v>1.5642820900000001</v>
       </c>
       <c r="U102" s="29" t="s">
         <v>31</v>
       </c>
       <c r="V102" s="29">
-        <v>3.3365</v>
+        <v>3.643545177</v>
       </c>
       <c r="W102" s="29">
-        <v>2.3462999999999998</v>
+        <v>2.667306876</v>
       </c>
       <c r="X102" s="29" t="s">
         <v>31</v>
       </c>
       <c r="Y102" s="29">
-        <v>1.0609</v>
+        <v>1.3000735990000001</v>
       </c>
       <c r="Z102" s="29">
-        <v>1.4138999999999999</v>
+        <v>1.0304980260000001</v>
       </c>
       <c r="AA102" s="29" t="s">
         <v>31</v>
       </c>
       <c r="AB102" s="29">
-        <v>0.58860000000000001</v>
+        <v>0.70238919700000002</v>
       </c>
       <c r="AC102" s="29">
-        <v>6.6153000000000004</v>
+        <v>11.063810819</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="29">
-        <v>4.6258306487</v>
+        <v>7.8</v>
       </c>
       <c r="D103" s="29">
-        <v>8.1599000000000004</v>
+        <v>13.994563849</v>
       </c>
       <c r="E103" s="29">
-        <v>5.9977999999999998</v>
+        <v>9.7351709060000005</v>
       </c>
       <c r="F103" s="29">
-        <v>5.7690999999999999</v>
+        <v>7.0978446999999996</v>
       </c>
       <c r="G103" s="29" t="s">
         <v>31</v>
       </c>
       <c r="H103" s="29">
-        <v>2.8149999999999999</v>
+        <v>4.5840157699999997</v>
       </c>
       <c r="I103" s="29" t="s">
         <v>31</v>
@@ -8160,22 +8128,22 @@
         <v>31</v>
       </c>
       <c r="L103" s="29">
-        <v>3.5804999999999998</v>
+        <v>5.5356048739999997</v>
       </c>
       <c r="M103" s="29">
-        <v>3.1943999999999999</v>
+        <v>5.3800663489999998</v>
       </c>
       <c r="N103" s="29">
-        <v>3.4502000000000002</v>
+        <v>6.8079888390000001</v>
       </c>
       <c r="O103" s="29">
-        <v>4.8028000000000004</v>
+        <v>5.6984065959999999</v>
       </c>
       <c r="P103" s="29">
-        <v>2.7408000000000001</v>
-      </c>
-      <c r="Q103" s="29" t="s">
-        <v>31</v>
+        <v>5.2575958690000002</v>
+      </c>
+      <c r="Q103" s="29">
+        <v>5.9492939140000001</v>
       </c>
       <c r="R103" s="29" t="s">
         <v>31</v>
@@ -8184,31 +8152,31 @@
         <v>31</v>
       </c>
       <c r="T103" s="29">
-        <v>4.8875000000000002</v>
+        <v>7.3185314699999999</v>
       </c>
       <c r="U103" s="29">
-        <v>7.8715000000000002</v>
+        <v>8.3473048510000005</v>
       </c>
       <c r="V103" s="29">
-        <v>5.1764000000000001</v>
+        <v>8.5055349440000008</v>
       </c>
       <c r="W103" s="29">
-        <v>6.1675000000000004</v>
+        <v>8.1478234040000004</v>
       </c>
       <c r="X103" s="29">
-        <v>0.84819999999999995</v>
+        <v>0.98942401599999996</v>
       </c>
       <c r="Y103" s="29">
-        <v>3.8917999999999999</v>
-      </c>
-      <c r="Z103" s="29" t="s">
-        <v>31</v>
+        <v>8.3727533950000002</v>
+      </c>
+      <c r="Z103" s="29">
+        <v>0.79621111099999997</v>
       </c>
       <c r="AA103" s="29">
-        <v>3.3845000000000001</v>
+        <v>9.067391615</v>
       </c>
       <c r="AB103" s="29">
-        <v>2.2692000000000001</v>
+        <v>5.4448365540000001</v>
       </c>
       <c r="AC103" s="29" t="s">
         <v>31</v>
@@ -8216,20 +8184,20 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="29">
-        <v>4.1037589143000002</v>
+        <v>2.4</v>
       </c>
       <c r="D104" s="29">
-        <v>3.6227999999999998</v>
+        <v>1.640260327</v>
       </c>
       <c r="E104" s="29">
-        <v>11.756</v>
-      </c>
-      <c r="F104" s="29">
-        <v>1.3672</v>
+        <v>8.0414389679999996</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="G104" s="29" t="s">
         <v>31</v>
@@ -8244,22 +8212,22 @@
         <v>31</v>
       </c>
       <c r="K104" s="29">
-        <v>51.466299999999997</v>
+        <v>63.027197477000001</v>
       </c>
       <c r="L104" s="29" t="s">
         <v>31</v>
       </c>
       <c r="M104" s="29">
-        <v>1.2854000000000001</v>
+        <v>0.65205389499999999</v>
       </c>
       <c r="N104" s="29">
-        <v>3.4205999999999999</v>
+        <v>1.9887676729999999</v>
       </c>
       <c r="O104" s="29">
-        <v>1.1003000000000001</v>
+        <v>0.36765117600000002</v>
       </c>
       <c r="P104" s="29">
-        <v>2.8277999999999999</v>
+        <v>1.1829407869999999</v>
       </c>
       <c r="Q104" s="29" t="s">
         <v>31</v>
@@ -8271,31 +8239,31 @@
         <v>31</v>
       </c>
       <c r="T104" s="29">
-        <v>3.6347</v>
+        <v>0.63646503799999998</v>
       </c>
       <c r="U104" s="29">
-        <v>14.4785</v>
+        <v>9.0998655280000005</v>
       </c>
       <c r="V104" s="29">
-        <v>5.1262999999999996</v>
+        <v>3.0680811189999999</v>
       </c>
       <c r="W104" s="29">
-        <v>3.7610000000000001</v>
+        <v>2.2748307269999999</v>
       </c>
       <c r="X104" s="29" t="s">
         <v>31</v>
       </c>
       <c r="Y104" s="29">
-        <v>1.8085</v>
+        <v>0.37603924399999999</v>
       </c>
       <c r="Z104" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AA104" s="29">
-        <v>0.95830000000000004</v>
+      <c r="AA104" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="AB104" s="29">
-        <v>1.0250999999999999</v>
+        <v>0.37231908499999999</v>
       </c>
       <c r="AC104" s="29" t="s">
         <v>31</v>
@@ -8303,17 +8271,17 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="29">
-        <v>0.85559585289999995</v>
+        <v>1</v>
       </c>
       <c r="D105" s="29">
-        <v>0.24</v>
+        <v>0.31020747799999998</v>
       </c>
       <c r="E105" s="29">
-        <v>0.52080000000000004</v>
+        <v>0.61715316600000003</v>
       </c>
       <c r="F105" s="29" t="s">
         <v>31</v>
@@ -8370,46 +8338,46 @@
         <v>31</v>
       </c>
       <c r="X105" s="29">
-        <v>0.52029999999999998</v>
+        <v>0.82991267499999999</v>
       </c>
       <c r="Y105" s="29">
-        <v>2.8771</v>
+        <v>4.0684333649999997</v>
       </c>
       <c r="Z105" s="29" t="s">
         <v>31</v>
       </c>
       <c r="AA105" s="29">
-        <v>12.221500000000001</v>
+        <v>14.123908999999999</v>
       </c>
       <c r="AB105" s="29">
-        <v>6.0605000000000002</v>
-      </c>
-      <c r="AC105" s="29">
-        <v>3.7786</v>
+        <v>7.4226166600000001</v>
+      </c>
+      <c r="AC105" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="29">
-        <v>7.0570705579000004</v>
+        <v>13.2</v>
       </c>
       <c r="D106" s="29">
-        <v>6.8891999999999998</v>
+        <v>14.07711271</v>
       </c>
       <c r="E106" s="29">
-        <v>8.5068000000000001</v>
+        <v>13.585042099000001</v>
       </c>
       <c r="F106" s="29">
-        <v>7.0727000000000002</v>
-      </c>
-      <c r="G106" s="29">
-        <v>26.282800000000002</v>
+        <v>12.228227894</v>
+      </c>
+      <c r="G106" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="H106" s="29">
-        <v>1.4064000000000001</v>
+        <v>2.6097702109999998</v>
       </c>
       <c r="I106" s="29" t="s">
         <v>31</v>
@@ -8417,26 +8385,26 @@
       <c r="J106" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K106" s="29" t="s">
-        <v>31</v>
+      <c r="K106" s="29">
+        <v>2.7493102089999999</v>
       </c>
       <c r="L106" s="29">
-        <v>7.1574999999999998</v>
+        <v>19.229525495000001</v>
       </c>
       <c r="M106" s="29">
-        <v>5.2854999999999999</v>
+        <v>12.463795507</v>
       </c>
       <c r="N106" s="29">
-        <v>5.5552999999999999</v>
+        <v>11.41721066</v>
       </c>
       <c r="O106" s="29">
-        <v>11.180099999999999</v>
+        <v>17.695032417</v>
       </c>
       <c r="P106" s="29">
-        <v>14.1943</v>
+        <v>17.995692413</v>
       </c>
       <c r="Q106" s="29">
-        <v>3.4235000000000002</v>
+        <v>6.8296308530000003</v>
       </c>
       <c r="R106" s="29" t="s">
         <v>31</v>
@@ -8445,52 +8413,52 @@
         <v>31</v>
       </c>
       <c r="T106" s="29">
-        <v>5.7460000000000004</v>
-      </c>
-      <c r="U106" s="29" t="s">
-        <v>31</v>
+        <v>10.535650584000001</v>
+      </c>
+      <c r="U106" s="29">
+        <v>5.5164737160000001</v>
       </c>
       <c r="V106" s="29">
-        <v>5.4699</v>
+        <v>9.7815158919999998</v>
       </c>
       <c r="W106" s="29">
-        <v>5.4374000000000002</v>
+        <v>10.599175615</v>
       </c>
       <c r="X106" s="29">
-        <v>3.5280999999999998</v>
+        <v>12.112355204</v>
       </c>
       <c r="Y106" s="29">
-        <v>11.250299999999999</v>
+        <v>19.677598961000001</v>
       </c>
       <c r="Z106" s="29">
-        <v>4.8868</v>
+        <v>10.588353818</v>
       </c>
       <c r="AA106" s="29">
-        <v>9.3087999999999997</v>
+        <v>20.808127057</v>
       </c>
       <c r="AB106" s="29">
-        <v>11.467599999999999</v>
+        <v>24.611560716</v>
       </c>
       <c r="AC106" s="29">
-        <v>7.2751999999999999</v>
+        <v>15.623955246</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="29">
-        <v>2.6342645679999999</v>
+        <v>2.1</v>
       </c>
       <c r="D107" s="29">
-        <v>2.2368999999999999</v>
+        <v>1.797094255</v>
       </c>
       <c r="E107" s="29">
-        <v>3.2852999999999999</v>
+        <v>2.8179332110000002</v>
       </c>
       <c r="F107" s="29">
-        <v>8.7300000000000003E-2</v>
+        <v>0.14882156199999999</v>
       </c>
       <c r="G107" s="29" t="s">
         <v>31</v>
@@ -8511,19 +8479,19 @@
         <v>31</v>
       </c>
       <c r="M107" s="29">
-        <v>0.75760000000000005</v>
+        <v>0.73445175600000001</v>
       </c>
       <c r="N107" s="29">
-        <v>0.50519999999999998</v>
+        <v>0.60256093700000002</v>
       </c>
       <c r="O107" s="29">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="P107" s="29">
-        <v>0.44740000000000002</v>
-      </c>
-      <c r="Q107" s="29">
-        <v>5.1271000000000004</v>
+        <v>0.28217694300000001</v>
+      </c>
+      <c r="P107" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q107" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="R107" s="29" t="s">
         <v>31</v>
@@ -8532,22 +8500,22 @@
         <v>31</v>
       </c>
       <c r="T107" s="29">
-        <v>1.2088000000000001</v>
+        <v>1.1790995280000001</v>
       </c>
       <c r="U107" s="29" t="s">
         <v>31</v>
       </c>
       <c r="V107" s="29">
-        <v>1.1261000000000001</v>
+        <v>0.99693965500000004</v>
       </c>
       <c r="W107" s="29">
-        <v>3.4295</v>
+        <v>2.8491634370000001</v>
       </c>
       <c r="X107" s="29">
-        <v>21.684699999999999</v>
+        <v>17.982277049</v>
       </c>
       <c r="Y107" s="29">
-        <v>0.82720000000000005</v>
+        <v>0.40389291100000002</v>
       </c>
       <c r="Z107" s="29" t="s">
         <v>31</v>
@@ -8556,7 +8524,7 @@
         <v>31</v>
       </c>
       <c r="AB107" s="29">
-        <v>8.1087000000000007</v>
+        <v>5.4865744510000001</v>
       </c>
       <c r="AC107" s="29" t="s">
         <v>31</v>
@@ -8594,304 +8562,304 @@
       <c r="AC108" s="18"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A109" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="55">
-        <v>2017</v>
-      </c>
-      <c r="C109" s="53"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="53"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="53"/>
-      <c r="O109" s="53"/>
-      <c r="P109" s="53"/>
-      <c r="Q109" s="53"/>
-      <c r="R109" s="53"/>
-      <c r="S109" s="53"/>
-      <c r="T109" s="53"/>
-      <c r="U109" s="53"/>
-      <c r="V109" s="53"/>
-      <c r="W109" s="53"/>
-      <c r="X109" s="53"/>
-      <c r="Y109" s="53"/>
-      <c r="Z109" s="53"/>
-      <c r="AA109" s="53"/>
-      <c r="AB109" s="53"/>
-      <c r="AC109" s="53"/>
+      <c r="A109" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="52">
+        <v>2018</v>
+      </c>
+      <c r="C109" s="50"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="50"/>
+      <c r="Q109" s="50"/>
+      <c r="R109" s="50"/>
+      <c r="S109" s="50"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="50"/>
+      <c r="V109" s="50"/>
+      <c r="W109" s="50"/>
+      <c r="X109" s="50"/>
+      <c r="Y109" s="50"/>
+      <c r="Z109" s="50"/>
+      <c r="AA109" s="50"/>
+      <c r="AB109" s="50"/>
+      <c r="AC109" s="50"/>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="18">
-        <v>52.140672600000002</v>
+        <v>51</v>
       </c>
       <c r="D110" s="18">
-        <v>59.719658138</v>
+        <v>60.339842031000003</v>
       </c>
       <c r="E110" s="18">
-        <v>49.203468441200002</v>
+        <v>48.581841598399997</v>
       </c>
       <c r="F110" s="18">
-        <v>46.393503174300001</v>
+        <v>43.925550914399999</v>
       </c>
       <c r="G110" s="18">
-        <v>22.714068335899999</v>
+        <v>20.5239813769</v>
       </c>
       <c r="H110" s="18">
-        <v>25.990773948899999</v>
+        <v>26.973763676000001</v>
       </c>
       <c r="I110" s="18">
-        <v>33.201348386799999</v>
+        <v>35.582168995300002</v>
       </c>
       <c r="J110" s="18">
-        <v>28.691606354000001</v>
+        <v>28.881286508900001</v>
       </c>
       <c r="K110" s="18">
-        <v>26.801504471099999</v>
+        <v>24.8333292027</v>
       </c>
       <c r="L110" s="18">
-        <v>39.355213476599999</v>
+        <v>34.770891636999998</v>
       </c>
       <c r="M110" s="18">
-        <v>41.434497970599999</v>
+        <v>40.844373067900001</v>
       </c>
       <c r="N110" s="18">
-        <v>54.679874258200002</v>
+        <v>51.9909222199</v>
       </c>
       <c r="O110" s="18">
-        <v>113.4821567307</v>
+        <v>106.3236173856</v>
       </c>
       <c r="P110" s="18">
-        <v>38.785256140900003</v>
+        <v>34.164509464399998</v>
       </c>
       <c r="Q110" s="18">
-        <v>47.245849273899999</v>
+        <v>46.342392840899997</v>
       </c>
       <c r="R110" s="18">
-        <v>28.532954835000002</v>
+        <v>28.743339736900001</v>
       </c>
       <c r="S110" s="18">
-        <v>22.995688308399998</v>
+        <v>21.049363551700001</v>
       </c>
       <c r="T110" s="18">
-        <v>34.298938219299998</v>
+        <v>36.523699884700001</v>
       </c>
       <c r="U110" s="18">
-        <v>31.824854467200002</v>
+        <v>34.403298835699999</v>
       </c>
       <c r="V110" s="18">
-        <v>35.572496993000001</v>
+        <v>37.374736955099998</v>
       </c>
       <c r="W110" s="18">
-        <v>33.907258347499997</v>
+        <v>35.682849953100003</v>
       </c>
       <c r="X110" s="18">
-        <v>39.7093474427</v>
+        <v>38.330944363900002</v>
       </c>
       <c r="Y110" s="18">
-        <v>64.837631972599993</v>
+        <v>61.533495812200002</v>
       </c>
       <c r="Z110" s="18">
-        <v>36.084510696499997</v>
+        <v>32.533539505</v>
       </c>
       <c r="AA110" s="18">
-        <v>65.784831463800003</v>
+        <v>57.708300555199997</v>
       </c>
       <c r="AB110" s="18">
-        <v>102.79781992300001</v>
+        <v>100.2828880018</v>
       </c>
       <c r="AC110" s="18">
-        <v>37.334865020099997</v>
+        <v>33.346977759600001</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="18">
-        <v>9.5104845269999991</v>
+        <v>9</v>
       </c>
       <c r="D111" s="18">
-        <v>8.6379487744999999</v>
+        <v>8.8137968260000008</v>
       </c>
       <c r="E111" s="18">
-        <v>12.223907539400001</v>
+        <v>11.7483217376</v>
       </c>
       <c r="F111" s="18">
-        <v>5.8156109241999996</v>
+        <v>7.4882043560999998</v>
       </c>
       <c r="G111" s="18">
-        <v>1.549315258</v>
+        <v>1.0468607951</v>
       </c>
       <c r="H111" s="18">
-        <v>7.5001764370000004</v>
+        <v>6.7831736607000002</v>
       </c>
       <c r="I111" s="18">
-        <v>2.1938038417999999</v>
+        <v>2.3952095808</v>
       </c>
       <c r="J111" s="18">
-        <v>2.7493185449999999</v>
+        <v>3.0021643509999998</v>
       </c>
       <c r="K111" s="18">
-        <v>5.7787630457999999</v>
+        <v>4.4362933405999998</v>
       </c>
       <c r="L111" s="18">
-        <v>4.2195114079999998</v>
+        <v>4.6403712297000004</v>
       </c>
       <c r="M111" s="18">
-        <v>9.7719243124999995</v>
+        <v>12.346305947199999</v>
       </c>
       <c r="N111" s="18">
-        <v>5.7860533475000002</v>
+        <v>6.4509711455999996</v>
       </c>
       <c r="O111" s="18">
-        <v>20.552131351300002</v>
+        <v>18.756317428900001</v>
       </c>
       <c r="P111" s="18">
-        <v>2.8989160575000001</v>
+        <v>2.4736693574999999</v>
       </c>
       <c r="Q111" s="18">
-        <v>13.656229494</v>
+        <v>8.7276124448000001</v>
       </c>
       <c r="R111" s="18">
-        <v>2.4747971030000002</v>
+        <v>3.4434013555999998</v>
       </c>
       <c r="S111" s="18">
-        <v>2.8119727551000002</v>
+        <v>0.93138776779999999</v>
       </c>
       <c r="T111" s="18">
-        <v>9.2209363408999998</v>
+        <v>9.8794101678999997</v>
       </c>
       <c r="U111" s="18">
-        <v>7.5677043786000002</v>
+        <v>6.8372008408999996</v>
       </c>
       <c r="V111" s="18">
-        <v>4.3288085828999998</v>
+        <v>5.1461427029999998</v>
       </c>
       <c r="W111" s="18">
-        <v>5.7257054622999997</v>
+        <v>4.6201438270999997</v>
       </c>
       <c r="X111" s="18">
-        <v>10.6328042328</v>
+        <v>9.7226816393999993</v>
       </c>
       <c r="Y111" s="18">
-        <v>15.096416767099999</v>
+        <v>10.1925411881</v>
       </c>
       <c r="Z111" s="18">
-        <v>9.3550251197000005</v>
+        <v>9.9161548982000003</v>
       </c>
       <c r="AA111" s="18">
-        <v>11.581087211</v>
+        <v>10.350407947700001</v>
       </c>
       <c r="AB111" s="18">
-        <v>15.7030094541</v>
+        <v>13.516433147800001</v>
       </c>
       <c r="AC111" s="18">
-        <v>5.0053335520999997</v>
+        <v>5.4714149269999997</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="28"/>
       <c r="C112" s="25">
-        <v>4.5197189870000001</v>
+        <v>4.5</v>
       </c>
       <c r="D112" s="25">
-        <v>6.0975732692999998</v>
+        <v>6.3622331565000003</v>
       </c>
       <c r="E112" s="25">
-        <v>2.5708393367000002</v>
+        <v>2.5748550614000001</v>
       </c>
       <c r="F112" s="25">
-        <v>1.9087896043000001</v>
+        <v>2.0885300586</v>
       </c>
       <c r="G112" s="25">
-        <v>2.8496334209</v>
+        <v>2.4794071461999998</v>
       </c>
       <c r="H112" s="25">
-        <v>2.0723327538</v>
+        <v>2.3839645011999999</v>
       </c>
       <c r="I112" s="25">
-        <v>1.5784686179</v>
+        <v>1.7032601463999999</v>
       </c>
       <c r="J112" s="25">
-        <v>1.4804022934000001</v>
+        <v>1.3498103284</v>
       </c>
       <c r="K112" s="25">
-        <v>2.092310758</v>
+        <v>2.6022949763000001</v>
       </c>
       <c r="L112" s="25">
-        <v>3.4934004583</v>
+        <v>2.4876216901000001</v>
       </c>
       <c r="M112" s="25">
-        <v>5.9567701354000002</v>
+        <v>6.0208078102</v>
       </c>
       <c r="N112" s="25">
-        <v>1.6107422404</v>
+        <v>1.5878746795000001</v>
       </c>
       <c r="O112" s="25">
-        <v>12.7414927228</v>
+        <v>16.1262041793</v>
       </c>
       <c r="P112" s="25">
-        <v>0.88227880010000004</v>
+        <v>0.57835086390000001</v>
       </c>
       <c r="Q112" s="25">
-        <v>4.9400141143000003</v>
+        <v>5.0521812884999999</v>
       </c>
       <c r="R112" s="25">
-        <v>0.72788150090000003</v>
-      </c>
-      <c r="S112" s="73" t="s">
-        <v>35</v>
+        <v>0.61618761099999997</v>
+      </c>
+      <c r="S112" s="59" t="s">
+        <v>32</v>
       </c>
       <c r="T112" s="25">
-        <v>2.4295993249999999</v>
+        <v>2.8869435649000001</v>
       </c>
       <c r="U112" s="25">
-        <v>0.83523158689999999</v>
+        <v>1.0106727038000001</v>
       </c>
       <c r="V112" s="25">
-        <v>1.9699696441000001</v>
+        <v>2.0313329000999998</v>
       </c>
       <c r="W112" s="25">
-        <v>2.8185246889000002</v>
+        <v>2.7903477343</v>
       </c>
       <c r="X112" s="25">
-        <v>2.8980599646999998</v>
+        <v>2.4144141088</v>
       </c>
       <c r="Y112" s="25">
-        <v>5.1858892844</v>
+        <v>4.4381178849999996</v>
       </c>
       <c r="Z112" s="25">
-        <v>3.2048258130999998</v>
+        <v>3.5875043563000002</v>
       </c>
       <c r="AA112" s="25">
-        <v>2.4192599976000002</v>
+        <v>2.3825043266999999</v>
       </c>
       <c r="AB112" s="25">
-        <v>17.929662284199999</v>
+        <v>16.6643446024</v>
       </c>
       <c r="AC112" s="25">
-        <v>2.8719126939000001</v>
+        <v>2.7015963978999999</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="42"/>
       <c r="C113" s="37"/>
@@ -8924,46 +8892,58 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A117" s="74" t="s">
+      <c r="A117" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-    </row>
     <row r="119" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44" t="s">
-        <v>129</v>
-      </c>
+      <c r="A119" s="43"/>
       <c r="E119" s="35"/>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="19" t="s">
+    <row r="124" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="47"/>
+      <c r="E124" s="35"/>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123" s="34" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
